--- a/high_confidence_for_annotation.xlsx
+++ b/high_confidence_for_annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rosydai/Desktop/Master_thesis/Frontend/annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA861A7F-89DB-3D48-B80D-1205368865AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22675CB9-CD50-8441-8A10-86DD3F5B63E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17340" xr2:uid="{DC94E088-820A-3B47-AB40-7E8AE428A805}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5069" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5101" uniqueCount="997">
   <si>
     <t>ID_int</t>
   </si>
@@ -3028,6 +3028,9 @@
   </si>
   <si>
     <t>PRELIMINARYTESTS_FORTHE_DIFFUSIONBONDINGOF.pdf</t>
+  </si>
+  <si>
+    <t>Daisy</t>
   </si>
 </sst>
 </file>
@@ -3442,13 +3445,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A85F72-B3EC-EB4D-A3E1-C70AFE08A3AE}">
-  <dimension ref="A1:J451"/>
+  <dimension ref="A1:J455"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B436" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21:D451"/>
+      <selection pane="bottomRight" activeCell="E463" sqref="E463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17888,13 +17891,129 @@
         <v>866</v>
       </c>
     </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>864</v>
+      </c>
+      <c r="B452" s="2">
+        <v>8888</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="D452" t="s">
+        <v>22</v>
+      </c>
+      <c r="E452" t="s">
+        <v>996</v>
+      </c>
+      <c r="F452" t="s">
+        <v>438</v>
+      </c>
+      <c r="G452" t="s">
+        <v>565</v>
+      </c>
+      <c r="H452" t="s">
+        <v>610</v>
+      </c>
+      <c r="I452" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>864</v>
+      </c>
+      <c r="B453" s="2">
+        <v>8888</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="D453" t="s">
+        <v>10</v>
+      </c>
+      <c r="E453" t="s">
+        <v>996</v>
+      </c>
+      <c r="F453" t="s">
+        <v>550</v>
+      </c>
+      <c r="G453" t="s">
+        <v>157</v>
+      </c>
+      <c r="H453" t="s">
+        <v>993</v>
+      </c>
+      <c r="I453" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>834</v>
+      </c>
+      <c r="B454" s="2">
+        <v>8888</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="D454" t="s">
+        <v>22</v>
+      </c>
+      <c r="E454" t="s">
+        <v>996</v>
+      </c>
+      <c r="F454" t="s">
+        <v>466</v>
+      </c>
+      <c r="G454" t="s">
+        <v>159</v>
+      </c>
+      <c r="H454" t="s">
+        <v>994</v>
+      </c>
+      <c r="I454" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>834</v>
+      </c>
+      <c r="B455" s="2">
+        <v>8888</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="D455" t="s">
+        <v>10</v>
+      </c>
+      <c r="E455" t="s">
+        <v>996</v>
+      </c>
+      <c r="F455" t="s">
+        <v>480</v>
+      </c>
+      <c r="G455" t="s">
+        <v>565</v>
+      </c>
+      <c r="H455" t="s">
+        <v>912</v>
+      </c>
+      <c r="I455" t="s">
+        <v>756</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K451" xr:uid="{B7A85F72-B3EC-EB4D-A3E1-C70AFE08A3AE}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J451">
       <sortCondition ref="A1:A451"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="B246:B451">
+  <conditionalFormatting sqref="B246:B455">
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/high_confidence_for_annotation.xlsx
+++ b/high_confidence_for_annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rosydai/Desktop/Master_thesis/Frontend/annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22675CB9-CD50-8441-8A10-86DD3F5B63E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B016491B-4D71-5744-A020-6E767432DB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17340" xr2:uid="{DC94E088-820A-3B47-AB40-7E8AE428A805}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Raziyeh_high_conf" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">toBeDone!$A$1:$K$451</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">toBeDone!$A$1:$K$450</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5101" uniqueCount="997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5076" uniqueCount="992">
   <si>
     <t>ID_int</t>
   </si>
@@ -3003,12 +3003,6 @@
     <t>IMPROVING_THE_PHASE_STABILITY_OF_THE.pdf</t>
   </si>
   <si>
-    <t>[6] J. W. Wang, "RF Properties of Periodic Accelerating Structures for Linear Colliders", SLAC-339, July 1989 [7] F.-J. Decker, D. Farkas, L. Rinolfi, J. Truher, "Reducing Energy Spread for Long Bunch Train at SLAC", SLAC-PUB-7214, June 1996.</t>
-  </si>
-  <si>
-    <t>STUDY_OF_A_BUNCH_TRAIN_TOTAL_ENERGY_SPREAD_IN_A_LINAC.pdf</t>
-  </si>
-  <si>
     <t>Three more accelerating structures were placed downstream of the first one with a distance between adjacent coupler centers of $0 . 3 5 \\mathrm { m }$ . The beam from the first structure at maximum brightness was used as input to that part of the linac but the reference particle was moved to the new bunch center. Phases of the three structures were set for maximum acceleration but with a phase offset of - $. 1 5 ^ { \\circ }$ to provide some additional longitudinal compression of the bunch. Figure 2 shows resulted longitudinal phase space cropped at the DR level. The accepted yield is $8 . 0 ~ \\mathrm { { n } _ { e + } / \\mathrm { { n } _ { e } - } }$ and the total yield is $8 . 6 ~ \\mathrm { { n } _ { e } + / \\mathrm { { n } _ { e } - } }$ . The root mean square (RMS) energy spread of accepted particles $\\Delta \\mathrm { W } / \\mathrm { W }$ is $1 . 1 \\%$ and RMS bunch length $\\Delta Z$ is $2 . 8 \\mathrm { m m }$ .</t>
   </si>
   <si>
@@ -3019,15 +3013,6 @@
   </si>
   <si>
     <t>ANALYTICAL_POTENTIAL_MODEL_FOR_THE_RADIO-FREQUENCY.pdf</t>
-  </si>
-  <si>
-    <t>[10] D. Breton, J. Malmii, WaveCatcher Family User‚Äôs Manual, 2017. [11] L. Burmistrov, D. Breton, V. Chaumat, S. Conforti Di Lorenzo, J. Jeglot, J. Maalmi, V. Puill, A. Stocchi, J. Vagnucci, G. Cavoto, M. Garattini, F. Iacoangeli, F.L.S. Montesano, W. Scandale, Cherenkov detector for proton flux measurement for ua9 project, in: 2013 IEEE Nuclear Science Symposium and Medical Imaging Conference (2013 NSS/MIC), 2013, pp. 1‚Äì4, http://dx.doi.org/10.1109/NSSMIC. 2013.6829430. [12] L. Burmistrov, D. Breton, G. Cavoto, V. Chaumat, J. Collin, S.C.D. Lorenzo, M. Garattini, F. Iacoangeli, J. Jeglot, J. Maalmi, S. Montesano, V. Puill, R. Rossi, W. Scandale, A. Stocchi, J.-F. Vagnucci, Test of full size cherenkov detector for proton flux measurements, Nucl. Instrum. Methods Phys. Res. A 787 (2015) 173‚Äì175, http://dx.doi.org/10.1016/j.nima.2014.11.089, new Developments in Photodetection NDIP14. URL http://www.sciencedirect.com/science/article/pii/ S016890021401403X. [13] F.M. Addesa, G. Cavoto, In-vacuum Cherenkov light detectors for crystal-assisted beam manipulations, presented 28 Sep 2018 (Jun 2018). URL https://cds.cern. ch/record/2661725. [14] S. Montesano, W. Scandale, Status and results of the UA9 crystal collimation experiment at the cern-sps, in: HB2012: Proceedings of the 52nd ICFA Advanced Beam Dynamics Workshop on High-Intensity and High-Brightness Hadron Beams, Beijing, China, Sept. 17-21, 2012, 2012, p. 245, URL https://accelconf.web.cern. ch/accelconf/HB2012/papers/tuo3a02.pdf. [15] A. Natochii, L. Burmistrov, F. Addesa, O. Bezshyyko, D. Breton, V. Chaumat, G. Cavoto, S. Dubos, Y. Gavrikov, F. Iacoangeli, J.M.D. Bello, S. Montesano, V. Puill, R. Rossi, W. Scandale, A. Stocchi, Characterisation of the fused silica surface quality with a $\\beta$ -source, Nucl. Instrum. Methods Phys. Res. A 910 (2018) 15‚Äì21, http://dx.doi.org/10.1016/j.nima.2018.08.119, URL http://www. sciencedirect.com/science/article/pii/S0168900218310775.</t>
-  </si>
-  <si>
-    <t>REFERENCES [1] L. Faillace et al., ‚ÄúStatus of compact inverse compton sources in Italy: BriXS and STAR,‚Äù in Advances in Laboratorybased X-Ray Sources, Optics, and Applications VII, International Society for Optics and Photonics, vol. 11110, 2019, p. 1 111 005. [2] V. Shiltsev and F. Zimmermann, ‚ÄúModern and future colliders,‚Äù Rev. Mod. Phys., vol. 93, p. 015 006, 2021. doi:10.1103/RevModPhys.93.015006 [3] L. Faillace et al., ‚ÄúPerspectives in linear accelerator for flash vhee: Study of a compact c-band system,‚Äù Physica Medica, vol. 104, pp. 149‚Äì159, 2022. doi:10.1016/j.ejmp.2022.10.018 [4] T. P. Wangler, RF Linear Accelerators. J. Wiley &amp; Sons, 2008. [5] A. D. Cahill, J. B. Rosenzweig, V. A. Dolgashev, Z. Li, S. G. Tantawi, and S. Weathersby, ‚ÄúRf losses in a high gradient cryogenic copper cavity,‚Äù Phys. Rev. Accel. Beams, vol. 21, p. 061 301, 6 2018. doi:10.1103/PhysRevAccelBeams.21.061301 [6] A. D. Cahill, J. B. Rosenzweig, V. A. Dolgashev, S. G. Tantawi, and S. Weathersby, ‚ÄúHigh gradient experiments with X-band cryogenic copper accelerating cavities,‚Äù Phys. Rev. Accel. Beams, vol. 21, p. 102 002, 10 2018. doi:10.1103/PhysRevAccelBeams.21.102002 [7] S. Tantawi, M. Nasr, Z. Li, C. Limborg, and P. Borchard, ‚ÄúDesign and demonstration of a distributed-coupling linear accelerator structure,‚Äù Phys. Rev. Accel. Beams, vol. 23, no. 9, p. 092 001, 2020.</t>
-  </si>
-  <si>
-    <t>PRELIMINARYTESTS_FORTHE_DIFFUSIONBONDINGOF.pdf</t>
   </si>
   <si>
     <t>Daisy</t>
@@ -3445,18 +3430,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A85F72-B3EC-EB4D-A3E1-C70AFE08A3AE}">
-  <dimension ref="A1:J455"/>
+  <dimension ref="A1:J452"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B436" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B435" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E463" sqref="E463"/>
+      <selection pane="bottomRight" activeCell="A451" sqref="A451:A452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.83203125" style="2"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -17576,31 +17562,31 @@
         <v>864</v>
       </c>
       <c r="B442" s="2">
-        <v>1323</v>
+        <v>1687</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>866</v>
       </c>
       <c r="D442" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E442" t="s">
         <v>306</v>
       </c>
       <c r="F442" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="G442" t="s">
         <v>160</v>
       </c>
       <c r="H442" t="s">
-        <v>987</v>
+        <v>692</v>
       </c>
       <c r="I442" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="J442" t="s">
-        <v>988</v>
+        <v>866</v>
       </c>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.2">
@@ -17608,13 +17594,13 @@
         <v>864</v>
       </c>
       <c r="B443" s="2">
-        <v>1687</v>
+        <v>1737</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>866</v>
       </c>
       <c r="D443" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E443" t="s">
         <v>306</v>
@@ -17626,13 +17612,13 @@
         <v>160</v>
       </c>
       <c r="H443" t="s">
-        <v>692</v>
+        <v>987</v>
       </c>
       <c r="I443" t="s">
         <v>757</v>
       </c>
       <c r="J443" t="s">
-        <v>866</v>
+        <v>988</v>
       </c>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.2">
@@ -17640,31 +17626,31 @@
         <v>864</v>
       </c>
       <c r="B444" s="2">
-        <v>1737</v>
+        <v>2457</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>866</v>
       </c>
       <c r="D444" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E444" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F444" t="s">
-        <v>417</v>
+        <v>536</v>
       </c>
       <c r="G444" t="s">
-        <v>160</v>
+        <v>563</v>
       </c>
       <c r="H444" t="s">
-        <v>989</v>
+        <v>894</v>
       </c>
       <c r="I444" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="J444" t="s">
-        <v>990</v>
+        <v>866</v>
       </c>
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.2">
@@ -17672,7 +17658,7 @@
         <v>864</v>
       </c>
       <c r="B445" s="2">
-        <v>2457</v>
+        <v>2490</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>866</v>
@@ -17690,7 +17676,7 @@
         <v>563</v>
       </c>
       <c r="H445" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="I445" t="s">
         <v>758</v>
@@ -17704,13 +17690,13 @@
         <v>864</v>
       </c>
       <c r="B446" s="2">
-        <v>2490</v>
+        <v>2501</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>866</v>
       </c>
       <c r="D446" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E446" t="s">
         <v>298</v>
@@ -17722,13 +17708,13 @@
         <v>563</v>
       </c>
       <c r="H446" t="s">
-        <v>896</v>
+        <v>989</v>
       </c>
       <c r="I446" t="s">
         <v>758</v>
       </c>
       <c r="J446" t="s">
-        <v>866</v>
+        <v>990</v>
       </c>
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.2">
@@ -17736,7 +17722,7 @@
         <v>864</v>
       </c>
       <c r="B447" s="2">
-        <v>2501</v>
+        <v>2599</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>866</v>
@@ -17748,19 +17734,19 @@
         <v>298</v>
       </c>
       <c r="F447" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="G447" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H447" t="s">
-        <v>991</v>
+        <v>610</v>
       </c>
       <c r="I447" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="J447" t="s">
-        <v>992</v>
+        <v>782</v>
       </c>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.2">
@@ -17768,31 +17754,31 @@
         <v>864</v>
       </c>
       <c r="B448" s="2">
-        <v>2599</v>
+        <v>3949</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>866</v>
       </c>
       <c r="D448" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E448" t="s">
         <v>298</v>
       </c>
       <c r="F448" t="s">
-        <v>438</v>
+        <v>480</v>
       </c>
       <c r="G448" t="s">
         <v>565</v>
       </c>
       <c r="H448" t="s">
-        <v>610</v>
+        <v>912</v>
       </c>
       <c r="I448" t="s">
         <v>756</v>
       </c>
       <c r="J448" t="s">
-        <v>782</v>
+        <v>866</v>
       </c>
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.2">
@@ -17800,63 +17786,57 @@
         <v>864</v>
       </c>
       <c r="B449" s="2">
-        <v>3207</v>
+        <v>8888</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>866</v>
       </c>
       <c r="D449" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E449" t="s">
-        <v>340</v>
+        <v>991</v>
       </c>
       <c r="F449" t="s">
-        <v>550</v>
+        <v>438</v>
       </c>
       <c r="G449" t="s">
-        <v>157</v>
+        <v>565</v>
       </c>
       <c r="H449" t="s">
-        <v>993</v>
+        <v>610</v>
       </c>
       <c r="I449" t="s">
-        <v>761</v>
-      </c>
-      <c r="J449" t="s">
-        <v>866</v>
+        <v>756</v>
       </c>
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>864</v>
+        <v>834</v>
       </c>
       <c r="B450" s="2">
-        <v>3305</v>
+        <v>8888</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>866</v>
       </c>
       <c r="D450" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E450" t="s">
-        <v>306</v>
+        <v>991</v>
       </c>
       <c r="F450" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="G450" t="s">
-        <v>159</v>
+        <v>565</v>
       </c>
       <c r="H450" t="s">
-        <v>994</v>
+        <v>912</v>
       </c>
       <c r="I450" t="s">
-        <v>762</v>
-      </c>
-      <c r="J450" t="s">
-        <v>995</v>
+        <v>756</v>
       </c>
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.2">
@@ -17864,36 +17844,36 @@
         <v>864</v>
       </c>
       <c r="B451" s="2">
-        <v>3949</v>
+        <v>8888</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>866</v>
       </c>
       <c r="D451" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E451" t="s">
-        <v>298</v>
+        <v>991</v>
       </c>
       <c r="F451" t="s">
-        <v>480</v>
+        <v>417</v>
       </c>
       <c r="G451" t="s">
-        <v>565</v>
+        <v>160</v>
       </c>
       <c r="H451" t="s">
-        <v>912</v>
+        <v>987</v>
       </c>
       <c r="I451" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="J451" t="s">
-        <v>866</v>
+        <v>988</v>
       </c>
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>864</v>
+        <v>834</v>
       </c>
       <c r="B452" s="2">
         <v>8888</v>
@@ -17902,119 +17882,35 @@
         <v>866</v>
       </c>
       <c r="D452" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E452" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="F452" t="s">
-        <v>438</v>
+        <v>536</v>
       </c>
       <c r="G452" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H452" t="s">
-        <v>610</v>
+        <v>894</v>
       </c>
       <c r="I452" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A453" t="s">
-        <v>864</v>
-      </c>
-      <c r="B453" s="2">
-        <v>8888</v>
-      </c>
-      <c r="C453" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="J452" t="s">
         <v>866</v>
       </c>
-      <c r="D453" t="s">
-        <v>10</v>
-      </c>
-      <c r="E453" t="s">
-        <v>996</v>
-      </c>
-      <c r="F453" t="s">
-        <v>550</v>
-      </c>
-      <c r="G453" t="s">
-        <v>157</v>
-      </c>
-      <c r="H453" t="s">
-        <v>993</v>
-      </c>
-      <c r="I453" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A454" t="s">
-        <v>834</v>
-      </c>
-      <c r="B454" s="2">
-        <v>8888</v>
-      </c>
-      <c r="C454" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="D454" t="s">
-        <v>22</v>
-      </c>
-      <c r="E454" t="s">
-        <v>996</v>
-      </c>
-      <c r="F454" t="s">
-        <v>466</v>
-      </c>
-      <c r="G454" t="s">
-        <v>159</v>
-      </c>
-      <c r="H454" t="s">
-        <v>994</v>
-      </c>
-      <c r="I454" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A455" t="s">
-        <v>834</v>
-      </c>
-      <c r="B455" s="2">
-        <v>8888</v>
-      </c>
-      <c r="C455" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="D455" t="s">
-        <v>10</v>
-      </c>
-      <c r="E455" t="s">
-        <v>996</v>
-      </c>
-      <c r="F455" t="s">
-        <v>480</v>
-      </c>
-      <c r="G455" t="s">
-        <v>565</v>
-      </c>
-      <c r="H455" t="s">
-        <v>912</v>
-      </c>
-      <c r="I455" t="s">
-        <v>756</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K451" xr:uid="{B7A85F72-B3EC-EB4D-A3E1-C70AFE08A3AE}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J451">
-      <sortCondition ref="A1:A451"/>
+  <autoFilter ref="A1:K450" xr:uid="{B7A85F72-B3EC-EB4D-A3E1-C70AFE08A3AE}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J448">
+      <sortCondition ref="A1:A448"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="B246:B455">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  <conditionalFormatting sqref="B246:B452">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/high_confidence_for_annotation.xlsx
+++ b/high_confidence_for_annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rosydai/Desktop/Master_thesis/Frontend/annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B016491B-4D71-5744-A020-6E767432DB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6AC51C-6FD0-C14C-BD60-7C86DDAA496D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17340" xr2:uid="{DC94E088-820A-3B47-AB40-7E8AE428A805}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Raziyeh_high_conf" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">toBeDone!$A$1:$K$450</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">toBeDone!$A$1:$K$351</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5076" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5307" uniqueCount="930">
   <si>
     <t>ID_int</t>
   </si>
@@ -2637,9 +2637,6 @@
     <t>uncertain</t>
   </si>
   <si>
-    <t>In conclusion, we developed a scheme that makes DLA fully scalable. We showed for the first time how a focusing lattice, which relies on APF only, can be integrated. The entire accelerator or parts such as a single focusing stage or the buncher can now be experimentally approached. Acceleration of sub- $1 0 0 \\mathrm { k e V }$ electrons from readily available sources up to the MeV range with gradients of several $1 0 0 \\ \\mathrm { M e V / m }$ works with transmission rates well above $90 \\%$ . The admissible synchronous phase is determined by the available bunch length at injection. We showed that controlling this nonlinear dependence is crucial to avoiding particle loss. Our bunching scheme provides the required attosecond bunches with the matched energy spread and a reasonable capture rate of $2 5 \\%$ . In principle, fully adiabatic bunching as in the RFQ is also possible. This would, however, require a larger total length. The APF scheme can also be scaled to higher energies, where smaller beam size and larger physical apertures due to longer roll-off of the evanescent acceleration fields will ease the requirements. U. N. would like to thank Holger Podlech for the discussions on APF. This work is funded by the Gordon and Betty Moore Foundation (Grant No. GBMF4744) and the German Federal Ministry of Education and Research (Grant No. FKZ: 05K16RDB).</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -2649,51 +2646,6 @@
     <t>R&amp;D_OF_X-BAND_DEFLECTING_ST_RUCTURE_APPLIED_ON_SHINE_.pdf</t>
   </si>
   <si>
-    <t>$$ describes the acceleration ramp, where the synchronous phase $\\varphi _ { \\mathrm { s } }$ can be chosen arbitrarily in each grating cell. The variables $e _ { 1 } , \\lambda _ { g z } , W _ { 0 } , \\beta , \\gamma , \\varphi _ { \\mathrm { s } }$ and all variables in Eq. (24) are stored as arrays indexed by the grating cell number. The kicks are obtained using Eqs. (7), (18), (19), and (13) and read $$ \\begin{array} { r l } &amp; { \\Delta x ^ { \\prime } = - \\displaystyle \\frac { q \\lambda _ { 0 } } { p _ { z 0 } c } \\tan ( \\alpha ) \\cosh ( i k _ { y } y ) \\mathrm { R e } \\{ \\underline { { e } } _ { 1 } e ^ { i \\varphi + i \\frac { 2 \\pi x } { \\lambda _ { g x } } } \\} } \\\\ &amp; { \\Delta y ^ { \\prime } = \\displaystyle \\frac { - i k _ { y } \\lambda _ { 0 } ^ { 2 } q \\beta } { 2 \\pi p _ { z 0 } c } \\mathrm { s i n h } ( i k _ { y } y ) \\mathrm { I m } \\{ \\underline { { e } } _ { 1 } e ^ { i \\varphi + i \\frac { 2 \\pi x } { \\lambda _ { g x } } } \\} } \\\\ &amp; { \\Delta \\delta = \\displaystyle \\frac { q \\lambda _ { g z } } { \\gamma m _ { e } c ^ { 2 } } \\mathrm { R e } \\{ \\underline { { e } } _ { 1 } ( \\mathrm { c o s h } ( i k _ { y } y ) e ^ { i \\varphi + i \\frac { 2 \\pi x } { \\lambda _ { g x } } } - e ^ { i \\varphi _ { s } } ) \\} , } \\end{array}</t>
-  </si>
-  <si>
-    <t>We plan to achieve such phase jumps by inserting drift sections as already outlined in Fig. 1. Other options are to modify the accelerating Fourier coefficient in each cell, e.g., by phase masking within the structure or by active phase control of individual parts of the laser pulse. In general, we believe that this paper gives a beam dynamics foundation on which DLA structures providing stable long distance beam transport schemes can be developed. ACKNOWLEDGMENTS The authors wish to thank Ingo Hofmann for proofreading the manuscript. This work is funded by the Gordon and Betty Moore Foundation (Grant No. GBMF4744 to Stanford) and the German Federal Ministry of Education and Research (Grant No. FKZ:05K16RDB). APPENDIX: RAYLEIGH RANGE FORLIGHT AND PARTICLE BEAMS The Rayleigh range for a particle beam can be defined in the same way as for a light beam. The envelope of an externally focused beam is $$ w = w _ { 0 } \\sqrt { 1 + \\left( \\frac { z } { z _ { 0 } } \\right) ^ { 2 } } . $$ Inserting into the envelope equation $$ w ^ { \\prime \\prime } = w ^ { - 3 } $$</t>
-  </si>
-  <si>
-    <t>Cavity BPMs The ATF2 CBPM system has been operating since 2010 and proven to be a reliable diagnostic with 20-30 nm resolution. CBPMs are mounted rigidly on magnets that in turn are mounted on transversal mover stages, which are used for CBPM calibration. The current system has certain limitations due to the large physical offsets exceeding the default range of $\\pm 1 0 0 ~ \\mu \\mathrm { m }$ and resulting in a reduced resolution of $2 0 0 \\mathrm { n m }$ to allow $\\pm 1 \\mathrm { m m }$ range. Additionally, the system is recalibrated at the start of each run week to compensate for phase drifts between position and reference channels and takes several hours. A new system actively pre-injecting burst RF oscillations directly into sensor cavities is under development to resolve these issues [4]. Injecting RF power in anti-phase with beam signals can compensate for static offsets. Using the same signals in-phase can help reduce the effects of drifts via no-beam calibration. The hardware challenges related to generation of beam arrival locked, phase coherent signals with high levels of control are currently being addressed in a proof of principle experiment. R&amp;D AND EXPERIMENTAL STUDIES</t>
-  </si>
-  <si>
-    <t>ATF2-3_HARDWARE_UP_GRADE_AND_NEW_EXPE_RIMENTAL_RESULTS.pdf</t>
-  </si>
-  <si>
-    <t>$$ where $\\underline { { \\vec { f } } } _ { m } ( x , y ) = \\lambda _ { g z } \\nabla _ { \\perp } \\underline { { e } } _ { m } ( x , y ) / 2 \\pi$ . In the following, the structure under investigation is generalized to a tilted grating as visible in Fig. 5, which reproduces the ordinary grating for tilt angle $\\alpha = 0$ . The tilted grating is periodic in $z$ and $x$ direction. Thus for any function $F ( x , y , s )$ must hold $$ \\frac { \\partial F } { \\partial x } = \\frac { \\partial F } { \\partial s } \\frac { \\partial s } { \\partial z } \\frac { \\partial z } { \\partial x } = \\frac { \\partial F } { \\partial s } \\tan \\alpha . $$ The $s$ -derivative can be calculated in the Fourier representation by Eq. (7) as $$ \\frac { \\partial \\underline { { e } } _ { m } ( x , y ) } { \\partial x } = \\tan \\alpha \\frac { 2 \\pi i } { \\beta \\lambda _ { 0 } } \\underline { { e } } _ { m } ( x , y ) .</t>
-  </si>
-  <si>
-    <t>All the fields in the ùë¶-direction, ùëäùë¶, ùê∏ùëñ,ùë¶ and ùê∏flattop,ùë¶, follow a same formulation with the parameters $a _ { p } , b _ { p } , a _ { b }$ , $b _ { b }$ and with $x$ and $y$ interchanged. The transverse electric fields of an elliptical driver beam with a Gaussian distribution $( \\sigma _ { x } \\neq \\sigma _ { y }$ , different spot sizes in the $x$ and $y$ components) were determined numerically using FFTs (fast Fourier transforms). We began by transforming Poisson‚Äôs equation, $\\nabla _ { \\perp } ^ { 2 } \\phi _ { \\mathrm { g a u s s i a n } } = - \\rho _ { \\mathrm { g a u s s i a n } } ( x , y )$ , into Fourier space, where $\\phi _ { \\mathrm { g a u s s i a n } }$ is the electric potential of the Gaussian driver beam and $\\rho _ { \\mathrm { g a u s s i a n } }$ is the driver beam charge distribution. Spatial coordinates are converted into wave numbers in the frequency domain, $k _ { x }$ and $k _ { y }$ . This results in the direct solution in frequency space:</t>
-  </si>
-  <si>
-    <t>$$ \\begin{array} { l } { E _ { \\omega } ( n , { \\pmb \\xi } ) = e ^ { - i k ( n _ { x } x + n _ { y } y ) } } \\\\ { \\times e _ { \\omega } \\left( \\sqrt { \\theta ^ { 2 } + \\theta _ { x } ^ { 2 } + \\theta _ { y } ^ { 2 } - 2 \\theta ( \\theta _ { x } \\cos \\phi + \\theta _ { y } \\sin \\phi ) } \\right) . } \\end{array} $$ The electric field of the whole beam emitted in the direction $\\mathbf { \\Omega } _ { n }$ , $E _ { \\omega } ^ { ( \\mathrm { b e a m } ) } ( { \\pmb n } )$ , is obtained by summing the fields of all electrons, $$ E _ { \\omega } ^ { \\mathrm { ( b e a m ) } } ( { \\pmb n } ) = \\int d x d \\theta _ { x } d y d \\theta _ { y } f ( { \\pmb \\xi } ) E _ { \\omega } ( { \\pmb n } , { \\pmb \\xi } ) ,</t>
-  </si>
-  <si>
-    <t>COHERENT_RADIATION_OF_A_MICROBUNCHED_BEAM_IN_A_SHORT.pdf</t>
-  </si>
-  <si>
-    <t>Table: Caption: Table 1: Geometry Parameters of the Regular Cell  Body: &lt;html&gt;&lt;body&gt;&lt;table&gt;&lt;tr&gt;&lt;td&gt;Parameter&lt;/td&gt;&lt;td&gt;Symbol&lt;/td&gt;&lt;td&gt;Value&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;cell length&lt;/td&gt;&lt;td&gt;h&lt;/td&gt;&lt;td&gt;17.507 mm&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;cell radius&lt;/td&gt;&lt;td&gt;b&lt;/td&gt;&lt;td&gt;31.382 mm&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;rounding radius&lt;/td&gt;&lt;td&gt;r&lt;/td&gt;&lt;td&gt;5 mm&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;iris radius&lt;/td&gt;&lt;td&gt;a&lt;/td&gt;&lt;td&gt;8 mm&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;iris thickness&lt;/td&gt;&lt;td&gt;d&lt;/td&gt;&lt;td&gt;5.2 mm&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;gap&lt;/td&gt;&lt;td&gt;S&lt;/td&gt;&lt;td&gt;0.01&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;eccentricity&lt;/td&gt;&lt;td&gt;e&lt;/td&gt;&lt;td&gt;1.38&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;major axis&lt;/td&gt;&lt;td&gt;ae&lt;/td&gt;&lt;td&gt;be*e&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;minor axis&lt;/td&gt;&lt;td&gt;be&lt;/td&gt;&lt;td&gt;d/2*(1-s)&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/body&gt;&lt;/html&gt; operating frequency and the rf phase advanced per cell $\\Delta \\varphi$ . The cell radius b is used to tune the eigenfrequency of the cell $f _ { 0 }$ to the operating mode frequency. The rounding radius rr is maximized to increase the quality factor Q of the cell. The eccentricity e of the elliptical iris is optimized to minimize the surface fields on the iris. The simulation results are shown in Table 2. The $G _ { t }$ is the transverse deflecting gradient. The $E _ { s } / G _ { t }$ and $H _ { s } / G _ { t }$ is the ratio of the peak surface electromagnetic field to the transverse deflecting gradient. It is essential to minimize these values in order to maximize the achievable deflection gradient. In the simulation design process, special attention was taken to minimize the Poynting vector $S _ { c }$ , which gives the high gradient performance limit of accelerating structures in the presence of vacuum rf breakdown[8]. The $\\nu _ { g }$ is the group velocity, which is negative in the backward travelling wave structure. The $R _ { t }$ is the transverse shunt impedance per meter length, which represents the ability of the deflection cavity voltage that can be established under unit power loss.</t>
-  </si>
-  <si>
-    <t>SIMULATION_OF_THE_C-BAND_TRANSVERSE_DEFLECTION.pdf</t>
-  </si>
-  <si>
-    <t>$$ in regions $I I$ and $I I I$ , where $\\hat { \\nu } = 1 - \\hat { \\varepsilon } _ { r } \\hat { \\mu } _ { r }$ , and $\\hat { \\varepsilon } _ { r }$ and $\\hat { \\mu } _ { r }$ are evaluated at $k c$ . Due to the symmetry of the problem it is su!cient to consider the equations in the region of positive $y$ only. We solve Eqs. (6) and (7) by imposing matching conditions on the tangential field components at the boundaries of the di"erent regions. Since only the tangential field components are used, the solutions we need are, defining $\\overset { \\cdot } { \\alpha } = \\overset { \\cdot } { q } / ( q ^ { 2 } + k ^ { 2 } )$ , in region $I$ $$ \\left( \\begin{array} { c c } { { \\bar { E } _ { z } } } &amp; { { \\bar { H } _ { z } } } \\\\ { { \\tilde { E } _ { x } } } &amp; { { \\tilde { H } _ { x } } } \\end{array} \\right) = \\left( \\begin{array} { c c } { { E _ { 0 } } } &amp; { { 0 } } \\\\ { { i B _ { 1 } } } &amp; { { - 1 } } \\end{array} \\right) \\cosh q y + i \\left( \\begin{array} { c c } { { 0 } } &amp; { { - E _ { 0 } } } \\\\ { { 1 } } &amp; { { A _ { 1 } } } \\end{array} \\right) \\sinh q y ,</t>
-  </si>
-  <si>
-    <t>V. APPLICATIONS We apply our approach to similar experimental parameters as for the subrelativistic experiments at FAU Erlangen [3] and the relativistic experiments at SLAC [1,2]. Although the structures are idealized, the results are qualitatively recovered. As a next step, we show modifications and idealizations of the beam parameters, which outline the way to a microchip accelerator. A. Subrelativistic acceleration A subrelativistic DLA structure needs to be chirped in order to always fulfill the synchronicity condition (6) for the synchronous particle. The proper chirp for each cell and the synchronous velocity are obtained by iterating the two equations $$ \\Delta z ^ { ( n + 1 ) } = \\frac { q e _ { 1 } \\lambda _ { 0 } ^ { 2 } \\cos \\varphi _ { s } ^ { ( n ) } } { m _ { e } c ^ { 2 } } \\sqrt { 1 - { \\beta ^ { ( n ) } } ^ { 2 } } $$ $$ \\beta ^ { ( n + 1 ) } = \\beta ^ { ( n ) } + \\frac { \\Delta z ^ { ( n + 1 ) } } { \\lambda _ { 0 } } .</t>
-  </si>
-  <si>
-    <t>$$ Here $x _ { 0 }$ is the unperturbed motion, and $\\delta x$ is the change induced by $V ^ { \\prime }$ . If $V ^ { \\prime \\prime }$ is unimportant, so is $\\delta x$ . To lowest order in derivatives of $V$ , $\\overline { { H ^ { \\prime } ( t , q ) } } \\approx \\overline { { U [ x ( t + s ) ] } } V ^ { \\prime } ( t )$ . Equation. (3) may be averaged over the ensemble of initial oscillation phases $q$ ; we take these to be always uniform distributed. The ensemble average is denoted $\\langle \\dots \\rangle$ . $$ \\overline { { H ^ { \\prime } ( t ) } } \\equiv \\left. \\overline { { H ^ { \\prime } ( t , q ) } } \\right. = \\frac { 1 } { 2 \\pi } \\int _ { - \\pi } ^ { + \\pi } \\overline { { H ^ { \\prime } ( t , q ) } } d q . $$ We define the deviation: $\\Delta \\overline { { H ^ { \\prime } ( t , q ) } } = \\overline { { H ^ { \\prime } ( t , q ) } } - \\overline { { H ^ { \\prime } ( t ) } }$ (5)</t>
-  </si>
-  <si>
-    <t>ADIABATIC_CAPTURE_OF_LONGITUDINAL_PHASE_SPACE.pdf</t>
-  </si>
-  <si>
-    <t>$$ \\begin{array} { c } { \\Delta s ^ { \\prime \\prime } + K _ { s } \\Delta s = 0 , } \\\\ { \\ } \\\\ { y ^ { \\prime \\prime } + K _ { y } y = 0 , } \\\\ { \\ } \\\\ { x ^ { \\prime \\prime } + K _ { x } x = 0 , } \\end{array} $$ where $\\Delta s = s - \\lambda _ { g } \\varphi _ { s } / 2 \\pi$ . Due to the absence of first order terms in $V$ , the linearized motion is decoupled. The focusing functions are $$ K _ { s } = - \\frac { k _ { z } ^ { 2 } } { \\gamma ^ { 2 } } \\frac { \\left| q e _ { 1 0 } \\right| } { m _ { e } \\beta \\gamma c \\omega } \\sin ( \\varphi _ { s } ) , $$ $$ K _ { y } = ( i k _ { y } ) ^ { 2 } \\frac { \\left| q e _ { 1 0 } \\right| } { m _ { e } \\beta \\gamma c \\omega } \\sin ( \\varphi _ { s } ) ,</t>
-  </si>
-  <si>
     <t>Although the sample dimensions were unsuitable (too thick) for a detailed analysis of the optical absorption, the spectra measured in the transverse directions ( $\\overset { \\cdot } { w }$ and $t$ ) allowed for the visualization of the $5 d ^ { 1 }$ absorption band of $\\mathrm { C e } ^ { 3 + }$ and implicitly the evaluation of the relative Cerium concentration in the measured crystals. To this purpose, the absorbance spectra in the region of interest (ROI) from $4 4 0 \\mathrm { n m }$ down to $3 0 0 \\mathrm { n m } \\left( 2 . 8 ‚Äì 4 . 1 \\mathrm { e V } \\right)$ were obtained from the transmission spectra (figure 5, zoom) and fitted using a function which takes into consideration the main absorption centers acting in that ROI. In the considered ROI, the absorbance is found to be proportional to the absorption coefficient $( \\alpha )$ and the sample transverse size $( d )$ : $$ A \\sim \\alpha \\cdot d $$ Details about how eq. 3.1 was analytically obtained by the transmission expression are provided in A. The absorption coefficient can be decomposed into the sum of the contributions from different absorption centers $j$ , each one described by an absorption coefficient $\\alpha _ { j }$ , which is proportional to the concentration $N _ { j }$ of the respective absorption center:</t>
   </si>
   <si>
@@ -2727,21 +2679,6 @@
     <t>$$ where $\\operatorname { s i n c } ( \\cdot ) = \\sin ( \\pi \\cdot ) / ( \\pi \\cdot )$ . The electric field phasor and its spatial Fourier coefficients for the structure in Fig. 3 are plotted in Fig. 4. It has a small real part, which is coincidental, and a strong first and weak second harmonic. If the round braces in Eq. (5) is non-integer, the energy gain averages to zero, if it is integer other than zero, it directly vanishes. Thus we have the phase synchronicity condition $$ \\lambda _ { g z } = m \\beta \\lambda _ { 0 } $$ and the particle‚Äôs energy gain simplifies to $$ \\begin{array} { l } { \\displaystyle \\Delta W ( x , y ; s ) = q \\lambda _ { g z } \\mathrm { R e } \\{ e ^ { 2 \\pi i \\frac { s } { \\beta \\lambda _ { 0 } } } \\underline { { e } } _ { m } ( x , y ) \\} } \\\\ { = q \\lambda _ { g z } | \\underline { { e } } _ { m } | \\cos { \\bigg ( 2 \\pi \\frac { s } { \\beta \\lambda _ { 0 } } + \\varphi _ { m } \\bigg ) } , } \\end{array}</t>
   </si>
   <si>
-    <t>$$ in the usual units of $\\textrm { m }$ rad and eVs, respectively. The analysis of emittance coupling by means of the eigen-emittances $$ \\varepsilon _ { \\mathrm { e i g } , i } = \\mathrm { e i g s } ( \\mathbf { J } \\mathbf { M } ) , $$ where $\\mathbf { J }$ is the symplectic matrix, is also possible with our code, however beyond the scope of this paper. IV. CONTINUOUS EQUATIONS OF MOTION In order to address the continuous motion in DLA structures we employ positions and momentum as canonically conjugate variables in all directions. The transformation for the energy is $\\Delta p _ { z } = \\Delta W / ( \\beta c )$ . We address the flat and the tilted grating separately and assume for simplicity $\\lvert \\underline { { e } } _ { 1 } \\rvert$ to be constant for all cells and $\\arg ( \\underline { { e } } _ { 1 } ) = 0$ . A. Flat grating Hamilton‚Äôs equations can be written as $$ \\dot { x } = \\frac { p _ { x } } { m _ { e } \\gamma }</t>
-  </si>
-  <si>
-    <t>C. Dynamics in tilted gratings Finally, we address the tilted grating with the same laser parameters and a bunched electron beam with parameters $\\varepsilon _ { x } = \\varepsilon _ { y } = 1 \\ \\mathrm { n m } , \\sigma _ { x } = 1 \\ \\mu \\mathrm { m } , \\sigma _ { y } = 0 . 4 \\mu \\mathrm { m } .$ $\\sigma _ { z } = 3 0 ~ \\mathrm { n m }$ , $\\sigma _ { W } = 1 0 ~ \\mathrm { k e V }$ and a focusing angle of 5 mrad in the y-direction. The grating tilt angle is 70 degrees and again $| \\underline { { e } } _ { 1 } | = 1 \\ \\mathrm { G V / m }$ . Figure 19 shows the evolution of the phase space in all three planes. Evaluating Eq. (54), one finds $\\lambda _ { u } \\approx 1 6 0 \\lambda _ { 0 }$ , i.e., half an oscillation period in the $\\mathbf { \\boldsymbol { x } }$ -direction in the displayed 80 grating cells. As visible in Fig. 19, the horizontal and longitudinal phase spaces are correlated. The projections of the energy spectrum can be seen in Fig. 20 together with the particle loss, which takes place at the physical aperture in y-direction at $\\pm 4 0 0 ~ \\mathrm { n m }$ . Unlike the straight grating with relativistic particles, the tilted grating creates a defocusing force in the y-direction which significantly decreases the Rayleigh range. The energy spread shows a breathing mode, similar to the quadrupole modes in the synchrotron motion. However, since the synchrotron motion is practically frozen due to the high $\\gamma$ , this mode arises entirely due to the correlation with the $\\mathbf { \\boldsymbol { x } }$ -plane. Excluding the defocusing by setting $\\varepsilon _ { y } = 0$ , two coherent oscillation periods are displayed in Fig. 21.</t>
-  </si>
-  <si>
-    <t>Figure $1 4 \\mathrm { b }$ ) shows the width $\\sigma _ { \\mathrm { y } }$ for an electron beam passing the DLA undulator without particle losses. A transversal geometric emittance of $\\varepsilon _ { \\mathrm { y } } = 1 0 \\mathrm { p m }$ ensures $1 0 0 \\%$ transmission. The simulations use an electron beam with the twiss parameters $\\hat { \\alpha } = 0$ and $\\gamma = 1 / \\hat { \\beta }$ at $z = 0$ . Depending on the phase $\\varphi _ { 0 }$ the transversal momentum kick (5.8) in a DLA cell can be either focusing or defocusing in y-direction. Hence, the beam width oscillates but remains bounded for both DLA undulators. In order to achieve proper beam matching into the structure a future design study will address the focusing properties of both DLA undulator concepts in more detail. Figure 15 shows the phase space of an electron beam passing a DLA undulator in a) nonsynchronous and b) synchronous operation mode. The transversal geometric emittance $\\varepsilon _ { \\mathrm { x } } = 1 \\mathrm { n m }$ and the energy spread $\\sigma _ { \\mathrm { E } } = 0 . 0 2 \\%$ follow the design parameters of ARES [56]. The bunch length is $\\sigma _ { t } = 1$ fs. The phase space in the center of the undulator at $z \\approx 9 ~ \\mathrm { m m }$ shows that both DLA designs induce transversal electron oscillations across the whole beam. However, the transverse electron beam size is larger than one unit cell of the DLA undulator such that the particle distribution transversely ranges across several grating periods. For this reason the momentum $x ^ { \\prime }$ at $z \\approx 9 ~ \\mathrm { m m }$ varies depending on the relative phase $\\varphi _ { 0 }$ in Eq. (5.5) of the electron with respect to the laser field. The averaged momentum of the particle beam remains zero. In the non-synchronous operation mode the particles experience an averaged deflection and focusing force. Thus, all electron trajectories are similar, but differ by a constant drift motion along the $\\mathbf { \\boldsymbol { x } }$ -coordinate. The drift depends on the initial phase $\\varphi _ { 0 }$ at which the particle enters the undulator. In the synchronous mode each particle experiences a different deflection and focusing force which accumulates additive along one undulator period $\\lambda _ { \\mathrm { u } }$ . The oscillation of each particle depends on its phase $\\varphi _ { 0 }$ . Thus, a substructure in the phase space slightly visible at $z \\approx 9 \\mathrm { { m m } }$ and more prominent towards the exit at $z \\approx 1 6 . 4 \\ : \\mathrm { m m }$ develops as the beam passes the undulator.</t>
-  </si>
-  <si>
-    <t>If this high power test is successful, a beam accelerating test will be conducted. This involves designing another multicell structure, setting up a successful TBA scheme, and performing energy measurements to determine energy gain from DDA. This work is being done to determine if a DDA is a good candidate to be used in a short, high energy accelerator like the ${ 5 0 0 } \\mathrm { M e V }$ demonstrator. REFERENCES [1] R. B. R. Shersby-Harvie, L. B. Mullett, W. Walkinshaw, J. S. Bel, and B. G. Loach, ‚ÄúA Theoretical and Experimental Investigation of Anistropic-Dielectric Loaded Linear Electron Accelerators,‚ÄùIEE - Part B: Radio and Electronic Engineering, vol. 104, pp. 273‚Äì290, July 1956. doi:10.1049/pi-b-1.1957.0152 [2] A. Grudiev, S. Calatroni, and W. Wuensch, ‚ÄúNew local field quantity describing the high gradient limit of accelerating structures,‚ÄùPhys. Rev. Spec. Top. Accel Beams, vol. 12, p. 102001, Oct. 2009. doi:10.1103/PhysRevSTAB.12.102001 [3] J. Shao et al., ‚ÄúDevelopment and high-power testing of an X-band dielectric-loaded power extractor,‚ÄùPhys. Rev. Accel. Beams, vol. 23, p. 011301, Jul. 2020. doi:10.1103/PhysRevAccelBeams.23.011301 [4] B. T. Freemire et al., ‚ÄúHigh Power Test of a Dielectric Disk Loaded Accelerator for a Two Beam Wakefield Accelerator‚Äù, in Proc. IPAC‚Äô21, Campinas, Brazil, May 2021, pp. 1096‚Äì1099. doi:10.18429/JACoW-IPAC2021-MOPAB352</t>
-  </si>
-  <si>
-    <t>MULTICELL_DIELECTRIC_DISK_ACCELERATING_STRUCTURE_DESIGN.pdf</t>
-  </si>
-  <si>
     <t>$$ (1) Here, the scaling factor $( S _ { F } - 1 )$ accounts for the angle and height of the triangular corrugation, estimated as the ratio of the path defined by the rough surface and a perpendicular cutting plane (rough path), to the path defined by the same plane and an ideal surface (smooth path), $S _ { F } = d _ { \\mathrm { r o u g h } } / d _ { \\mathrm { s t r a i g h t } }$ (see Fig. 3). The addition of $S _ { F }$ (in [6]) was necessitated by the observation that in the original equation (in [5]), the correction coefficient has a saturation limit of $K _ { H } = 2$ for ratios of $h _ { \\mathrm { R M S } } / \\delta \\geq 1 0$ , while experimental data show that the increase of the surface impedance will exceed this ratio at high enough frequencies. Based on the measured profile, for both of our samples $h _ { \\mathrm { R M S } } / \\delta \\approx 1 1 . 9 / 1 . 1$ . Via optical imaging, a detailed profile of the surface is attained, from which $S _ { F }$ is computed. For the passivated radial sample, we obtain $S _ { F } = 1 . 3 9$ , resulting in $R _ { S , \\mathrm { e s t } } \\approx 2 0 . 8 \\mathrm { m } \\Omega$ , in great agreement with the measured value, as detailed in Table 1. However, this approach cannot be utilized for the spiral sample, in which the current path is aligned with the corrugation. Thus, the theory must be adapted for a geometry in which non-perpendicular current crossings of triangular corrugations can be taken into account. Figure 2 depicts the spiral groove pattern of our sample (gray dashed line) overlapped with the induced current path (blue solid line) in perfect alignment. The optimal alignment is when the current path is parallel with the grooves, which should result in the lowest possible $R _ { S }$ ; but in our case measurements show a more than $2 0 \\%$ increase compared to a smooth surface, which is a bigger difference than expected. The reason for this might be that the alignment of the pattern and the surface currents is not precise, the tolerances of the setup ‚Äì pattern alignment on the disc, positioning of the dielectric, mounting position ‚Äì could add up to a few millimeters. In the case of the spiral pattern, as shown in Fig. 2, this would result in offsetted current circles (orange and green solid lines) and the spiral pattern intersecting on many points (black dots), deviating from an ideal alignment of the grooves and the surface currents. Even in the case of small misalignment, many intersection points can be introduced, resulting in a hybrid profile as shown in Fig. 3, which can be constructed from compressed and stretched sections of the original profile. This enables us to calculate $S _ { F }$ for individual current circles on the plane, the effect of which then can be combined, using a weighted average based on the surface current distribution on the sample surface.</t>
   </si>
   <si>
@@ -2781,81 +2718,9 @@
     <t>$$ where $m _ { 0 } c ^ { 2 } / q = 5 1 1 \\mathrm { \\ k V }$ is the rest energy equivalent and $\\phi$ is the phase within one DLA cell. Analyzing the solutions of the equation for transverse motion into a slowly varying secular component and a fast oscillation, we can rewrite for the slow drift motion $$ { \\frac { \\partial y ^ { \\prime } } { \\partial z } } = { \\frac { q E _ { 0 } } { m _ { 0 } c ^ { 2 } } } { \\frac { k y } { \\gamma ^ { 3 } \\beta ^ { 2 } } } \\cos \\phi - \\left[ { \\frac { E _ { 1 } } { m _ { 0 } c ^ { 2 } } } { \\frac { k } { \\gamma \\beta } } ( 1 - \\beta \\beta _ { 1 } ) \\right] ^ { 2 } { \\frac { y } { 2 \\delta _ { k } ^ { 2 } } } $$ and noting that the coefficient second term is negative for all phases, retrieve the ponderomotive focusing effect [42]. The main drawback of the ponderomotive focusing scheme (compared to the APF scheme discussed above) is the significant need for power in the non-resonant harmonic $E _ { 1 }$ to compensate the strong resonant defocusing, so that the laser is not efficiently used to accelerate the particles (i.e. $E _ { 0 }$ is relatively small). Interestingly, in 2D APF focusing schemes the focusing term scales with the energy as $1 / \\gamma ^ { 3 }$ , here it scales as $1 / \\gamma ^ { 2 }$ and for the 3D APF scheme it scales as $1 / \\gamma$ [15], which eventually dominates over the resonant defocusing scaling as $1 / \\gamma ^ { 3 }$ . Thus, spatial harmonic focusing provides a matched (average) beta function proportional to the beam energy, perfectly compensating the adiabatic geometric emittance decrease to provide a constant spot size along the accelerator.</t>
   </si>
   <si>
-    <t>$$ \\begin{array} { l } { { V ( x , y , s = s _ { f 1 } + \\Delta s ) = - V ( x , y , s = s _ { f 2 } + \\Delta s ) } } \\\\ { { \\displaystyle ~ = \\frac { q | e _ { 1 } | \\lambda _ { g } } { 2 \\pi } \\left[ \\frac { 1 } { 2 } \\left( \\frac { \\omega y } { \\beta \\gamma c } \\right) ^ { 2 } - \\frac { 1 } { 2 } \\left( \\frac { 2 \\pi } { \\lambda _ { g } } \\Delta s \\right) ^ { 2 } \\right] \\sin ( \\varphi _ { 0 } ) } ; }  \\end{array} $$ i.e., switching between $s _ { f 1 }$ and $s _ { f 2 }$ with $\\Delta s = \\Delta s _ { 1 } = \\Delta s _ { 2 }$ flips the sign of the potential. Only the nonaccelerating case $( \\varphi _ { 0 } = \\pi / 2 )$ provides two interchangeable buckets, whereas a $\\pi$ -shifted version of the accelerating bucket will be decelerating and unstable due to a mismatch with the ramp. Hill‚Äôs equations of the linearized motion are found from Eqs. (1) and (5) as</t>
-  </si>
-  <si>
-    <t>$$ \\mathbf { M } ( z , L ) = \\left\\{ \\begin{array} { l l } { \\mathbf { M } _ { f } ( z ) , } &amp; { 0 &lt; z &lt; L / 2 , } \\\\ { \\mathbf { M } _ { d } ( z - L / 2 ) \\mathbf { M } _ { f } ( L / 2 ) , } &amp; { L / 2 &lt; z &lt; L , } \\end{array} \\right. $$ with the length ${ \\cal L } = ( 2 p + 1 ) \\lambda _ { g }$ . The phase advance per cell $\\sigma$ is given for a strictly periodic $F D$ -cell by $$ \\cos ( \\sigma ) = \\frac { 1 } { 2 } \\mathrm { T r } \\{ \\mathbf { M } ( L , L ) \\} = \\cos \\left( \\frac { \\sqrt { K } L } { 2 } \\right) \\cosh \\left( \\frac { \\sqrt { K } L } { 2 } \\right) . $$ The CS parameters $\\boldsymbol { \\eta } = ( \\hat { \\beta } , \\hat { \\alpha } , \\hat { \\gamma } ) ^ { \\mathrm { T } }$ are mapped from one point to another by the matrix $\\mathbf { T }$ (see the Supplemental Material [9]) and fulfill the eigenvector relation $\\eta _ { e } = \\mathbf { T } \\eta _ { e }$ for their initial values. For small $\\sigma$ the constant $\\hat { \\boldsymbol { \\beta } }$ function in the smooth approximation is found from $\\langle { \\hat { \\beta } } \\rangle = L / \\sigma$ . However, the most critical issue in DLA is to match a given emittance to the tiny aperture. Thus, the maximum of the $\\hat { \\boldsymbol { \\beta } }$ function, which appears at $L / 4$ , needs to be minimal (see Fig. 3). The only variable parameter in an experimental setup is the laser field strength. Its tuning range from maximal admissible beam size to the structure damage threshold [25,26] is indicated by the black arrow. The evolution of the transverse phase space is shown below, where the particles were initially arranged on a Cartesian grid and only the longterm surviving ones are displayed in red. For simplicity, this simulation starts at $L / 4$ in order to avoid correlations in the conjugate variables. This plot uses zero bunch length, but stability is also attained for an unbunched beam; see the video in the Supplemental Material [9]. The blue ellipses indicate the strictly periodic linear case, which is slightly smaller in area due to the cosh potential in Eq. (2) being steeper than the square well in Eq. (5). In the linear case the single particle emittances are invariants</t>
-  </si>
-  <si>
-    <t>The APF scheme discussed here can also be used to attain the bunching needed to inject into the accelerator structure. Creating and removing sinusoidal energy spread (see the Supplemental Material [9] and the video therein) results in extremely short (attosecond) bunch lengths at acceptably low energy spread. The phase alternation additionally provides transverse confinement, which can be matched to the initial CS functions of the accelerator. The particles not captured are defocused, while the captured ones remain at small longitudinal and transverse amplitudes, within the limits of Liouville‚Äôs theorem. The phase space after the buncher is plotted in Fig. 7. Both ellipses are matched for the injection into the accelerator (the blue ellipses in Figs. 7 and 6 are identical). Before the buncher the energy spread is ${ \\sigma _ { \\Delta W } = 1 6 ~ \\mathrm { e V } }$ . The initial longitudinal emittance equals the final one in the ellipse which has $2 5 \\%$ of the particles captured. The duration is decreased to $4 \\%$ ( ${ \\approx } 2 6 0$ as), whereas the energy spread is increased by the same ratio. The initial CS functions are determined by inverse mapping of the desired final values for the accelerator. Additionally to the injection into DLAs, these short bunches are also very promising for ultrafast time-resolved electron microscopy.</t>
-  </si>
-  <si>
     <t>$$ where $k _ { \\mathrm { q } } ( s )$ is the effective quadrupole strength, which changes with $s$ within the bunch length $l$ . For the case where the beam is near the axis, a short uniformly distributed bunch was deduced in Ref. [25] to calculate the emittance growth after passing through the dechirper. As mentioned above, Eq. (9) is substituted into Eq. (50) of Ref. [25] to completely eliminate $2 0 \\mathrm { M e V }$ from the invariant: $$ \\begin{array} { r } { \\left( \\frac { \\epsilon _ { y } } { \\epsilon _ { y 0 } } \\right) = \\left[ 1 + \\left( \\frac { 1 0 ^ { 7 } \\pi ^ { 2 } l \\beta _ { y } } { 6 \\sqrt { 5 } a ^ { 2 } E } \\right) ^ { 2 } \\left( 1 + \\frac { 4 y _ { \\mathrm { c } } ^ { 2 } } { \\sigma _ { y } ^ { 2 } } \\right) \\right] ^ { 1 / 2 } . } \\end{array} $$ Based on the SHINE parameters, Fig. 7 shows the growth in emittance for different beam offsets. The value of $y _ { \\mathrm { c } }$ is proven to be a significant factor for determining the projected emittance. When the beam is near the axis and the gap $\\mathrm { ~ a ~ } \\geqslant \\mathrm { ~ 1 ~ m m ~ }$ , the effect on the growth in emittance induced by the dipole wakefield is tolerable. Hence, as a point of technique in beamline operation, maintaining the beam on-axis is an effective way to restrain emittance growth.</t>
   </si>
   <si>
-    <t>$$ and are depicted as arrows in Fig. 7. For the numerical results, the gradient is determined by finite differences in MATLAB [8]. Note that $- i k _ { y } \\in \\mathbb { R } ^ { + }$ , i.e., the kick in $x$ -direction is in phase with the acceleration while the kick in $y$ -direction is 90 degrees shifted. For a particle that is only slightly displaced from the beam axis by $\\Delta \\vec { x } = ( \\Delta x , \\Delta y )$ , the kick can be written as two-dimensional Taylor expansion $$ \\begin{array} { l } { \\displaystyle \\vec { \\underline { { f } } } _ { m } ( x , y ) = \\vec { \\underline { { f } } } _ { m } ( x _ { 0 } , y _ { 0 } ) + ( \\nabla _ { \\perp } \\underline { { \\vec { f } } } _ { m } ( x _ { 0 } , y _ { 0 } ) ) \\Delta \\vec { x } + O ( | | \\Delta \\vec { x } | | ^ { 2 } ) } \\\\ { \\displaystyle = \\frac { \\lambda _ { g z } } { 2 \\pi } ( \\nabla _ { \\perp } \\underline { { e } } _ { m } ( x _ { 0 } , y _ { 0 } ) } \\\\ { \\displaystyle \\quad \\quad + ( \\nabla _ { \\perp } \\nabla _ { \\perp } ^ { \\mathrm { T } } ) \\underline { { e } } _ { m } ( x _ { 0 } , y _ { 0 } ) \\Delta \\vec { x } ) + O ( | | \\Delta \\vec { x } | | ^ { 2 } ) , \\quad ( 2 0 } \\end{array}</t>
-  </si>
-  <si>
-    <t>METHOD The concept of alternating phase focusing (APF) was originally suggested (to the best of the authors knowledge) by Table: Caption: Table 1: Design parameters of interdigital H-mode cavities, foreseen to be employed in the HELIAC injector.  Body: &lt;html&gt;&lt;body&gt;&lt;table&gt;&lt;tr&gt;&lt;td&gt;Ion mass/charge ratio&lt;/td&gt;&lt;td&gt;1 to 6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Max. beam current&lt;/td&gt;&lt;td&gt;1mA&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Repetition rate&lt;/td&gt;&lt;td&gt;continuous wave&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Frequency&lt;/td&gt;&lt;td&gt;108.408 MHz&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Energy range&lt;/td&gt;&lt;td&gt;300keV/uto1400 keV/u&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/body&gt;&lt;/html&gt; J. Adlam [10] and M. Good [11] in 1953 and independently by I. Fainberg [12] in 1956. The theoretical framework was elaborated in the following years by I. M. Kapchinsky [13]. Yet, the first actual operation of an APF-linac was reported by Y. Iwata et al. [14] in 2007 (see Table 2). It appears that the APF method of beam focusing and acceleration was not used extensively because the computational capabilities required to construct this type of cavity were not available. Table: Caption: Table 2: Designed, planned or operational alternating phase focusing drift tube linacs. An extended table can be found in Ref. [15].  a Due to Muon mass  Body: &lt;html&gt;&lt;body&gt;&lt;table&gt;&lt;tr&gt;&lt;td&gt;Project Name&lt;/td&gt;&lt;td&gt;Cavity Commissioning&lt;/td&gt;&lt;td&gt;A/Z&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;J-PARC muon linac [16, 17]&lt;/td&gt;&lt;td&gt;2022 [17]&lt;/td&gt;&lt;td&gt;0.1a&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;HELIAC injector ‚Äî two cavity design [4,7]&lt;/td&gt;&lt;td&gt;(ordered 2022)&lt;/td&gt;&lt;td&gt;1 to 6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;325 MHz proton medical accelerator[18]&lt;/td&gt;&lt;td&gt;(design proposed 2019)&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Compact IH[19]&lt;/td&gt;&lt;td&gt;2015&lt;/td&gt;&lt;td&gt;2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;HIMAC medical syn- chrotron injector [14]&lt;/td&gt;&lt;td&gt;2007&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;HELIAC injector ‚Äî sin- gle cavity design [15]&lt;/td&gt;&lt;td&gt;no&lt;/td&gt;&lt;td&gt;1 to 6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;108 MHz medical syn- chrotron injector [20]&lt;/td&gt;&lt;td&gt;no&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/body&gt;&lt;/html&gt;</t>
-  </si>
-  <si>
-    <t>The FP system monitors various equipment inputs on a pulse-by-pulse basis. Each FP control chassis accepts up to 30 inputs relevant to the area that it protects. For example, in the beam transport region FP control chassis inputs include beam spill (radiation detectors), run permissive (safe to run beam), and beam deflector (stops beam) status. These inputs are paired with any of up to 10 relevant timing input signals. In this example, the timing input signals used include the Source Gate and the Ground-Level Deflector Gate. The equipment signals need to be ‚Äúgood‚Äù for the duration of their assigned timing windows. If the signal goes ‚Äúbad‚Äù during the timing window, a fault is broadcast through a network of transmission lines that extends $1 . 2 \\mathrm { k m }$ up to the 5 main FP control chassis at the front end of the accelerator, see Figure 1. This fault interrupts beam permissive signals and cancels the field across the respective Ground Level Deflector, dumping any remaining beam to ground. Fault conditions also trigger the FP readout system to capture the fault allowing operators to see which FP control chassis and device caused the fault. We propose to replace using this network of long transmission lines in the FP readout system with a more efficient schema which leverages the native capability of the upgraded FP readout and timing systems, see Figures 1 and 2. Note that the network of transmission lines will still be part of the machine protection hardware, but FP readout will no longer be triggered from the Timing Master.</t>
-  </si>
-  <si>
-    <t>LANSCE_ACCELERATOR_MACHINE_PROTECTION_TIMING_SYSTEM.pdf</t>
-  </si>
-  <si>
-    <t>INTRODUCTION The plasma lens is a device for the focusing of charged particles via a current-carrying plasma. A plasma lens is called active plasma lens (APL), if the focusing e!ects are driven externally by, for example, a laser or power supply. In general, an APL consists of a capillary oriented along the beam axis and lateral gas inlets. For an APL driven by a power supply, electrodes are added to both openings of the capillary. The operation of such an APL starts with filling the empty capillary with a gas (e.g. $\\mathrm { H } _ { 2 }$ or Ar) via the inlets. Afterwards, a high voltage is applied between both electrodes resulting in an electric field inside the capillary. If su"ciently strong, the electric field ionises some of the molecules near the electrode edges creating free electrons in the process. These few free electrons are then accelerated by the same electric field to energies su"cient enough to free additional electrons via impact ionisation. This new generation of free electrons is then also accelerated and causes further ionisation. The same applies to every subsequent electron generation as well. This chain reaction culminates in a partially- or fully-ionised plasma. During this process, the mostly longitudinal electric current increases significantly and induces an azimuthal magnetic field. This azimuthal component leads to the axial symmetric deflection of an incoming charged particle beam. It either focuses or defocuses the beam, depending on the relative orientation between the field, the particle motion and the sign of the charge. While the above gives a basic description of the APL‚Äôs functionality, more advanced processes, like plasma pinching, have been omitted here.</t>
-  </si>
-  <si>
-    <t>STATUS_OF_HYDRODYNAMIC_SIMULATIONS_OF_A_TAPERED_PLASMA.pdf</t>
-  </si>
-  <si>
-    <t>Additionally, it would be helpful to be able to tell which equipment fast protected first ‚Äì this would aid the operators in knowing which team to call in to address the problem. Currently in certain situations, such as with RF faults, there is no way to tell exactly which of a dozen or so faults happened first. A system causing a FP drops the beam which then causes the beam loading to change which then causes more RF system control faults. Note that LANSCE has 48 newly upgraded RF systems which detect and report faults much more quickly than the old systems. This creates a flurry of related FPs which obscure the original problem. The current FP system has logic that handles multiple RF faults on the same FP chassis but does not have a good way to time sequence faults occurring from multiple FP chassis. Our proposed solution is to add functionality to each of the distributed FP control chassis. As shown in Figure 1, the FP control chassis will send a TTL trigger to its co-located FP readout chassis EVR when it first detects a fault. This generates a FP event in the local buffer which would be time stamped. The FP concentrator would then report which fault happened first while also accounting for cable delays. Once all FP systems are upgraded in this fashion, we can send an event to the FP concentrator over the event link instead of relying on the existing network of transmission lines to interrupt the Timing System to trigger all FP readout chassis to report their status.</t>
-  </si>
-  <si>
-    <t>$$ \\begin{array} { c } { \\displaystyle \\mathrm { d } { P _ { z } } = \\frac { q } { \\nu _ { z } } \\int _ { 0 } ^ { L _ { c e l l } } { E _ { z } ( r , s , t ) \\mathrm { d } { s } } = } \\\\ { \\displaystyle \\frac { q } { \\nu _ { z } } \\int _ { 0 } ^ { L _ { c e l l } } { \\left[ E _ { z } ( 0 , s ) - \\frac { r ^ { 2 } } { 4 } \\left( \\frac { \\partial ^ { 2 } E _ { z } } { \\partial { z } ^ { 2 } } + \\frac { \\omega ^ { 2 } } { c ^ { 2 } } E _ { z } ( 0 , s ) \\right) \\right] } } \\\\ { \\displaystyle \\qquad \\times \\cos { ( \\phi _ { 0 } + \\omega t ) } \\mathrm { d } { s } } \\end{array}</t>
-  </si>
-  <si>
-    <t>FAST_RF_TRACKING_FUNCTIONS.pdf</t>
-  </si>
-  <si>
-    <t>$$ Here the ‚Äúrelative gradient‚Äù is defined as $\\nabla ^ { \\prime } =$ $( \\partial _ { x } , \\partial _ { y } , - \\partial _ { s } ) ^ { \\mathrm { ~ T ~ } }$ and $\\lambda _ { g z } = \\beta c T$ . The transverse kick per cell can be written as $$ \\begin{array} { r l r } &amp; { } &amp; { \\Delta \\vec { p } _ { \\perp } ( x , y ; s ) = - \\displaystyle \\int \\mathrm { d } s \\nabla _ { \\perp } \\Delta p _ { \\parallel } ( x , y ; s ) } \\\\ &amp; { } &amp; { \\quad = - \\displaystyle \\frac { \\lambda _ { g z } } { 2 \\pi m } q \\frac { 1 } { \\beta c } \\nabla _ { \\perp } \\int _ { - \\lambda _ { g z } / 2 } ^ { \\lambda _ { g z } / 2 } \\mathrm { I m } \\{ \\underline { { E } } _ { z } ( x , y , z ) e ^ { i \\omega ( z + s ) / \\upsilon } \\} \\mathrm { d } z , } \\end{array}</t>
-  </si>
-  <si>
-    <t>As next step, we take a bunched beam with $\\sigma _ { z } = 3 0 ~ \\mathrm { n m }$ and a reduced transverse emittance of $\\varepsilon _ { y } = 0 . 1 \\ \\mathrm { n m }$ . As shown in Fig. 15, the waist appears approximately at cell 7, when the beam is strongly focused initially with 45 mrad. Without the acceleration defocusing, the Rayleigh length would be $1 0 0 \\ \\mu \\mathrm { { m } }$ at an initial focusing angle of 2 mrad. The bunch has initially again an energy spread of $1 0 \\ \\mathrm { e V } ;$ which is significantly smaller than the matched energy spread. Thus a coherent quadrupole oscillation appears, which is also visible in the energy spectrum in Fig. 16. B. Relativistic acceleration In this example we take the full aperture to be $A = 8 0 0 \\ \\mathrm { n m }$ , $\\lambda _ { g } = \\lambda _ { 0 } = 1 . 9 6 \\ \\mu \\mathrm { m } .$ , $| \\underline { { e } } _ { 1 } | = 1 \\ \\mathrm { G V / m }$ , and the number of grating cells is 100. Taking the reference particle on-crest, i.e., $\\varphi _ { s } = \\pi$ , the design ramp is linear with a slope of $1 \\mathrm { G e V / m }$ . The incident electron beam has a bunch length significantly larger than the grating period and is again assumed as unbunched. The kinetic energy is $6 0 \\mathrm { M e V }$ and the spread is $\\sigma _ { W } = 1 0 ~ \\mathrm { k e V }$ . The spot size is taken as $\\sigma _ { y } = 4 0 0 ~ \\mathrm { n m }$ and the geometric emittance $\\varepsilon _ { y } = 1 ~ \\mathrm { n m }$ . The full Rayleigh range is thus $L _ { R } = A ^ { 2 } / ( 4 \\dot { \\varepsilon } _ { y } ) = 1 6 0 ~ \\mu \\mathrm { m }$ , which is practically achieved when the beam is focused with 5 mrad into the structure. Figure 17 shows the evolution of the y and $\\mathbf { z }$ phase spaces. The particle loss is monitored in Fig. 18, where the first jump is again the loss at the initial aperture. The plateau is within the Rayleigh range, however already before the end of the Rayleigh range the particles with excess momentum are being lost. Exactly at the Rayleigh range (after cell 81), the particle, that was initially the intersection of the ellipse diagonal with the aperture, is lost. The acceleration defocusing plays only a minor role for highly relativistic beams, i.e., the Rayleigh range is not significantly shortened. Figure 18 shows also the energy spectrum which becomes broader along the grating. This is due to particles being accelerated and decelerated according to their phase. Such spectra were also practically measured in [1,2]. The dashed lines in the plot show the same spectra in the case of zero transverse emittance, where also no loss on the aperture occurs.</t>
-  </si>
-  <si>
-    <t>$$ $$ \\left. \\begin{array} { l l } { \\bigl [ _ { y ^ { \\prime } } ^ { y } \\bigr ] = \\biggl [ \\frac { 1 } { \\underline { { { t } } } \\underline { { { g } } } e 2 } } &amp; { 0 } \\\\ { r } &amp; { 1 } \\end{array} \\right] \\bigl [ \\begin{array} { l l } { 1 } &amp; { L } \\\\ { 0 } &amp; { 1 } \\end{array} \\biggr ] \\left[ \\begin{array} { c c } { 1 } &amp; { 0 } \\\\ { - \\frac { t g e 1 } { r } } &amp; { 1 } \\end{array} \\right] \\bigl [ \\begin{array} { c } { y _ { 0 } } \\\\ { y _ { 0 } ^ { \\prime } } \\end{array} \\bigr ] $$ From the above equations, the deflected $\\mathbf { x } , \\mathbf { x } ^ { \\prime }$ , y, y' are obtained by Eqs. (3) and (4). According to different deflection angles, the appropriate deflection radius and edge angle are designed to ensure the normal transmission of the beam.</t>
-  </si>
-  <si>
-    <t>PHYSICAL_DESIGN_OF_A_10_MeV_ELECTRON_LINAC_FOR_INDUSTRIAL.pdf</t>
-  </si>
-  <si>
-    <t>In free space, the full Rayleigh length (cf. Appendix) of the beam with assumed geometric emittance $1 \\ \\mathrm { n m }$ at the aperture of $A = 2 0 0 ~ \\mathrm { n m }$ is $L _ { R } = A ^ { 2 } / ( 4 \\varepsilon _ { y } ) = 1 0 ~ \\mu \\mathrm { m }$ , i.e., about 16 cells. This requires the optimal initial focusing angle of 20 mrad. However, as shown in Fig. 12, in the presence of strong acceleration defocusing forces, the waist appears earlier, i.e., in cell 4. The particle loss and the energy spectrum are plotted in Fig. 13. The spectrum shows clearly that only a fraction of the particles is trapped in the bucket, the particles with $\\delta \\approx - 1 3 \\times 1 0 ^ { - 3 }$ are lost, although they do not hit the aperture. The physical loss of particles happens when they reach the aperture in y-direction $\\pm 1 0 0 ~ \\mathrm { n m } )$ . The longitudinal bucket capture process is illustrated more clearly for zero transverse emittance in Fig. 14, where no transverse losses appear and a full synchrotron period is displayed.</t>
-  </si>
-  <si>
-    <t>File Name:DEMONSTRATION_OF_TRANSVERSE_STABILITY_IN_AN_ALTERNATING.pdf DEMONSTRATION OF TRANSVERSE STABILITY IN AN ALTERNATING SYMMETRY PLANAR DIELECTRIC STRUCTURE‚àó W. Lynn‚Ä†, G. Andonian, N. Majernik, S. O‚ÄôTool, J. Rosenzweig, UCLA, Los Angeles, CA, USA S. Doran, SY. Kim, J. Power, E. Wisniewski, Argonne National Laboratory, Lemont, IL P. Piot, Northern Illinois University, DeKalb, IL, USA Abstract Dielectric wakefield acceleration (DWA) is a promising approach to particle acceleration, offering high gradients and compact sizes. However, beam instabilities can limit its effectiveness. In this work, we present the result of a DWA design that uses an alternating structure to counteract quadrupole-mode induced instabilities in the drive beam. We show that this approach is effective at delaying beam breakup, allowing for longer accelerating structures. We have designed and fabricated a new apparatus for positioning the DWA components in our setup. This allows us to precisely and independently control the gap in both transverse dimensions and consequently the strength of the respective destabilizing fields. Our results show that the use of alternating gradient structures in DWA can significantly improve its performance, offering a promising path forward for high-gradient particle acceleration. INTRODUCTION Electron accelerators have a variety of applications, from high energy physics [1] to free electron lasers [2], and even topics as esoteric as nuclear bomb simulations [3]. The impact of electron accelerators on all of these applications, and many more, can be improved by increasing the accelerating gradient of said accelerators, shrinking their footprint and consequently their cost allowing for the proliferation of more machines and improving their accessibility. One method for achieving this increase in accelerating gradient is Dielectric Wakefield Acceleration (DWA) which is a technique where a ‚Äúdriving‚Äù bunch of electrons generates an electromagnetic wake by driving a dielectric-lined waveguide. Some distance behind the drive beam, a ‚Äúwitness‚Äù bunch interacts with the excited wake and is accelerated [4]. DWA has been shown to generate accelerating gradients up to $1 \\mathrm { G V } / \\mathrm { m }$ which would be a significant improvement over conventional methods [5, 6]. One of the major limitations of DWA techniques is the ability to successfully propagate a beam through a significant length of accelerating structure due to the fact that short-range transverse wakefields can be generated in addition to the longitudinal accelerating field and these transverse fields can deflect and distort the driving beam sufficiently as to cause beam loss as it collides with accelerator components [7]. This phenomenon of selfinduced beam loss is known as Single-bunch Beam Breakup (SBBU).</t>
-  </si>
-  <si>
-    <t>In ECHO3D, the transverse wake potential is obtained from the Panofsky-Wenzel theorem, i.e. $$ \\frac { \\hat { \\sigma } } { \\hat { \\sigma } s } W _ { \\nu } \\left( x _ { 0 } , y _ { 0 } , x , y , s \\right) = \\frac { \\hat { \\sigma } } { \\hat { \\sigma } y } W _ { \\parallel } \\left( x _ { 0 } , y _ { 0 } , x , y , s \\right) \\cdot $$ Integrating both sides of eq. (1) yields $$ \\begin{array} { c } { { \\displaystyle } } \\\\ { { \\displaystyle \\int _ { - \\infty } ^ { s } \\frac { W _ { \\nu } \\left( x _ { 0 } , y _ { 0 } , x , y , s \\right) } { 2 \\Delta y } d s _ { 1 } } } \\end{array} . $$ The vertical monopole wake potential is calculated from eq. (2) with both the driving bunch and the test charge sitting on axis, i.e. $$ W _ { Q _ { y } } \\left( s \\right) = \\int _ { - \\infty } ^ { s } { \\frac { W _ { / / } \\left( 0 , 0 , 0 , \\Delta y , s _ { 1 } \\right) - W _ { / / } \\left( 0 , 0 , 0 , - \\Delta y , s _ { 1 } \\right) } { 2 \\Delta y } d { s _ { 1 } } ^ { - } }</t>
-  </si>
-  <si>
-    <t>IMPEDANCE_CALCULATI_ON_FOR_THE_HADRON_STORAGE_RING_IN.pdf</t>
-  </si>
-  <si>
-    <t>$$ J ( r _ { \\perp } ^ { ( 1 ) } ; r , \\omega ) = q \\delta ( r _ { \\perp } - r _ { \\perp } ^ { ( 1 ) } ) e ^ { - i k _ { 0 } z } . $$ The longitudinal coupling impedance to a witness particle with a potentially different transverse offset at $r _ { \\perp } ^ { ( 2 ) }$ is $$ Z _ { \\parallel } ( r _ { \\perp } ^ { ( 1 ) } , r _ { \\perp } ^ { ( 2 ) } ; \\omega ) = - \\frac { 1 } { q ^ { 2 } } \\int \\mathrm { d } ^ { 3 } r J ^ { * } ( r _ { \\perp } ^ { ( 2 ) } ; r , \\omega ) E ( r _ { \\perp } ^ { ( 1 ) } ; r , \\omega ) , $$ where $E ( r _ { \\perp } ^ { ( 1 ) } ; r , \\omega )$ denotes the electric field excited by the source particle at $r _ { \\perp } ^ { ( 1 ) }$ . Transverse coupling impedances can be derived from (3) using Panofsky-Wenzel theorem [5]. Furthermore, by careful analysis of the resulting impedance spectra it is possible to determine the resonance frequencies of the chamber as well as the corresponding shunt impedances and Q-factors as described, e.g., in [6].</t>
-  </si>
-  <si>
-    <t>IMPEDANCE_COMPUTATION_FOR_LARGE_ACCELERATOR.pdf</t>
-  </si>
-  <si>
-    <t>$$ Compared to the previous results that assumed $\\scriptstyle Q ^ { \\prime \\prime } \\ = \\ 0$ [10], the presence of the non-zero $\\boldsymbol { Q } ^ { \\prime \\prime }$ has introduced two additional terms to the second moment of the transverse sideband. Both of these terms are proportional to the square of the second-order chromaticity. Strictly speaking, the presence of these terms would essentially mean that we cannot use Eq. (7) for calculating $\\scriptstyle Q ^ { \\prime }$ , however, it can be shown that, for the typical LHC beam and Schottky monitor parameters (see Table 1), the effect of these terms is negligible. In Fig. 2 we can see the average tune shift, as well as the error resulting from using Eq. (7), as a function of $\\boldsymbol { Q } ^ { \\prime \\prime }$ . The typical range of $\\boldsymbol { Q } ^ { \\prime \\prime }$ in the LHC does not exceed a few thousand units, while the maximal values presented in Fig. 2 correspond to high $\\boldsymbol { Q } ^ { \\prime \\prime }$ proposed in Ref. [4] as an alternative to the Landau damping using octupole magnets.</t>
-  </si>
-  <si>
-    <t>IMPACT_OF_SECOND-ORDER_CHROMATICITY_ON_THE_SCHOTTKY.pdf</t>
-  </si>
-  <si>
     <t>APPENDIX B: BUNCH FORM FACTOR DERIVATION When calculating a bunch‚Äôs energy loss to a particular mode of the corrugated waveguide, the shape of the bunch described by the bunch peak current distribution $i ( t )$ is accounted for by scaling the loss factor $\\kappa$ by the Fourier transform ${ \\cal I } ( \\omega _ { n } )$ of the current, where $\\omega _ { n }$ is the angular frequency of the synchronous mode. The form factor $F ( k _ { n } )$ of the bunch is defined as ${ \\cal I } ( \\omega _ { n } ) / q _ { 0 }$ , where $k _ { n }$ is the wave number of the synchronous mode and $q _ { 0 }$ is the total charge of the bunch. Here, time $t$ begins when the head of the bunch passes a fixed observation point in the corrugated waveguide. We begin by considering the kinetic energy lost by an element of charge idt as it moves a distance cdt in an electric field $E _ { z }$ : $$ d ^ { 2 } U _ { \\mathrm { l o s s } } = ( i d t ) ( c d t ) E _ { z } .</t>
   </si>
   <si>
@@ -2886,12 +2751,6 @@
     <t>At KARA, this longitudinal compression of the bunches is realized using a magnetic lattice with reduced momentum compaction factor $( \\mathrm { l o w } { - } \\alpha _ { \\mathrm { C } } )$ [1, 2]. The resulting high particle density entails nonlinear phenomena due to the interaction of the particle bunches with their self-emitted CSR. This can result in longitudinal bunch deformations and dynamical fluctuations, due to the microbunching instability. The latter causes longitudinal substructures on the bunches and generates quasi-periodic outbursts of intense THz radiation [1, 3, 4]. The understanding of this instability is crucial for opening a new additional frequency range with intense radiation for various experiments, which were not possible previously. A versatile impedance manipulation chamber is currently under development for the KARA storage ring at KIT. Changing the longitudinal impedance of the ring and the longitudinal wakefields of the particles influences the beam dynamics of the passing electrons. The additional impedance and the change of wakefields are created by a pair of horizontal parallel plates with periodic rectangular corrugations perpendicular to the propagation direction of the electrons. Figure 1 shows a schematic cross section of the structure with geometric parameters corrugation depth $h$ , periodic length $L$ , corrugation width $g$ , and plate distance $2 b$ . To our knowledge, such a structure has not yet been installed into a storage ring. At KARA, the bunch profile and the emitted CSR can be affected periodically by the additional impedance due to the repeated passage with the revolution frequency of $2 . 7 \\mathrm { M H z }$ .</t>
   </si>
   <si>
-    <t>10.25777/prn7-e491 [6] H. Wiedemann, ‚ÄùParticle Accelerator Physics‚Äù, Springer Cham, 2007. doi:10.1007/978-3-319-18317-6</t>
-  </si>
-  <si>
-    <t>SINGLE_BUNCH_TRACKING_ON_THE_TEN-PASS_ER@CEBAF.pdf</t>
-  </si>
-  <si>
     <t>$$ \\overline { { \\sigma } } _ { \\mathrm { t r u e } } = \\sqrt { \\overline { { \\sigma } } _ { \\mathrm { o n } } ^ { 2 } - \\overline { { \\sigma } } _ { \\mathrm { o f f } } ^ { 2 } } $$ by removing the natural horizontal beam size contribution from the estimate of the true bunch length. The results obtained give a bunch length of ${ \\sim } 1 4 0$ fs (Table 1). Note that the linac was not specifically tuned for short bunches. The unstreaked bunch length contribution of $\\overline { { \\sigma } } _ { \\mathrm { o f f } } \\sim 5 0$ fs on SCRN6 sets a lower slice width limit for the sliced beam emittance measurement; this will be reduced when the TDC streaking field is increased. Table: Caption: Table 1: Results for SCRN6, SCRN7 and SCRN10.  Body: &lt;html&gt;&lt;body&gt;&lt;table&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;SCRN6&lt;/td&gt;&lt;td&gt;SCRN7&lt;/td&gt;&lt;td&gt;SCRN10&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;x calibration (mm/ps)&lt;/td&gt;&lt;td&gt;1.26&lt;/td&gt;&lt;td&gt;1.23&lt;/td&gt;&lt;td&gt;2.10&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Tof (fs)&lt;/td&gt;&lt;td&gt;53&lt;/td&gt;&lt;td&gt;89&lt;/td&gt;&lt;td&gt;147&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Bunch length,Ton (fs)&lt;/td&gt;&lt;td&gt;145&lt;/td&gt;&lt;td&gt;198&lt;/td&gt;&lt;td&gt;222&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Bunch length, Ttrue (fs)&lt;/td&gt;&lt;td&gt;135&lt;/td&gt;&lt;td&gt;177&lt;/td&gt;&lt;td&gt;166&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Œºoff (fs)&lt;/td&gt;&lt;td&gt;3.5&lt;/td&gt;&lt;td&gt;4.8&lt;/td&gt;&lt;td&gt;12.0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Bunch jitter, Œºon (fs)&lt;/td&gt;&lt;td&gt;75.2&lt;/td&gt;&lt;td&gt;81.0&lt;/td&gt;&lt;td&gt;79.9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Bunch jitter, Œºtrue (fs)&lt;/td&gt;&lt;td&gt;75.1&lt;/td&gt;&lt;td&gt;80.9&lt;/td&gt;&lt;td&gt;79.0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Dispersion n (m)&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;0.514&lt;/td&gt;&lt;td&gt;1.016&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Energy spread,std(%)&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;0.19&lt;/td&gt;&lt;td&gt;0.19&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/body&gt;&lt;/html&gt; The upper limit to the bunch timing jitter is given by the std spread of the horizontal centers of the Gaussian fits, for a given TDC RF phase setting, with the TDC on $( \\widetilde { \\mu } _ { \\mathrm { o n } } )$ . The corresponding value with the TDC o! $( \\widetilde { \\mu } _ { \\mathrm { o n } } )$ allows"the true bunch jitter to be estimated as</t>
   </si>
   <si>
@@ -2901,24 +2760,9 @@
     <t>Most FEL facilities apply planar structures with two corrugated plates, where the longitudinal wakefield strength can be adjusted by varying the gap. However, quadrupole wakefield is introduced in addition to the longitudinal wakefield due to the asymmetric geometry. The time-dependent quadrupole wakefield can cause beam mismatch and emittance growth, which usually require compensation by placing two pairs of plates orthogonally and maintaining nearly symmetric average $\\beta$ functions throughout the structures [7]. Conversely, purposely enhancing beam mismatch via the quadrupole wakefield can be exploited for slice lasing control, by individually matching the slices into different undulators [10, 11]. Consequently, it would be desirable to introduce a structure that provides flexible and independent control of both longitudinal and quadrupole wakefield. Therefore, we propose a novel wakefield structure consisting of four identical elements. By adjusting the gaps between orthogonal pairs, the quadrupole wakefield can be either fully compensated or significantly amplified, while the impact to the longitudinal wakefield is moderate. Such design allows for flexible manipulation of bunch slice properties for various applications. PHYSICAL DESIGN The quadripartite wakefield structure comprises four identical corrugated plates, each independently controlled by a pair of high-precision motors, as illustrated in Fig. 1. The corrugation of each plate can be designed either as a quartercircle curve or flat, without affecting the fundamental working principle. In the following physical analysis, the curved configuration is employed with its key parameters listed in Table 1.</t>
   </si>
   <si>
-    <t>4 Spatial Harmonic Focusing One important assumption in the APF discussion is that particles mainly interact with the resonant electromagnetic waves as they propagate in the DLA structure. That is the effect of waves propagating with phase velocity different than the velocity of the electrons averages out and does not play a significant role in the dynamics [9]. For relativistic DLAs where the velocity of the particles and of the waves inside the structure are all close to the speed of light (and their differences tends to zero), this approximation needs to be carefully reviewed. If the difference in phase velocity is not very large, in fact, even the non resonant harmonics in the field (which can be always modeled as a sum of spatial harmonics) will contribute to the dynamics. An interesting alternative scheme for focusing has been proposed by Naranjo et al. [40] and borrows from the concept of second order focusing in conventional RF structures [41]. In that paper the authors considered a structure with a super-period length $\\lambda _ { S } = 2 \\pi / \\delta _ { k }$ added to the accelerating wave. Then, using Floquet‚Äôs theorem, the field can be decomposed into spatial harmonics. Due to the different phase velocities of these harmonics, only one of these can be resonant (i.e. maintain a nearly constant phase) with the electrons, while all the other ones will wash out over the beam as it propagates in the DLA. The alternation of focusing and defocusing phases would have a net focusing effect which can be used to counteract the resonant defocusing force and maintain the beam confined in the accelerating channel.</t>
-  </si>
-  <si>
-    <t>INTRODUCTION The future path for accelerators are compact, high energy linear machines. In order to minimize the footprint, high gradient accelerating cavities need to be developed. Dielectric Disk Accelerators (DDA) researched here are X-band dielectric disk loaded metallic structures are a promising candidate to be used in future accelerators. These structures have high shunt impedances and high accelerating gradients [1]. To produce high accelerating gradients, high peak input RF power are required and to limit the risk of breakdown, short RF pulses are used [2]. These pulses are created using Two Beam Acceleration (TBA). A high charge drive beam is produced and sent through a Power Extractor and Transfer Structure (PETS) [3]. This decelerates the drive bunch and transfers the created RF power packet to the DDA that accelerates a witness beam. The RF pulse length produced by the PETS in this research is $^ { \\sim 9 }$ ns. In this paper we will review the outcomes of previous DDA experiments as well as results from the most recent multicell tests. PREVIOUS DDA PROTOTYPES Previously two single cell DDA structures were designed and high power tested [4, 5]. A clamped design was selected for new designs due to difficulties with brazing on previous prototypes. During the clamped single cell experiment, the DDA withstood $3 2 1 ~ \\mathrm { M W }$ of input power and achieved an accelerating gradient of $1 0 2 \\mathrm { M V / m }$ [6]. The test ran up to the amount of available RF power. During the experiment there were no optical signs of breakdown and in review of the recorded RF pulses during data processing there were also no signs of breakdown. After testing, the single cell clamped DDA was disassembled and inspected. Damage was found outside the RF volume where the faces of the copper components meet when clamped. Figure 1 shows the damage. Since the damage was located outside the RF volume it was likely caused by uneven and insufficient clamping during assembly.</t>
-  </si>
-  <si>
-    <t>MULTICELL_DIELECTRIC_DISK_ACCELERATING_STRUCTURE_HIGH.pdf</t>
-  </si>
-  <si>
-    <t>File Name:MULTICELL_DIELECTRIC_DISK_ACCELERATING_STRUCTURE_DESIGN.pdf MULTICELL DIELECTRIC DISK ACCELERATING STRUCTURE DESIGN AND LOW POWER RESULTS‚àó S. Weatherlyp1, C. Jing2, E. Wisniewski1, D. Doran, J. Power Argonne National Laboratory, Lemont, USA Ben Freemire, Euclid Beamlabs, Bolingbrook, USA 1also at Illinois Insitute of Technology, Chicago, USA 2also at Euclid Beamlabs, Bolingbrook, USA Abstract PREVIOUS DDA PROTOTYPES Utilizing short RF pulses $( \\sim 9 \\mathrm { n s } )$ with Dielectric Disk Accelerators (DDA) is a way to improve the energy efficiency of a linear accelerator and decrease the required footprint while still achieving large energies. A DDA is an accelerating structure that utilizes dielectric disks to improve the shunt impedance while still achieving large accelerating gradients. A single cell clamped DDA structure was designed and high power tested at the Argonne Wakefield Accelerator, reaching an accelerating gradient of $1 0 2 \\mathrm { M V / m }$ . A multicell clamped DDA structure has been designed and fabricated. Simulation results for this new structure show a $1 0 8 \\ : \\mathrm { M V / m }$ accelerating gradient with $4 0 0 \\mathrm { M W }$ of input power with a high shunt impedance and group velocity. Engineering designs have been improved from the single cell structure to improve the consistency of clamping over the entire structure. The multicell structure has been fabricated, assembled, and low power tested with high power testing to come.</t>
-  </si>
-  <si>
     <t>IX. CONCLUSION Through simulation, we have shown how the electromagnetic parameters characterizing the $\\mathrm { T M } _ { 0 1 }$ synchronous mode of a cylindrical CWG used as a slow-wave structure depend on the corrugation period, spacing, sidewall angle, and frequency of the accelerating mode. In analyzing the structures, we found that minimizing the corrugation period plays a key role in reducing the peak electromagnetic fields, thermal loading, and coupling to HOMs. Taking into account electromagnetic and manufacturing considerations, we found the most practical corrugation profile has vertical sidewalls and a corrugation tooth width similar to the width of the vacuum gap. Using the results of our analysis, we have designed a prototype CWG for the A-STAR CWA under development at Argonne National Laboratory. The calculated parameters of A-STAR suggest that a CWA based on a metallic corrugated waveguide is a promising approach to realize a new generation of high repetition rates and compact XFEL light sources. ACKNOWLEDGMENTS This manuscript is based upon work supported by Laboratory Directed Research and Development (LDRD) funding from Argonne National Laboratory (ANL), provided by the Director, Office of Science, of the U.S. Department of Energy under Contract No. DEAC02-06CH11357. Useful discussions with W. Jansma, S. Lee, A. Nassiri, B. Popovic, J. Power, S. Sorsher, K. Suthar, E. Trakhtenberg, and J. Xu of ANL are gratefully acknowledged.</t>
   </si>
   <si>
-    <t>A major disadvantage of using modified transmission electron microscopes as the injector for a DLA is their large size and cost. A typical $2 0 0 \\\\mathrm { k e V }$ system will have roughly a 1 meter distance from the electron source to the DLA. Efforts have been made to produce a a more compact electron injector by using an electro-static immersion lens built into the electron source region to directly focus the beam coming off of a nanotip source [24]. This allows the nanotip emitter to be re-imaged into a DLA device in less than $2 5 ~ \\\\mathrm { m m }$ distance at $9 6 ~ \\\\mathrm { k e V }$ beam energy as shown in Fig. 1 [25]. Due to the relatively high beam divergence off the tip feeding directly into the immersion lens, this arrangement is more prone to aberrations than a system with focusing elements outside the electron acceleration region. As such, a 0.4 mrad divergence beam out of an immersion lens source will typically be focusable to $4 0 0 ~ \\\\mathrm { { n m } }$ rms without emittance filtering, resulting in a normalized emittance of 100 pm-rad, increasing to 300 pm-rad at 30 electrons per shot, which is better than the unfiltered emittance from a CW laser triggered Schottky emitter TEM [21]. The immersion lens reduces the DC acceleration gradient at the tip, increasing the effects of space-charge compared to other source designs. The initial immersion lens experiments were also performed using five-photon photoemission from silicon nanotips to suppress background emission, which results in a larger space charge energy spread than necessary [26].</t>
-  </si>
-  <si>
     <t>The SHINE linac beam specifications are listed in Table 1. After two stages of bunch compressors, the bunch length is shortened to $1 0 ~ { \\mu \\mathrm { m } }$ , with a time-dependent energy chirp of approximately $0 . 2 5 \\%$ $( 2 0 \\mathrm { M e V } )$ at the exit of the SHINE linac. Compared with normal conducting RF structures, the wakefield generated by the L-band superconducting structure is relatively weak because of its large aperture [15]. Therefore, it is impossible to compensate the correlated energy spread of the beam by adopting the longitudinal wakefield of the accelerating module, which becomes a key design feature of superconducting linacdriven FELs. In the case of the SHINE linac, the electron bunch length is less than $1 0 ~ { \\mu \\mathrm { m } }$ after passing through the second bunch compressor. Therefore, the beam energy spread cannot be effectively compensated by chirping the RF phase of the main linac. The SHINE linac adopts the corrugated structure (Fig. 2) to dechirp the energy spread. This is achieved by deliberately selecting the structural parameters so as to control the wavelength and strength of the field, as verified by beam experiments on many FEL facilities.</t>
   </si>
   <si>
@@ -2976,43 +2820,13 @@
     <t>BAYESIAN_OPTIMIZATION_SCHEME_FOR_THE_DESIGN_OF_A.pdf</t>
   </si>
   <si>
-    <t>Upon successful testing of the 3-cell cavity, we plan to proceed with further demonstrations of feasibility of the traveling wave technology: ‚Ä¢ Design, build and test a proof-of-principle multi-cell, half-meter- to one-meter-long $1 . 3 \\mathrm { G H z }$ TW cavity and demonstrate accelerating gradient of ${ \\sim } 7 0  { \\mathrm { M V / m } }$ . ‚Ä¢ Adapt an advanced cavity treatment technique so that high $Q \\sim 1 0 ^ { 1 0 }$ can be achieved at high gradient. ‚Ä¢ Design, build and test several dressed prototype cavities, demonstrate performance required for the HELEN collider. ‚Ä¢ Design and build a prototype cryomodule. ‚Ä¢ Verify the cryomodule performance without beam on a test stand and with beam at the Fermilab‚Äôs FAST facility. Beyond the demonstration of TW technology, the collider R&amp;D program (if funded) will pursue the following tasks: ‚Ä¢ Design and optimization of the HELEN linear collider accelerator complex. ‚Ä¢ Confirm the physics reach and detector performance for the HELEN beam parameters. ‚Ä¢ Publish Conceptual Design Report as modification of the ILC design in 2‚Äì3 years. ‚Ä¢ Prepare Technical Design Report after demonstrating the cryomodule performance, in ${ \\sim } 5$ years.</t>
-  </si>
-  <si>
-    <t>HELEN__TRAVELING_WAVE_SRF_LINEAR_COLLIDER.pdf</t>
-  </si>
-  <si>
-    <t>$$ K _ { \\\\mathrm { z } } = a _ { \\\\mathrm { z } } { \\\\frac { k _ { \\\\mathrm { x } } } { k _ { \\\\mathrm { u } } } } = { \\\\frac { q } { m _ { 0 } c ^ { 2 } } } { \\\\frac { k _ { \\\\mathrm { z } } } { k k _ { \\\\mathrm { u } } } } \\\\left| e _ { 1 } \\\\left( \\\\alpha \\\\right) \\\\right| \\\\tan \\\\alpha \\\\ . $$ Figure $1 3 \\\\mathrm { a }$ ) shows the dependency of the undulator parameter $K _ { \\\\mathrm { z } }$ on the grating tilt angle $\\\\alpha$ and the undulator wavelength $\\\\lambda _ { \\\\mathrm { u } }$ in a vertically symmetric opposing silica grating structure. For this purpose the synchronous harmonic $\\\\boldsymbol { e } _ { 1 }$ at the center of the structure was determined as function of the tilt angle. The undulator parameter $K _ { \\\\mathrm { z } }$ shows a local maximum at an tilt angle of $\\\\alpha \\\\approx 2 5$ degrees. Furthermore, $K _ { \\\\mathrm { z } }$ increases linearly with the undulator wavelength $\\\\lambda _ { \\\\mathrm { u } }$ . We investigate a design using $\\\\lambda _ { \\\\mathrm { u } } = 4 0 0 \\\\lambda _ { \\\\mathrm { z } }$ which corresponds to an effective undulator parameter of $K _ { \\\\mathrm { z } } \\\\approx 0 . 0 4 5$ . In Fig. 13 b) the detuning with respect to the synchronous operation $k - \\\\beta k _ { \\\\mathrm { z } }$ determines the transversal oscillation amplitude $\\\\hat { x }$ and the energy of the generated photons $E _ { \\\\mathrm { p } }$ . For $0 . 2 5 \\\\%$ deviation from synchronicity, the silica DLA undulator induces a $\\\\hat { x } \\\\approx 3 0 \\\\mathrm { n m }$ electron beam oscillation and a wavelength of [55]</t>
-  </si>
-  <si>
-    <t>Expert</t>
-  </si>
-  <si>
-    <t>The transversal components of the accelerating mode vanish at the center of the gap. Small deviations around this stability point present transversal electric fields magnitude much lower than the longitudinal field. In the scenario where the accelerator lengths are greater, transverse focusing can be achieved using ponderomotive forces or alternating phase focusing [12]. CONCLUSION AND FUTURES PERSPECTIVES A co-propagating DLA structure has been presented, optimized for the acceleration of sub-relativistic electrons in the $\mathrm { k e V }$ kinetic energy ranges. For the first time, this structure has been modeled and simulated by using CST Microwave Studio, joining both electromagnetic and Particle-In-Cell numerical tools. Rib tapering proves to be a potential tool for tailoring slot waveguide accelerators according to the electron energy. An accelerating gradient of $G _ { z } = 0 . 2 2 7 \mathrm { G V } \mathrm { m } ^ { - 1 }$ was obtained for the tapered slot waveguide DLA. This value is above compared to those nowadays accelerator ones. An energy gain of $\Delta W ~ =$ $4 . 5 \mathrm { k e V }$ for electrons with $T _ { 0 } ~ = ~ 8 0 \mathrm { k e V }$ was achieved. Further testing and beam manipulation are still required for both experimental and industrial applications. Further ideas such as cascade acceleration by means of tapered slot waveguides DLA could be implemented for the acceleration of sub-relativistic particles for low to mid-energy ranges. Also, a two-stage accelerator set-up (two DLAs) can be used for bunching and acceleration respectively. Next steps will include the evaluation of RF acceptance and the two-stage configuration study.</t>
-  </si>
-  <si>
-    <t>$$ \begin{array} { c } { { \displaystyle { \cal D } ( r , y , t ) = \frac { 1 } { ( 2 \pi ) ^ { 2 } } \int d k ~ e ^ { i ( k ( z - c t ) + q x ) } \hat { \varepsilon } ( k c ) \tilde { E } ( k , y ) , } } \\ { { \displaystyle { \cal B } ( r , y , t ) = \frac { 1 } { ( 2 \pi ) ^ { 2 } } \int d k ~ e ^ { i ( k ( z - c t ) + q x ) } \hat { \mu } ( k c ) \tilde { H } ( k , y ) , } } \end{array} $$ where we used the Fourier transform pair $$ \hat { \zeta } ( \omega ) = \int _ { - \infty } ^ { \infty } d t e ^ { i \omega t } \zeta ( t ) , \quad \zeta ( t ) = \frac { 1 } { 2 \pi } \int _ { - \infty } ^ { \infty } d \omega e ^ { - i \omega t } \hat { \zeta } ( \omega ) ,</t>
-  </si>
-  <si>
     <t>OPTICAL SETUP For injection experiments, the electron bunch is set to cross the wakefields at a given longitudinal location $z _ { e }$ inside of the vapour source, where $z _ { e } = 0 \\mathrm { m }$ is defined to be at the entrance aperture. To maximise charge captured into the wakefields, the transverse beam size should be minimal at $z _ { e }$ , and comparable to or smaller than the radial extent of the wakefields, which is in the order of a plasma skin depth $c / \\omega _ { p e }$ ; ranging from $c / \\omega _ { p e } \\sim 1 0 0$ to ${ \\sim } 6 0 0 \\mu \\mathrm { m }$ for plasma electron densities used in AWAKE. Since the beam size can currently not be measured at $z _ { e }$ , agreement between the measured and simulated beam distributions along the transfer line must be used to extrapolate these sizes. Optimisation Of Beam Line Optics It was found operationally that optimisation of the beam transport optics (to achieve a target beam size at the desired location) using analytical matching and linear optics is accurate if beams (produced by the photo-injector) are well represented by Gaussian distributions and if the initial conditions of the electron beam are close to the design specifications [20].</t>
   </si>
   <si>
-    <t>NEW DESIGN A new design was deployed which consists of a custom 1 U Chassis, shown in Fig. 5, and an RF printed circuit board assembly (PCBA), shown in Fig. 6. It was decided to divide the available ${ 8 0 5 } \\mathrm { M H z }$ reference by four and send the result through a hybrid coupler network to generate the four possible $\\mathrm { R } ^ { \\ast } 9 0 ^ { \\circ }$ phases. A phase measurement can then be made against $2 0 1 . 2 5 \\mathrm { M H z }$ on fiber and the appropriate hybrid coupler path will be selected. If $8 0 5 \\mathrm { M H z } / 4$ results in $2 0 1 . 2 5 \\mathrm { M H z }$ that‚Äôs $+ 9 0$ degrees away from the original $2 0 1 . 2 5 \\mathrm { M H z }$ , then the -90-degree hybrid coupler path will be selected, similarly if the phase difference is 0 degrees, the 0-degree path will be selected. In this way, the system will always power up and recover to the same phase. Hybrid Coupler Network</t>
-  </si>
-  <si>
-    <t>IMPROVING_THE_PHASE_STABILITY_OF_THE.pdf</t>
-  </si>
-  <si>
     <t>Three more accelerating structures were placed downstream of the first one with a distance between adjacent coupler centers of $0 . 3 5 \\mathrm { m }$ . The beam from the first structure at maximum brightness was used as input to that part of the linac but the reference particle was moved to the new bunch center. Phases of the three structures were set for maximum acceleration but with a phase offset of - $. 1 5 ^ { \\circ }$ to provide some additional longitudinal compression of the bunch. Figure 2 shows resulted longitudinal phase space cropped at the DR level. The accepted yield is $8 . 0 ~ \\mathrm { { n } _ { e + } / \\mathrm { { n } _ { e } - } }$ and the total yield is $8 . 6 ~ \\mathrm { { n } _ { e } + / \\mathrm { { n } _ { e } - } }$ . The root mean square (RMS) energy spread of accepted particles $\\Delta \\mathrm { W } / \\mathrm { W }$ is $1 . 1 \\%$ and RMS bunch length $\\Delta Z$ is $2 . 8 \\mathrm { m m }$ .</t>
   </si>
   <si>
     <t>ON_POSITRON_BEAM_DYNAMICS_IN_AN_INITIAL_PART_OF_A_LARGE.pdf</t>
-  </si>
-  <si>
-    <t>The first transversal multi-pole parameter was normalized $A _ { 0 1 } = 1$ and we considered a smaller region than before $\\sigma _ { 1 } ^ { - } = \\{ \\vec { r } \\in \\mathbb { R } ^ { 3 } | - 0 . 0 0 1 \\mathrm { m } \\leq x \\leq 0 . 0 0 1 \\mathrm { m } ,$ $- 0 . 0 0 1 \\mathrm { m } \\leq y \\leq$ $0 . 0 0 1 \\mathrm { m } , z = 0 . 0 3 3 6 3 \\mathrm { m } \\}$ We got the average error difference between field-map and two-terms fitting for each component of the electric field as in polar coordinates as $$ \\begin{array} { r c l } { E _ { r \\mathrm { e r r } } } &amp; { = } &amp; { 1 3 . 2 ^ { \\sigma _ { \\mathrm { 0 } } } } \\\\ { E _ { \\theta \\mathrm { e r r } } } &amp; { = } &amp; { 5 . 6 ^ { \\sigma _ { \\mathrm { 0 } } } } \\\\ { E _ { z \\mathrm { e r r } } } &amp; { = } &amp; { 2 0 . 7 ^ { \\sigma _ { \\mathrm { 0 } } } } \\end{array}</t>
-  </si>
-  <si>
-    <t>ANALYTICAL_POTENTIAL_MODEL_FOR_THE_RADIO-FREQUENCY.pdf</t>
   </si>
   <si>
     <t>Daisy</t>
@@ -3430,13 +3244,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A85F72-B3EC-EB4D-A3E1-C70AFE08A3AE}">
-  <dimension ref="A1:J452"/>
+  <dimension ref="A1:J456"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B435" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B406" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A451" sqref="A451:A452"/>
+      <selection pane="bottomRight" activeCell="C464" sqref="C464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11994,31 +11808,31 @@
         <v>864</v>
       </c>
       <c r="B268" s="2">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="C268" s="2">
-        <v>3603</v>
+        <v>1319</v>
       </c>
       <c r="D268" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E268" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F268" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="G268" t="s">
-        <v>563</v>
+        <v>160</v>
       </c>
       <c r="H268" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="I268" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="J268" t="s">
-        <v>769</v>
+        <v>865</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.2">
@@ -12026,31 +11840,31 @@
         <v>864</v>
       </c>
       <c r="B269" s="2">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="C269" s="2">
-        <v>1302</v>
+        <v>4046</v>
       </c>
       <c r="D269" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E269" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F269" t="s">
-        <v>522</v>
+        <v>307</v>
       </c>
       <c r="G269" t="s">
-        <v>566</v>
+        <v>160</v>
       </c>
       <c r="H269" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="I269" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="J269" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.2">
@@ -12058,13 +11872,13 @@
         <v>864</v>
       </c>
       <c r="B270" s="2">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="C270" s="2">
-        <v>1319</v>
+        <v>4065</v>
       </c>
       <c r="D270" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E270" t="s">
         <v>306</v>
@@ -12076,13 +11890,13 @@
         <v>160</v>
       </c>
       <c r="H270" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I270" t="s">
         <v>757</v>
       </c>
       <c r="J270" t="s">
-        <v>866</v>
+        <v>772</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.2">
@@ -12090,31 +11904,31 @@
         <v>864</v>
       </c>
       <c r="B271" s="2">
-        <v>154</v>
+        <v>573</v>
       </c>
       <c r="C271" s="2">
-        <v>4046</v>
+        <v>235</v>
       </c>
       <c r="D271" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E271" t="s">
         <v>306</v>
       </c>
       <c r="F271" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="G271" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H271" t="s">
-        <v>867</v>
+        <v>617</v>
       </c>
       <c r="I271" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="J271" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.2">
@@ -12122,10 +11936,10 @@
         <v>864</v>
       </c>
       <c r="B272" s="2">
-        <v>173</v>
+        <v>628</v>
       </c>
       <c r="C272" s="2">
-        <v>4065</v>
+        <v>2752</v>
       </c>
       <c r="D272" t="s">
         <v>22</v>
@@ -12134,19 +11948,19 @@
         <v>306</v>
       </c>
       <c r="F272" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="G272" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H272" t="s">
-        <v>576</v>
+        <v>616</v>
       </c>
       <c r="I272" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="J272" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
@@ -12154,31 +11968,31 @@
         <v>864</v>
       </c>
       <c r="B273" s="2">
-        <v>197</v>
+        <v>971</v>
       </c>
       <c r="C273" s="2">
-        <v>131</v>
+        <v>1592</v>
       </c>
       <c r="D273" t="s">
         <v>10</v>
       </c>
       <c r="E273" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F273" t="s">
-        <v>314</v>
+        <v>376</v>
       </c>
       <c r="G273" t="s">
-        <v>564</v>
+        <v>160</v>
       </c>
       <c r="H273" t="s">
-        <v>869</v>
+        <v>633</v>
       </c>
       <c r="I273" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="J273" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
@@ -12186,31 +12000,31 @@
         <v>864</v>
       </c>
       <c r="B274" s="2">
-        <v>199</v>
+        <v>972</v>
       </c>
       <c r="C274" s="2">
-        <v>133</v>
+        <v>1593</v>
       </c>
       <c r="D274" t="s">
         <v>10</v>
       </c>
       <c r="E274" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F274" t="s">
-        <v>314</v>
+        <v>376</v>
       </c>
       <c r="G274" t="s">
-        <v>564</v>
+        <v>160</v>
       </c>
       <c r="H274" t="s">
-        <v>584</v>
+        <v>635</v>
       </c>
       <c r="I274" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="J274" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.2">
@@ -12218,31 +12032,31 @@
         <v>864</v>
       </c>
       <c r="B275" s="2">
-        <v>207</v>
+        <v>1129</v>
       </c>
       <c r="C275" s="2">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="D275" t="s">
         <v>10</v>
       </c>
       <c r="E275" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="F275" t="s">
-        <v>314</v>
+        <v>397</v>
       </c>
       <c r="G275" t="s">
-        <v>564</v>
+        <v>157</v>
       </c>
       <c r="H275" t="s">
-        <v>583</v>
+        <v>868</v>
       </c>
       <c r="I275" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="J275" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.2">
@@ -12250,31 +12064,31 @@
         <v>864</v>
       </c>
       <c r="B276" s="2">
-        <v>221</v>
+        <v>1131</v>
       </c>
       <c r="C276" s="2">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="D276" t="s">
         <v>10</v>
       </c>
       <c r="E276" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="F276" t="s">
-        <v>314</v>
+        <v>397</v>
       </c>
       <c r="G276" t="s">
-        <v>564</v>
+        <v>157</v>
       </c>
       <c r="H276" t="s">
-        <v>870</v>
+        <v>652</v>
       </c>
       <c r="I276" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="J276" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
@@ -12282,31 +12096,31 @@
         <v>864</v>
       </c>
       <c r="B277" s="2">
-        <v>243</v>
+        <v>1153</v>
       </c>
       <c r="C277" s="2">
-        <v>2676</v>
+        <v>58</v>
       </c>
       <c r="D277" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E277" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="F277" t="s">
-        <v>314</v>
+        <v>397</v>
       </c>
       <c r="G277" t="s">
-        <v>564</v>
+        <v>157</v>
       </c>
       <c r="H277" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="I277" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="J277" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
@@ -12314,31 +12128,31 @@
         <v>864</v>
       </c>
       <c r="B278" s="2">
-        <v>246</v>
+        <v>1274</v>
       </c>
       <c r="C278" s="2">
-        <v>2679</v>
+        <v>1461</v>
       </c>
       <c r="D278" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E278" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F278" t="s">
-        <v>314</v>
+        <v>404</v>
       </c>
       <c r="G278" t="s">
-        <v>564</v>
+        <v>160</v>
       </c>
       <c r="H278" t="s">
-        <v>582</v>
+        <v>656</v>
       </c>
       <c r="I278" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="J278" t="s">
-        <v>773</v>
+        <v>865</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.2">
@@ -12346,31 +12160,31 @@
         <v>864</v>
       </c>
       <c r="B279" s="2">
-        <v>353</v>
+        <v>1319</v>
       </c>
       <c r="C279" s="2">
-        <v>828</v>
+        <v>4205</v>
       </c>
       <c r="D279" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E279" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F279" t="s">
-        <v>333</v>
+        <v>404</v>
       </c>
       <c r="G279" t="s">
-        <v>563</v>
+        <v>160</v>
       </c>
       <c r="H279" t="s">
-        <v>623</v>
+        <v>870</v>
       </c>
       <c r="I279" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="J279" t="s">
-        <v>866</v>
+        <v>812</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
@@ -12378,31 +12192,31 @@
         <v>864</v>
       </c>
       <c r="B280" s="2">
-        <v>366</v>
+        <v>1704</v>
       </c>
       <c r="C280" s="2">
-        <v>841</v>
+        <v>1374</v>
       </c>
       <c r="D280" t="s">
         <v>10</v>
       </c>
       <c r="E280" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F280" t="s">
-        <v>333</v>
+        <v>417</v>
       </c>
       <c r="G280" t="s">
-        <v>563</v>
+        <v>160</v>
       </c>
       <c r="H280" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I280" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="J280" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.2">
@@ -12410,31 +12224,31 @@
         <v>864</v>
       </c>
       <c r="B281" s="2">
-        <v>406</v>
+        <v>1786</v>
       </c>
       <c r="C281" s="2">
-        <v>3473</v>
+        <v>645</v>
       </c>
       <c r="D281" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E281" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="F281" t="s">
-        <v>333</v>
+        <v>424</v>
       </c>
       <c r="G281" t="s">
-        <v>563</v>
+        <v>158</v>
       </c>
       <c r="H281" t="s">
-        <v>874</v>
+        <v>670</v>
       </c>
       <c r="I281" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="J281" t="s">
-        <v>273</v>
+        <v>865</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
@@ -12442,31 +12256,31 @@
         <v>864</v>
       </c>
       <c r="B282" s="2">
-        <v>412</v>
+        <v>2193</v>
       </c>
       <c r="C282" s="2">
-        <v>3479</v>
+        <v>2813</v>
       </c>
       <c r="D282" t="s">
         <v>22</v>
       </c>
       <c r="E282" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F282" t="s">
-        <v>333</v>
+        <v>431</v>
       </c>
       <c r="G282" t="s">
-        <v>563</v>
+        <v>157</v>
       </c>
       <c r="H282" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="I282" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="J282" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
@@ -12474,31 +12288,31 @@
         <v>864</v>
       </c>
       <c r="B283" s="2">
-        <v>425</v>
+        <v>2194</v>
       </c>
       <c r="C283" s="2">
-        <v>3492</v>
+        <v>2814</v>
       </c>
       <c r="D283" t="s">
         <v>22</v>
       </c>
       <c r="E283" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F283" t="s">
-        <v>333</v>
+        <v>431</v>
       </c>
       <c r="G283" t="s">
-        <v>563</v>
+        <v>157</v>
       </c>
       <c r="H283" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="I283" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="J283" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
@@ -12506,31 +12320,31 @@
         <v>864</v>
       </c>
       <c r="B284" s="2">
-        <v>428</v>
+        <v>2200</v>
       </c>
       <c r="C284" s="2">
-        <v>3495</v>
+        <v>2820</v>
       </c>
       <c r="D284" t="s">
         <v>22</v>
       </c>
       <c r="E284" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F284" t="s">
-        <v>333</v>
+        <v>431</v>
       </c>
       <c r="G284" t="s">
-        <v>563</v>
+        <v>157</v>
       </c>
       <c r="H284" t="s">
-        <v>879</v>
+        <v>676</v>
       </c>
       <c r="I284" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="J284" t="s">
-        <v>778</v>
+        <v>288</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.2">
@@ -12538,31 +12352,31 @@
         <v>864</v>
       </c>
       <c r="B285" s="2">
-        <v>511</v>
+        <v>2207</v>
       </c>
       <c r="C285" s="2">
-        <v>22</v>
+        <v>2827</v>
       </c>
       <c r="D285" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E285" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F285" t="s">
-        <v>348</v>
+        <v>431</v>
       </c>
       <c r="G285" t="s">
-        <v>564</v>
+        <v>157</v>
       </c>
       <c r="H285" t="s">
-        <v>611</v>
+        <v>876</v>
       </c>
       <c r="I285" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="J285" t="s">
-        <v>866</v>
+        <v>877</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.2">
@@ -12570,31 +12384,31 @@
         <v>864</v>
       </c>
       <c r="B286" s="2">
-        <v>573</v>
+        <v>2659</v>
       </c>
       <c r="C286" s="2">
-        <v>235</v>
+        <v>2781</v>
       </c>
       <c r="D286" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E286" t="s">
         <v>306</v>
       </c>
       <c r="F286" t="s">
-        <v>355</v>
+        <v>445</v>
       </c>
       <c r="G286" t="s">
         <v>157</v>
       </c>
       <c r="H286" t="s">
-        <v>617</v>
+        <v>879</v>
       </c>
       <c r="I286" t="s">
         <v>762</v>
       </c>
       <c r="J286" t="s">
-        <v>866</v>
+        <v>880</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.2">
@@ -12602,10 +12416,10 @@
         <v>864</v>
       </c>
       <c r="B287" s="2">
-        <v>628</v>
+        <v>2663</v>
       </c>
       <c r="C287" s="2">
-        <v>2752</v>
+        <v>2785</v>
       </c>
       <c r="D287" t="s">
         <v>22</v>
@@ -12614,19 +12428,19 @@
         <v>306</v>
       </c>
       <c r="F287" t="s">
-        <v>355</v>
+        <v>445</v>
       </c>
       <c r="G287" t="s">
         <v>157</v>
       </c>
       <c r="H287" t="s">
-        <v>616</v>
+        <v>881</v>
       </c>
       <c r="I287" t="s">
         <v>762</v>
       </c>
       <c r="J287" t="s">
-        <v>784</v>
+        <v>882</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
@@ -12634,31 +12448,31 @@
         <v>864</v>
       </c>
       <c r="B288" s="2">
-        <v>771</v>
+        <v>2761</v>
       </c>
       <c r="C288" s="2">
-        <v>816</v>
+        <v>1382</v>
       </c>
       <c r="D288" t="s">
         <v>10</v>
       </c>
       <c r="E288" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F288" t="s">
-        <v>369</v>
+        <v>452</v>
       </c>
       <c r="G288" t="s">
-        <v>563</v>
+        <v>160</v>
       </c>
       <c r="H288" t="s">
-        <v>880</v>
+        <v>692</v>
       </c>
       <c r="I288" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="J288" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
@@ -12666,31 +12480,31 @@
         <v>864</v>
       </c>
       <c r="B289" s="2">
-        <v>803</v>
+        <v>2811</v>
       </c>
       <c r="C289" s="2">
-        <v>3459</v>
+        <v>4155</v>
       </c>
       <c r="D289" t="s">
         <v>22</v>
       </c>
       <c r="E289" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F289" t="s">
-        <v>369</v>
+        <v>452</v>
       </c>
       <c r="G289" t="s">
-        <v>563</v>
+        <v>160</v>
       </c>
       <c r="H289" t="s">
-        <v>881</v>
+        <v>693</v>
       </c>
       <c r="I289" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="J289" t="s">
-        <v>882</v>
+        <v>806</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.2">
@@ -12698,31 +12512,31 @@
         <v>864</v>
       </c>
       <c r="B290" s="2">
-        <v>971</v>
+        <v>2878</v>
       </c>
       <c r="C290" s="2">
-        <v>1592</v>
+        <v>4226</v>
       </c>
       <c r="D290" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E290" t="s">
         <v>306</v>
       </c>
       <c r="F290" t="s">
-        <v>376</v>
+        <v>459</v>
       </c>
       <c r="G290" t="s">
         <v>160</v>
       </c>
       <c r="H290" t="s">
-        <v>633</v>
+        <v>883</v>
       </c>
       <c r="I290" t="s">
         <v>762</v>
       </c>
       <c r="J290" t="s">
-        <v>866</v>
+        <v>884</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
@@ -12730,31 +12544,31 @@
         <v>864</v>
       </c>
       <c r="B291" s="2">
-        <v>972</v>
+        <v>2888</v>
       </c>
       <c r="C291" s="2">
-        <v>1593</v>
+        <v>4236</v>
       </c>
       <c r="D291" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E291" t="s">
         <v>306</v>
       </c>
       <c r="F291" t="s">
-        <v>376</v>
+        <v>459</v>
       </c>
       <c r="G291" t="s">
         <v>160</v>
       </c>
       <c r="H291" t="s">
-        <v>635</v>
+        <v>885</v>
       </c>
       <c r="I291" t="s">
         <v>762</v>
       </c>
       <c r="J291" t="s">
-        <v>866</v>
+        <v>795</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
@@ -12762,31 +12576,31 @@
         <v>864</v>
       </c>
       <c r="B292" s="2">
-        <v>1075</v>
+        <v>3183</v>
       </c>
       <c r="C292" s="2">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="D292" t="s">
         <v>10</v>
       </c>
       <c r="E292" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="F292" t="s">
-        <v>390</v>
+        <v>550</v>
       </c>
       <c r="G292" t="s">
-        <v>564</v>
+        <v>157</v>
       </c>
       <c r="H292" t="s">
-        <v>883</v>
+        <v>671</v>
       </c>
       <c r="I292" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="J292" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
@@ -12794,31 +12608,31 @@
         <v>864</v>
       </c>
       <c r="B293" s="2">
-        <v>1101</v>
+        <v>3194</v>
       </c>
       <c r="C293" s="2">
-        <v>3032</v>
+        <v>216</v>
       </c>
       <c r="D293" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E293" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="F293" t="s">
-        <v>390</v>
+        <v>550</v>
       </c>
       <c r="G293" t="s">
-        <v>564</v>
+        <v>157</v>
       </c>
       <c r="H293" t="s">
-        <v>644</v>
+        <v>602</v>
       </c>
       <c r="I293" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="J293" t="s">
-        <v>792</v>
+        <v>865</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
@@ -12826,10 +12640,10 @@
         <v>864</v>
       </c>
       <c r="B294" s="2">
-        <v>1129</v>
+        <v>3198</v>
       </c>
       <c r="C294" s="2">
-        <v>34</v>
+        <v>220</v>
       </c>
       <c r="D294" t="s">
         <v>10</v>
@@ -12838,19 +12652,19 @@
         <v>340</v>
       </c>
       <c r="F294" t="s">
-        <v>397</v>
+        <v>550</v>
       </c>
       <c r="G294" t="s">
         <v>157</v>
       </c>
       <c r="H294" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="I294" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="J294" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
@@ -12858,31 +12672,31 @@
         <v>864</v>
       </c>
       <c r="B295" s="2">
-        <v>1131</v>
+        <v>3219</v>
       </c>
       <c r="C295" s="2">
-        <v>36</v>
+        <v>2729</v>
       </c>
       <c r="D295" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E295" t="s">
         <v>340</v>
       </c>
       <c r="F295" t="s">
-        <v>397</v>
+        <v>550</v>
       </c>
       <c r="G295" t="s">
         <v>157</v>
       </c>
       <c r="H295" t="s">
-        <v>652</v>
+        <v>887</v>
       </c>
       <c r="I295" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="J295" t="s">
-        <v>866</v>
+        <v>829</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
@@ -12890,31 +12704,31 @@
         <v>864</v>
       </c>
       <c r="B296" s="2">
-        <v>1153</v>
+        <v>3254</v>
       </c>
       <c r="C296" s="2">
-        <v>58</v>
+        <v>1177</v>
       </c>
       <c r="D296" t="s">
         <v>10</v>
       </c>
       <c r="E296" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="F296" t="s">
-        <v>397</v>
+        <v>466</v>
       </c>
       <c r="G296" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H296" t="s">
-        <v>885</v>
+        <v>702</v>
       </c>
       <c r="I296" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="J296" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
@@ -12922,10 +12736,10 @@
         <v>864</v>
       </c>
       <c r="B297" s="2">
-        <v>1274</v>
+        <v>3255</v>
       </c>
       <c r="C297" s="2">
-        <v>1461</v>
+        <v>1178</v>
       </c>
       <c r="D297" t="s">
         <v>10</v>
@@ -12934,19 +12748,19 @@
         <v>306</v>
       </c>
       <c r="F297" t="s">
-        <v>404</v>
+        <v>466</v>
       </c>
       <c r="G297" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H297" t="s">
-        <v>656</v>
+        <v>888</v>
       </c>
       <c r="I297" t="s">
         <v>762</v>
       </c>
       <c r="J297" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.2">
@@ -12954,10 +12768,10 @@
         <v>864</v>
       </c>
       <c r="B298" s="2">
-        <v>1319</v>
+        <v>3875</v>
       </c>
       <c r="C298" s="2">
-        <v>4205</v>
+        <v>3670</v>
       </c>
       <c r="D298" t="s">
         <v>22</v>
@@ -12966,19 +12780,19 @@
         <v>306</v>
       </c>
       <c r="F298" t="s">
-        <v>404</v>
+        <v>473</v>
       </c>
       <c r="G298" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H298" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="I298" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="J298" t="s">
-        <v>812</v>
+        <v>890</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
@@ -12986,31 +12800,31 @@
         <v>864</v>
       </c>
       <c r="B299" s="2">
-        <v>1704</v>
+        <v>4091</v>
       </c>
       <c r="C299" s="2">
-        <v>1374</v>
+        <v>3710</v>
       </c>
       <c r="D299" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E299" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="F299" t="s">
-        <v>417</v>
+        <v>494</v>
       </c>
       <c r="G299" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H299" t="s">
-        <v>887</v>
+        <v>720</v>
       </c>
       <c r="I299" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="J299" t="s">
-        <v>866</v>
+        <v>287</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
@@ -13018,31 +12832,31 @@
         <v>864</v>
       </c>
       <c r="B300" s="2">
-        <v>1786</v>
+        <v>136</v>
       </c>
       <c r="C300" s="2">
-        <v>645</v>
+        <v>1320</v>
       </c>
       <c r="D300" t="s">
         <v>10</v>
       </c>
       <c r="E300" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="F300" t="s">
-        <v>424</v>
+        <v>307</v>
       </c>
       <c r="G300" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H300" t="s">
-        <v>670</v>
+        <v>892</v>
       </c>
       <c r="I300" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="J300" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.2">
@@ -13050,31 +12864,31 @@
         <v>864</v>
       </c>
       <c r="B301" s="2">
-        <v>2193</v>
+        <v>443</v>
       </c>
       <c r="C301" s="2">
-        <v>2813</v>
+        <v>1146</v>
       </c>
       <c r="D301" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E301" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="F301" t="s">
-        <v>431</v>
+        <v>341</v>
       </c>
       <c r="G301" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H301" t="s">
-        <v>888</v>
+        <v>602</v>
       </c>
       <c r="I301" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="J301" t="s">
-        <v>889</v>
+        <v>865</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
@@ -13082,31 +12896,31 @@
         <v>864</v>
       </c>
       <c r="B302" s="2">
-        <v>2194</v>
+        <v>449</v>
       </c>
       <c r="C302" s="2">
-        <v>2814</v>
+        <v>1153</v>
       </c>
       <c r="D302" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E302" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="F302" t="s">
-        <v>431</v>
+        <v>341</v>
       </c>
       <c r="G302" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H302" t="s">
-        <v>890</v>
+        <v>601</v>
       </c>
       <c r="I302" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="J302" t="s">
-        <v>891</v>
+        <v>865</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
@@ -13114,31 +12928,31 @@
         <v>864</v>
       </c>
       <c r="B303" s="2">
-        <v>2200</v>
+        <v>940</v>
       </c>
       <c r="C303" s="2">
-        <v>2820</v>
+        <v>1561</v>
       </c>
       <c r="D303" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E303" t="s">
         <v>306</v>
       </c>
       <c r="F303" t="s">
-        <v>431</v>
+        <v>376</v>
       </c>
       <c r="G303" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H303" t="s">
-        <v>676</v>
+        <v>699</v>
       </c>
       <c r="I303" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="J303" t="s">
-        <v>288</v>
+        <v>865</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.2">
@@ -13146,31 +12960,31 @@
         <v>864</v>
       </c>
       <c r="B304" s="2">
-        <v>2207</v>
+        <v>963</v>
       </c>
       <c r="C304" s="2">
-        <v>2827</v>
+        <v>1584</v>
       </c>
       <c r="D304" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E304" t="s">
         <v>306</v>
       </c>
       <c r="F304" t="s">
-        <v>431</v>
+        <v>376</v>
       </c>
       <c r="G304" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H304" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="I304" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="J304" t="s">
-        <v>893</v>
+        <v>865</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
@@ -13178,31 +12992,31 @@
         <v>864</v>
       </c>
       <c r="B305" s="2">
-        <v>2266</v>
+        <v>964</v>
       </c>
       <c r="C305" s="2">
-        <v>3053</v>
+        <v>1585</v>
       </c>
       <c r="D305" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E305" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F305" t="s">
-        <v>529</v>
+        <v>376</v>
       </c>
       <c r="G305" t="s">
-        <v>565</v>
+        <v>160</v>
       </c>
       <c r="H305" t="s">
-        <v>741</v>
+        <v>894</v>
       </c>
       <c r="I305" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="J305" t="s">
-        <v>826</v>
+        <v>865</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.2">
@@ -13210,31 +13024,31 @@
         <v>864</v>
       </c>
       <c r="B306" s="2">
-        <v>2269</v>
+        <v>975</v>
       </c>
       <c r="C306" s="2">
-        <v>3056</v>
+        <v>1596</v>
       </c>
       <c r="D306" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E306" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F306" t="s">
-        <v>529</v>
+        <v>376</v>
       </c>
       <c r="G306" t="s">
-        <v>565</v>
+        <v>160</v>
       </c>
       <c r="H306" t="s">
-        <v>739</v>
+        <v>895</v>
       </c>
       <c r="I306" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="J306" t="s">
-        <v>770</v>
+        <v>865</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
@@ -13242,31 +13056,31 @@
         <v>864</v>
       </c>
       <c r="B307" s="2">
-        <v>2473</v>
+        <v>984</v>
       </c>
       <c r="C307" s="2">
-        <v>950</v>
+        <v>4248</v>
       </c>
       <c r="D307" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E307" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F307" t="s">
-        <v>536</v>
+        <v>376</v>
       </c>
       <c r="G307" t="s">
-        <v>563</v>
+        <v>160</v>
       </c>
       <c r="H307" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I307" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="J307" t="s">
-        <v>866</v>
+        <v>772</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.2">
@@ -13274,31 +13088,31 @@
         <v>864</v>
       </c>
       <c r="B308" s="2">
-        <v>2493</v>
+        <v>988</v>
       </c>
       <c r="C308" s="2">
-        <v>970</v>
+        <v>4252</v>
       </c>
       <c r="D308" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E308" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F308" t="s">
-        <v>536</v>
+        <v>376</v>
       </c>
       <c r="G308" t="s">
-        <v>563</v>
+        <v>160</v>
       </c>
       <c r="H308" t="s">
-        <v>870</v>
+        <v>632</v>
       </c>
       <c r="I308" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="J308" t="s">
-        <v>866</v>
+        <v>772</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.2">
@@ -13306,31 +13120,31 @@
         <v>864</v>
       </c>
       <c r="B309" s="2">
-        <v>2549</v>
+        <v>1011</v>
       </c>
       <c r="C309" s="2">
-        <v>593</v>
+        <v>1331</v>
       </c>
       <c r="D309" t="s">
         <v>10</v>
       </c>
       <c r="E309" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F309" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="G309" t="s">
-        <v>565</v>
+        <v>160</v>
       </c>
       <c r="H309" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
       <c r="I309" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="J309" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.2">
@@ -13338,31 +13152,31 @@
         <v>864</v>
       </c>
       <c r="B310" s="2">
-        <v>2556</v>
+        <v>1040</v>
       </c>
       <c r="C310" s="2">
-        <v>600</v>
+        <v>4073</v>
       </c>
       <c r="D310" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E310" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F310" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="G310" t="s">
-        <v>565</v>
+        <v>160</v>
       </c>
       <c r="H310" t="s">
-        <v>736</v>
+        <v>636</v>
       </c>
       <c r="I310" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="J310" t="s">
-        <v>866</v>
+        <v>788</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.2">
@@ -13370,31 +13184,31 @@
         <v>864</v>
       </c>
       <c r="B311" s="2">
-        <v>2558</v>
+        <v>1045</v>
       </c>
       <c r="C311" s="2">
-        <v>602</v>
+        <v>4078</v>
       </c>
       <c r="D311" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E311" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F311" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="G311" t="s">
-        <v>565</v>
+        <v>160</v>
       </c>
       <c r="H311" t="s">
-        <v>897</v>
+        <v>638</v>
       </c>
       <c r="I311" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="J311" t="s">
-        <v>866</v>
+        <v>789</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
@@ -13402,31 +13216,31 @@
         <v>864</v>
       </c>
       <c r="B312" s="2">
-        <v>2587</v>
+        <v>1048</v>
       </c>
       <c r="C312" s="2">
-        <v>3185</v>
+        <v>4081</v>
       </c>
       <c r="D312" t="s">
         <v>22</v>
       </c>
       <c r="E312" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F312" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="G312" t="s">
-        <v>565</v>
+        <v>160</v>
       </c>
       <c r="H312" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="I312" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="J312" t="s">
-        <v>899</v>
+        <v>799</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.2">
@@ -13434,31 +13248,31 @@
         <v>864</v>
       </c>
       <c r="B313" s="2">
-        <v>2659</v>
+        <v>1124</v>
       </c>
       <c r="C313" s="2">
-        <v>2781</v>
+        <v>29</v>
       </c>
       <c r="D313" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E313" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="F313" t="s">
-        <v>445</v>
+        <v>397</v>
       </c>
       <c r="G313" t="s">
         <v>157</v>
       </c>
       <c r="H313" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="I313" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="J313" t="s">
-        <v>901</v>
+        <v>865</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
@@ -13466,31 +13280,31 @@
         <v>864</v>
       </c>
       <c r="B314" s="2">
-        <v>2663</v>
+        <v>1135</v>
       </c>
       <c r="C314" s="2">
-        <v>2785</v>
+        <v>40</v>
       </c>
       <c r="D314" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E314" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="F314" t="s">
-        <v>445</v>
+        <v>397</v>
       </c>
       <c r="G314" t="s">
         <v>157</v>
       </c>
       <c r="H314" t="s">
-        <v>902</v>
+        <v>647</v>
       </c>
       <c r="I314" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="J314" t="s">
-        <v>903</v>
+        <v>865</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.2">
@@ -13498,31 +13312,31 @@
         <v>864</v>
       </c>
       <c r="B315" s="2">
-        <v>2687</v>
+        <v>1148</v>
       </c>
       <c r="C315" s="2">
-        <v>2544</v>
+        <v>53</v>
       </c>
       <c r="D315" t="s">
         <v>10</v>
       </c>
       <c r="E315" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="F315" t="s">
-        <v>543</v>
+        <v>397</v>
       </c>
       <c r="G315" t="s">
-        <v>563</v>
+        <v>157</v>
       </c>
       <c r="H315" t="s">
-        <v>729</v>
+        <v>899</v>
       </c>
       <c r="I315" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="J315" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
@@ -13530,31 +13344,31 @@
         <v>864</v>
       </c>
       <c r="B316" s="2">
-        <v>2722</v>
+        <v>1252</v>
       </c>
       <c r="C316" s="2">
-        <v>2546</v>
+        <v>1439</v>
       </c>
       <c r="D316" t="s">
         <v>10</v>
       </c>
       <c r="E316" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F316" t="s">
-        <v>543</v>
+        <v>404</v>
       </c>
       <c r="G316" t="s">
-        <v>563</v>
+        <v>160</v>
       </c>
       <c r="H316" t="s">
-        <v>658</v>
+        <v>900</v>
       </c>
       <c r="I316" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="J316" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.2">
@@ -13562,10 +13376,10 @@
         <v>864</v>
       </c>
       <c r="B317" s="2">
-        <v>2761</v>
+        <v>1297</v>
       </c>
       <c r="C317" s="2">
-        <v>1382</v>
+        <v>1484</v>
       </c>
       <c r="D317" t="s">
         <v>10</v>
@@ -13574,19 +13388,19 @@
         <v>306</v>
       </c>
       <c r="F317" t="s">
-        <v>452</v>
+        <v>404</v>
       </c>
       <c r="G317" t="s">
         <v>160</v>
       </c>
       <c r="H317" t="s">
-        <v>692</v>
+        <v>895</v>
       </c>
       <c r="I317" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="J317" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.2">
@@ -13594,10 +13408,10 @@
         <v>864</v>
       </c>
       <c r="B318" s="2">
-        <v>2811</v>
+        <v>1306</v>
       </c>
       <c r="C318" s="2">
-        <v>4155</v>
+        <v>4192</v>
       </c>
       <c r="D318" t="s">
         <v>22</v>
@@ -13606,19 +13420,19 @@
         <v>306</v>
       </c>
       <c r="F318" t="s">
-        <v>452</v>
+        <v>404</v>
       </c>
       <c r="G318" t="s">
         <v>160</v>
       </c>
       <c r="H318" t="s">
-        <v>693</v>
+        <v>901</v>
       </c>
       <c r="I318" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="J318" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.2">
@@ -13626,10 +13440,10 @@
         <v>864</v>
       </c>
       <c r="B319" s="2">
-        <v>2878</v>
+        <v>1312</v>
       </c>
       <c r="C319" s="2">
-        <v>4226</v>
+        <v>4198</v>
       </c>
       <c r="D319" t="s">
         <v>22</v>
@@ -13638,19 +13452,19 @@
         <v>306</v>
       </c>
       <c r="F319" t="s">
-        <v>459</v>
+        <v>404</v>
       </c>
       <c r="G319" t="s">
         <v>160</v>
       </c>
       <c r="H319" t="s">
-        <v>904</v>
+        <v>653</v>
       </c>
       <c r="I319" t="s">
         <v>762</v>
       </c>
       <c r="J319" t="s">
-        <v>905</v>
+        <v>795</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.2">
@@ -13658,10 +13472,10 @@
         <v>864</v>
       </c>
       <c r="B320" s="2">
-        <v>2888</v>
+        <v>1316</v>
       </c>
       <c r="C320" s="2">
-        <v>4236</v>
+        <v>4202</v>
       </c>
       <c r="D320" t="s">
         <v>22</v>
@@ -13670,13 +13484,13 @@
         <v>306</v>
       </c>
       <c r="F320" t="s">
-        <v>459</v>
+        <v>404</v>
       </c>
       <c r="G320" t="s">
         <v>160</v>
       </c>
       <c r="H320" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="I320" t="s">
         <v>762</v>
@@ -13690,31 +13504,31 @@
         <v>864</v>
       </c>
       <c r="B321" s="2">
-        <v>3183</v>
+        <v>1723</v>
       </c>
       <c r="C321" s="2">
-        <v>205</v>
+        <v>4111</v>
       </c>
       <c r="D321" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E321" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="F321" t="s">
-        <v>550</v>
+        <v>417</v>
       </c>
       <c r="G321" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H321" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="I321" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="J321" t="s">
-        <v>866</v>
+        <v>796</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.2">
@@ -13722,31 +13536,31 @@
         <v>864</v>
       </c>
       <c r="B322" s="2">
-        <v>3194</v>
+        <v>1729</v>
       </c>
       <c r="C322" s="2">
-        <v>216</v>
+        <v>4117</v>
       </c>
       <c r="D322" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E322" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="F322" t="s">
-        <v>550</v>
+        <v>417</v>
       </c>
       <c r="G322" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H322" t="s">
-        <v>602</v>
+        <v>903</v>
       </c>
       <c r="I322" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="J322" t="s">
-        <v>866</v>
+        <v>904</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.2">
@@ -13754,10 +13568,10 @@
         <v>864</v>
       </c>
       <c r="B323" s="2">
-        <v>3198</v>
+        <v>1789</v>
       </c>
       <c r="C323" s="2">
-        <v>220</v>
+        <v>648</v>
       </c>
       <c r="D323" t="s">
         <v>10</v>
@@ -13766,19 +13580,19 @@
         <v>340</v>
       </c>
       <c r="F323" t="s">
-        <v>550</v>
+        <v>424</v>
       </c>
       <c r="G323" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H323" t="s">
-        <v>907</v>
+        <v>668</v>
       </c>
       <c r="I323" t="s">
         <v>761</v>
       </c>
       <c r="J323" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.2">
@@ -13786,31 +13600,31 @@
         <v>864</v>
       </c>
       <c r="B324" s="2">
-        <v>3219</v>
+        <v>2182</v>
       </c>
       <c r="C324" s="2">
-        <v>2729</v>
+        <v>345</v>
       </c>
       <c r="D324" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E324" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="F324" t="s">
-        <v>550</v>
+        <v>431</v>
       </c>
       <c r="G324" t="s">
         <v>157</v>
       </c>
       <c r="H324" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="I324" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="J324" t="s">
-        <v>829</v>
+        <v>865</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.2">
@@ -13818,10 +13632,10 @@
         <v>864</v>
       </c>
       <c r="B325" s="2">
-        <v>3254</v>
+        <v>2633</v>
       </c>
       <c r="C325" s="2">
-        <v>1177</v>
+        <v>319</v>
       </c>
       <c r="D325" t="s">
         <v>10</v>
@@ -13830,19 +13644,19 @@
         <v>306</v>
       </c>
       <c r="F325" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="G325" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H325" t="s">
-        <v>702</v>
+        <v>906</v>
       </c>
       <c r="I325" t="s">
         <v>762</v>
       </c>
       <c r="J325" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.2">
@@ -13850,10 +13664,10 @@
         <v>864</v>
       </c>
       <c r="B326" s="2">
-        <v>3255</v>
+        <v>2763</v>
       </c>
       <c r="C326" s="2">
-        <v>1178</v>
+        <v>1384</v>
       </c>
       <c r="D326" t="s">
         <v>10</v>
@@ -13862,19 +13676,19 @@
         <v>306</v>
       </c>
       <c r="F326" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="G326" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H326" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="I326" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="J326" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
@@ -13882,31 +13696,31 @@
         <v>864</v>
       </c>
       <c r="B327" s="2">
-        <v>3875</v>
+        <v>2770</v>
       </c>
       <c r="C327" s="2">
-        <v>3670</v>
+        <v>1391</v>
       </c>
       <c r="D327" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E327" t="s">
         <v>306</v>
       </c>
       <c r="F327" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="G327" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H327" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="I327" t="s">
         <v>757</v>
       </c>
       <c r="J327" t="s">
-        <v>911</v>
+        <v>865</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.2">
@@ -13914,31 +13728,31 @@
         <v>864</v>
       </c>
       <c r="B328" s="2">
-        <v>3951</v>
+        <v>2794</v>
       </c>
       <c r="C328" s="2">
-        <v>463</v>
+        <v>4138</v>
       </c>
       <c r="D328" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E328" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F328" t="s">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="G328" t="s">
-        <v>565</v>
+        <v>160</v>
       </c>
       <c r="H328" t="s">
-        <v>567</v>
+        <v>909</v>
       </c>
       <c r="I328" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="J328" t="s">
-        <v>866</v>
+        <v>877</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
@@ -13946,31 +13760,31 @@
         <v>864</v>
       </c>
       <c r="B329" s="2">
-        <v>3974</v>
+        <v>2820</v>
       </c>
       <c r="C329" s="2">
-        <v>3079</v>
+        <v>1495</v>
       </c>
       <c r="D329" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E329" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F329" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="G329" t="s">
-        <v>565</v>
+        <v>160</v>
       </c>
       <c r="H329" t="s">
-        <v>627</v>
+        <v>900</v>
       </c>
       <c r="I329" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="J329" t="s">
-        <v>786</v>
+        <v>865</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.2">
@@ -13978,31 +13792,31 @@
         <v>864</v>
       </c>
       <c r="B330" s="2">
-        <v>4091</v>
+        <v>2834</v>
       </c>
       <c r="C330" s="2">
-        <v>3710</v>
+        <v>1509</v>
       </c>
       <c r="D330" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E330" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="F330" t="s">
-        <v>494</v>
+        <v>459</v>
       </c>
       <c r="G330" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H330" t="s">
-        <v>720</v>
+        <v>694</v>
       </c>
       <c r="I330" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="J330" t="s">
-        <v>287</v>
+        <v>865</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
@@ -14010,31 +13824,31 @@
         <v>864</v>
       </c>
       <c r="B331" s="2">
-        <v>4135</v>
+        <v>2841</v>
       </c>
       <c r="C331" s="2">
-        <v>544</v>
+        <v>1516</v>
       </c>
       <c r="D331" t="s">
         <v>10</v>
       </c>
       <c r="E331" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F331" t="s">
-        <v>501</v>
+        <v>459</v>
       </c>
       <c r="G331" t="s">
-        <v>565</v>
+        <v>160</v>
       </c>
       <c r="H331" t="s">
-        <v>682</v>
+        <v>910</v>
       </c>
       <c r="I331" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="J331" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
@@ -14042,31 +13856,31 @@
         <v>864</v>
       </c>
       <c r="B332" s="2">
-        <v>4206</v>
+        <v>2879</v>
       </c>
       <c r="C332" s="2">
-        <v>989</v>
+        <v>4227</v>
       </c>
       <c r="D332" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E332" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F332" t="s">
-        <v>508</v>
+        <v>459</v>
       </c>
       <c r="G332" t="s">
-        <v>563</v>
+        <v>160</v>
       </c>
       <c r="H332" t="s">
-        <v>727</v>
+        <v>911</v>
       </c>
       <c r="I332" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="J332" t="s">
-        <v>866</v>
+        <v>912</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
@@ -14074,31 +13888,31 @@
         <v>864</v>
       </c>
       <c r="B333" s="2">
-        <v>4245</v>
+        <v>2889</v>
       </c>
       <c r="C333" s="2">
-        <v>3572</v>
+        <v>4324</v>
       </c>
       <c r="D333" t="s">
         <v>22</v>
       </c>
       <c r="E333" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F333" t="s">
-        <v>508</v>
+        <v>459</v>
       </c>
       <c r="G333" t="s">
-        <v>563</v>
+        <v>160</v>
       </c>
       <c r="H333" t="s">
-        <v>728</v>
+        <v>913</v>
       </c>
       <c r="I333" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="J333" t="s">
-        <v>823</v>
+        <v>914</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.2">
@@ -14106,31 +13920,31 @@
         <v>864</v>
       </c>
       <c r="B334" s="2">
-        <v>4282</v>
+        <v>2900</v>
       </c>
       <c r="C334" s="2">
-        <v>503</v>
+        <v>4245</v>
       </c>
       <c r="D334" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E334" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F334" t="s">
-        <v>515</v>
+        <v>459</v>
       </c>
       <c r="G334" t="s">
-        <v>565</v>
+        <v>160</v>
       </c>
       <c r="H334" t="s">
-        <v>723</v>
+        <v>915</v>
       </c>
       <c r="I334" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="J334" t="s">
-        <v>866</v>
+        <v>916</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.2">
@@ -14138,31 +13952,31 @@
         <v>864</v>
       </c>
       <c r="B335" s="2">
-        <v>4285</v>
+        <v>3253</v>
       </c>
       <c r="C335" s="2">
-        <v>506</v>
+        <v>1176</v>
       </c>
       <c r="D335" t="s">
         <v>10</v>
       </c>
       <c r="E335" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F335" t="s">
-        <v>515</v>
+        <v>466</v>
       </c>
       <c r="G335" t="s">
-        <v>565</v>
+        <v>159</v>
       </c>
       <c r="H335" t="s">
-        <v>567</v>
+        <v>699</v>
       </c>
       <c r="I335" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="J335" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
@@ -14170,31 +13984,31 @@
         <v>864</v>
       </c>
       <c r="B336" s="2">
-        <v>18</v>
+        <v>3832</v>
       </c>
       <c r="C336" s="2">
-        <v>1028</v>
+        <v>1082</v>
       </c>
       <c r="D336" t="s">
         <v>10</v>
       </c>
       <c r="E336" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F336" t="s">
-        <v>299</v>
+        <v>473</v>
       </c>
       <c r="G336" t="s">
-        <v>563</v>
+        <v>159</v>
       </c>
       <c r="H336" t="s">
-        <v>567</v>
+        <v>692</v>
       </c>
       <c r="I336" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="J336" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
@@ -14202,31 +14016,31 @@
         <v>864</v>
       </c>
       <c r="B337" s="2">
-        <v>81</v>
+        <v>3843</v>
       </c>
       <c r="C337" s="2">
-        <v>1295</v>
+        <v>1093</v>
       </c>
       <c r="D337" t="s">
         <v>10</v>
       </c>
       <c r="E337" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F337" t="s">
-        <v>522</v>
+        <v>473</v>
       </c>
       <c r="G337" t="s">
-        <v>566</v>
+        <v>159</v>
       </c>
       <c r="H337" t="s">
-        <v>913</v>
+        <v>637</v>
       </c>
       <c r="I337" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="J337" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.2">
@@ -14234,31 +14048,31 @@
         <v>864</v>
       </c>
       <c r="B338" s="2">
-        <v>82</v>
+        <v>3848</v>
       </c>
       <c r="C338" s="2">
-        <v>1296</v>
+        <v>1098</v>
       </c>
       <c r="D338" t="s">
         <v>10</v>
       </c>
       <c r="E338" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F338" t="s">
-        <v>522</v>
+        <v>473</v>
       </c>
       <c r="G338" t="s">
-        <v>566</v>
+        <v>159</v>
       </c>
       <c r="H338" t="s">
-        <v>733</v>
+        <v>917</v>
       </c>
       <c r="I338" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="J338" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.2">
@@ -14266,31 +14080,31 @@
         <v>864</v>
       </c>
       <c r="B339" s="2">
-        <v>83</v>
+        <v>3864</v>
       </c>
       <c r="C339" s="2">
-        <v>1297</v>
+        <v>3659</v>
       </c>
       <c r="D339" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E339" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F339" t="s">
-        <v>522</v>
+        <v>473</v>
       </c>
       <c r="G339" t="s">
-        <v>566</v>
+        <v>159</v>
       </c>
       <c r="H339" t="s">
-        <v>734</v>
+        <v>918</v>
       </c>
       <c r="I339" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="J339" t="s">
-        <v>866</v>
+        <v>919</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
@@ -14298,31 +14112,31 @@
         <v>864</v>
       </c>
       <c r="B340" s="2">
-        <v>84</v>
+        <v>3872</v>
       </c>
       <c r="C340" s="2">
-        <v>1298</v>
+        <v>3667</v>
       </c>
       <c r="D340" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E340" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F340" t="s">
-        <v>522</v>
+        <v>473</v>
       </c>
       <c r="G340" t="s">
-        <v>566</v>
+        <v>159</v>
       </c>
       <c r="H340" t="s">
-        <v>914</v>
+        <v>705</v>
       </c>
       <c r="I340" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="J340" t="s">
-        <v>866</v>
+        <v>812</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
@@ -14330,31 +14144,31 @@
         <v>864</v>
       </c>
       <c r="B341" s="2">
-        <v>87</v>
+        <v>3874</v>
       </c>
       <c r="C341" s="2">
-        <v>1301</v>
+        <v>3669</v>
       </c>
       <c r="D341" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E341" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F341" t="s">
-        <v>522</v>
+        <v>473</v>
       </c>
       <c r="G341" t="s">
-        <v>566</v>
+        <v>159</v>
       </c>
       <c r="H341" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
       <c r="I341" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="J341" t="s">
-        <v>866</v>
+        <v>921</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
@@ -14362,31 +14176,31 @@
         <v>864</v>
       </c>
       <c r="B342" s="2">
-        <v>116</v>
+        <v>3879</v>
       </c>
       <c r="C342" s="2">
-        <v>4033</v>
+        <v>3674</v>
       </c>
       <c r="D342" t="s">
         <v>22</v>
       </c>
       <c r="E342" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F342" t="s">
-        <v>522</v>
+        <v>473</v>
       </c>
       <c r="G342" t="s">
-        <v>566</v>
+        <v>159</v>
       </c>
       <c r="H342" t="s">
-        <v>732</v>
+        <v>706</v>
       </c>
       <c r="I342" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="J342" t="s">
-        <v>270</v>
+        <v>813</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.2">
@@ -14394,31 +14208,31 @@
         <v>864</v>
       </c>
       <c r="B343" s="2">
-        <v>136</v>
+        <v>4059</v>
       </c>
       <c r="C343" s="2">
-        <v>1320</v>
+        <v>3316</v>
       </c>
       <c r="D343" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E343" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="F343" t="s">
-        <v>307</v>
+        <v>487</v>
       </c>
       <c r="G343" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H343" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="I343" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="J343" t="s">
-        <v>866</v>
+        <v>923</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.2">
@@ -14426,31 +14240,31 @@
         <v>864</v>
       </c>
       <c r="B344" s="2">
-        <v>193</v>
+        <v>4092</v>
       </c>
       <c r="C344" s="2">
-        <v>127</v>
+        <v>3711</v>
       </c>
       <c r="D344" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E344" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="F344" t="s">
-        <v>314</v>
+        <v>494</v>
       </c>
       <c r="G344" t="s">
-        <v>564</v>
+        <v>159</v>
       </c>
       <c r="H344" t="s">
-        <v>917</v>
+        <v>924</v>
       </c>
       <c r="I344" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="J344" t="s">
-        <v>866</v>
+        <v>925</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.2">
@@ -14458,31 +14272,31 @@
         <v>864</v>
       </c>
       <c r="B345" s="2">
-        <v>211</v>
-      </c>
-      <c r="C345" s="2">
-        <v>145</v>
+        <v>338</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>865</v>
       </c>
       <c r="D345" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E345" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F345" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="G345" t="s">
-        <v>564</v>
+        <v>159</v>
       </c>
       <c r="H345" t="s">
-        <v>581</v>
+        <v>926</v>
       </c>
       <c r="I345" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="J345" t="s">
-        <v>866</v>
+        <v>295</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.2">
@@ -14490,31 +14304,31 @@
         <v>864</v>
       </c>
       <c r="B346" s="2">
-        <v>229</v>
-      </c>
-      <c r="C346" s="2">
-        <v>2662</v>
+        <v>1687</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>865</v>
       </c>
       <c r="D346" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E346" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F346" t="s">
-        <v>314</v>
+        <v>417</v>
       </c>
       <c r="G346" t="s">
-        <v>564</v>
+        <v>160</v>
       </c>
       <c r="H346" t="s">
-        <v>918</v>
+        <v>692</v>
       </c>
       <c r="I346" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="J346" t="s">
-        <v>790</v>
+        <v>865</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.2">
@@ -14522,31 +14336,31 @@
         <v>864</v>
       </c>
       <c r="B347" s="2">
-        <v>248</v>
-      </c>
-      <c r="C347" s="2">
-        <v>2681</v>
+        <v>1737</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>865</v>
       </c>
       <c r="D347" t="s">
         <v>22</v>
       </c>
       <c r="E347" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F347" t="s">
-        <v>314</v>
+        <v>417</v>
       </c>
       <c r="G347" t="s">
-        <v>564</v>
+        <v>160</v>
       </c>
       <c r="H347" t="s">
-        <v>919</v>
+        <v>927</v>
       </c>
       <c r="I347" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="J347" t="s">
-        <v>920</v>
+        <v>928</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.2">
@@ -14554,63 +14368,57 @@
         <v>864</v>
       </c>
       <c r="B348" s="2">
-        <v>250</v>
-      </c>
-      <c r="C348" s="2">
-        <v>2683</v>
+        <v>8888</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>865</v>
       </c>
       <c r="D348" t="s">
         <v>22</v>
       </c>
       <c r="E348" t="s">
-        <v>298</v>
+        <v>929</v>
       </c>
       <c r="F348" t="s">
-        <v>314</v>
+        <v>438</v>
       </c>
       <c r="G348" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H348" t="s">
-        <v>921</v>
+        <v>610</v>
       </c>
       <c r="I348" t="s">
-        <v>758</v>
-      </c>
-      <c r="J348" t="s">
-        <v>922</v>
+        <v>756</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>864</v>
+        <v>834</v>
       </c>
       <c r="B349" s="2">
-        <v>254</v>
-      </c>
-      <c r="C349" s="2">
-        <v>2687</v>
+        <v>8888</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>865</v>
       </c>
       <c r="D349" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E349" t="s">
-        <v>298</v>
+        <v>929</v>
       </c>
       <c r="F349" t="s">
-        <v>314</v>
+        <v>480</v>
       </c>
       <c r="G349" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H349" t="s">
-        <v>923</v>
+        <v>891</v>
       </c>
       <c r="I349" t="s">
-        <v>758</v>
-      </c>
-      <c r="J349" t="s">
-        <v>920</v>
+        <v>756</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.2">
@@ -14618,394 +14426,394 @@
         <v>864</v>
       </c>
       <c r="B350" s="2">
-        <v>263</v>
-      </c>
-      <c r="C350" s="2">
-        <v>73</v>
+        <v>8888</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>865</v>
       </c>
       <c r="D350" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E350" t="s">
-        <v>298</v>
+        <v>929</v>
       </c>
       <c r="F350" t="s">
-        <v>321</v>
+        <v>417</v>
       </c>
       <c r="G350" t="s">
-        <v>564</v>
+        <v>160</v>
       </c>
       <c r="H350" t="s">
-        <v>913</v>
+        <v>927</v>
       </c>
       <c r="I350" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="J350" t="s">
-        <v>866</v>
+        <v>928</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>864</v>
+        <v>834</v>
       </c>
       <c r="B351" s="2">
-        <v>270</v>
-      </c>
-      <c r="C351" s="2">
-        <v>80</v>
+        <v>8888</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>865</v>
       </c>
       <c r="D351" t="s">
         <v>10</v>
       </c>
       <c r="E351" t="s">
-        <v>298</v>
+        <v>929</v>
       </c>
       <c r="F351" t="s">
-        <v>321</v>
+        <v>536</v>
       </c>
       <c r="G351" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H351" t="s">
+        <v>878</v>
+      </c>
+      <c r="I351" t="s">
+        <v>758</v>
+      </c>
+      <c r="J351" t="s">
         <v>865</v>
-      </c>
-      <c r="I351" t="s">
-        <v>759</v>
-      </c>
-      <c r="J351" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>864</v>
-      </c>
-      <c r="B352" s="2">
-        <v>300</v>
-      </c>
-      <c r="C352" s="2">
-        <v>2625</v>
+        <v>834</v>
+      </c>
+      <c r="B352" t="s">
+        <v>296</v>
+      </c>
+      <c r="C352" t="s">
+        <v>297</v>
       </c>
       <c r="D352" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E352" t="s">
         <v>298</v>
       </c>
       <c r="F352" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="G352" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H352" t="s">
-        <v>924</v>
+        <v>567</v>
       </c>
       <c r="I352" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="J352" t="s">
-        <v>925</v>
+        <v>10</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>864</v>
-      </c>
-      <c r="B353" s="2">
-        <v>358</v>
-      </c>
-      <c r="C353" s="2">
-        <v>833</v>
+        <v>834</v>
+      </c>
+      <c r="B353" t="s">
+        <v>296</v>
+      </c>
+      <c r="C353" t="s">
+        <v>300</v>
       </c>
       <c r="D353" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E353" t="s">
         <v>298</v>
       </c>
       <c r="F353" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="G353" t="s">
         <v>563</v>
       </c>
       <c r="H353" t="s">
-        <v>609</v>
+        <v>568</v>
       </c>
       <c r="I353" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="J353" t="s">
-        <v>866</v>
+        <v>766</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>864</v>
-      </c>
-      <c r="B354" s="2">
-        <v>364</v>
-      </c>
-      <c r="C354" s="2">
-        <v>839</v>
+        <v>834</v>
+      </c>
+      <c r="B354" t="s">
+        <v>296</v>
+      </c>
+      <c r="C354" t="s">
+        <v>301</v>
       </c>
       <c r="D354" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E354" t="s">
         <v>298</v>
       </c>
       <c r="F354" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="G354" t="s">
         <v>563</v>
       </c>
       <c r="H354" t="s">
-        <v>926</v>
+        <v>569</v>
       </c>
       <c r="I354" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="J354" t="s">
-        <v>866</v>
+        <v>767</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>864</v>
-      </c>
-      <c r="B355" s="2">
-        <v>393</v>
-      </c>
-      <c r="C355" s="2">
-        <v>868</v>
+        <v>834</v>
+      </c>
+      <c r="B355" t="s">
+        <v>296</v>
+      </c>
+      <c r="C355" t="s">
+        <v>302</v>
       </c>
       <c r="D355" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E355" t="s">
         <v>298</v>
       </c>
       <c r="F355" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="G355" t="s">
         <v>563</v>
       </c>
       <c r="H355" t="s">
-        <v>927</v>
+        <v>570</v>
       </c>
       <c r="I355" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="J355" t="s">
-        <v>866</v>
+        <v>768</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>864</v>
-      </c>
-      <c r="B356" s="2">
-        <v>395</v>
-      </c>
-      <c r="C356" s="2">
-        <v>870</v>
+        <v>834</v>
+      </c>
+      <c r="B356" t="s">
+        <v>296</v>
+      </c>
+      <c r="C356" t="s">
+        <v>303</v>
       </c>
       <c r="D356" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E356" t="s">
         <v>298</v>
       </c>
       <c r="F356" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="G356" t="s">
         <v>563</v>
       </c>
       <c r="H356" t="s">
-        <v>597</v>
+        <v>571</v>
       </c>
       <c r="I356" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="J356" t="s">
-        <v>866</v>
+        <v>769</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>864</v>
-      </c>
-      <c r="B357" s="2">
-        <v>411</v>
-      </c>
-      <c r="C357" s="2">
-        <v>3478</v>
+        <v>834</v>
+      </c>
+      <c r="B357" t="s">
+        <v>296</v>
+      </c>
+      <c r="C357" t="s">
+        <v>304</v>
       </c>
       <c r="D357" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E357" t="s">
         <v>298</v>
       </c>
       <c r="F357" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="G357" t="s">
         <v>563</v>
       </c>
       <c r="H357" t="s">
-        <v>595</v>
+        <v>572</v>
       </c>
       <c r="I357" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="J357" t="s">
-        <v>777</v>
+        <v>10</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>864</v>
-      </c>
-      <c r="B358" s="2">
-        <v>416</v>
-      </c>
-      <c r="C358" s="2">
-        <v>3483</v>
+        <v>834</v>
+      </c>
+      <c r="B358" t="s">
+        <v>296</v>
+      </c>
+      <c r="C358" t="s">
+        <v>313</v>
       </c>
       <c r="D358" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E358" t="s">
         <v>298</v>
       </c>
       <c r="F358" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="G358" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H358" t="s">
-        <v>928</v>
+        <v>579</v>
       </c>
       <c r="I358" t="s">
         <v>758</v>
       </c>
       <c r="J358" t="s">
-        <v>929</v>
+        <v>10</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>864</v>
-      </c>
-      <c r="B359" s="2">
-        <v>443</v>
-      </c>
-      <c r="C359" s="2">
-        <v>1146</v>
+        <v>834</v>
+      </c>
+      <c r="B359" t="s">
+        <v>296</v>
+      </c>
+      <c r="C359" t="s">
+        <v>315</v>
       </c>
       <c r="D359" t="s">
         <v>10</v>
       </c>
       <c r="E359" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="F359" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="G359" t="s">
-        <v>159</v>
+        <v>564</v>
       </c>
       <c r="H359" t="s">
-        <v>602</v>
+        <v>580</v>
       </c>
       <c r="I359" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="J359" t="s">
-        <v>866</v>
+        <v>10</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>864</v>
-      </c>
-      <c r="B360" s="2">
-        <v>449</v>
-      </c>
-      <c r="C360" s="2">
-        <v>1153</v>
+        <v>834</v>
+      </c>
+      <c r="B360" t="s">
+        <v>296</v>
+      </c>
+      <c r="C360" t="s">
+        <v>316</v>
       </c>
       <c r="D360" t="s">
         <v>10</v>
       </c>
       <c r="E360" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="F360" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="G360" t="s">
-        <v>159</v>
+        <v>564</v>
       </c>
       <c r="H360" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="I360" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="J360" t="s">
-        <v>866</v>
+        <v>10</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>864</v>
-      </c>
-      <c r="B361" s="2">
-        <v>498</v>
-      </c>
-      <c r="C361" s="2">
-        <v>9</v>
+        <v>834</v>
+      </c>
+      <c r="B361" t="s">
+        <v>296</v>
+      </c>
+      <c r="C361" t="s">
+        <v>317</v>
       </c>
       <c r="D361" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E361" t="s">
         <v>298</v>
       </c>
       <c r="F361" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="G361" t="s">
         <v>564</v>
       </c>
       <c r="H361" t="s">
-        <v>894</v>
+        <v>582</v>
       </c>
       <c r="I361" t="s">
         <v>758</v>
       </c>
       <c r="J361" t="s">
-        <v>866</v>
+        <v>773</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>864</v>
-      </c>
-      <c r="B362" s="2">
-        <v>505</v>
-      </c>
-      <c r="C362" s="2">
-        <v>16</v>
+        <v>834</v>
+      </c>
+      <c r="B362" t="s">
+        <v>296</v>
+      </c>
+      <c r="C362" t="s">
+        <v>318</v>
       </c>
       <c r="D362" t="s">
         <v>10</v>
@@ -15014,30 +14822,30 @@
         <v>298</v>
       </c>
       <c r="F362" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="G362" t="s">
         <v>564</v>
       </c>
       <c r="H362" t="s">
-        <v>629</v>
+        <v>583</v>
       </c>
       <c r="I362" t="s">
         <v>758</v>
       </c>
       <c r="J362" t="s">
-        <v>866</v>
+        <v>10</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>864</v>
-      </c>
-      <c r="B363" s="2">
-        <v>507</v>
-      </c>
-      <c r="C363" s="2">
-        <v>18</v>
+        <v>834</v>
+      </c>
+      <c r="B363" t="s">
+        <v>296</v>
+      </c>
+      <c r="C363" t="s">
+        <v>319</v>
       </c>
       <c r="D363" t="s">
         <v>10</v>
@@ -15046,30 +14854,30 @@
         <v>298</v>
       </c>
       <c r="F363" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="G363" t="s">
         <v>564</v>
       </c>
       <c r="H363" t="s">
-        <v>608</v>
+        <v>584</v>
       </c>
       <c r="I363" t="s">
         <v>758</v>
       </c>
       <c r="J363" t="s">
-        <v>866</v>
+        <v>10</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>864</v>
-      </c>
-      <c r="B364" s="2">
-        <v>529</v>
-      </c>
-      <c r="C364" s="2">
-        <v>100</v>
+        <v>834</v>
+      </c>
+      <c r="B364" t="s">
+        <v>296</v>
+      </c>
+      <c r="C364" t="s">
+        <v>320</v>
       </c>
       <c r="D364" t="s">
         <v>10</v>
@@ -15078,30 +14886,30 @@
         <v>298</v>
       </c>
       <c r="F364" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="G364" t="s">
         <v>564</v>
       </c>
       <c r="H364" t="s">
-        <v>930</v>
+        <v>585</v>
       </c>
       <c r="I364" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="J364" t="s">
-        <v>866</v>
+        <v>10</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>864</v>
-      </c>
-      <c r="B365" s="2">
-        <v>548</v>
-      </c>
-      <c r="C365" s="2">
-        <v>2638</v>
+        <v>834</v>
+      </c>
+      <c r="B365" t="s">
+        <v>296</v>
+      </c>
+      <c r="C365" t="s">
+        <v>322</v>
       </c>
       <c r="D365" t="s">
         <v>22</v>
@@ -15110,30 +14918,30 @@
         <v>298</v>
       </c>
       <c r="F365" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="G365" t="s">
         <v>564</v>
       </c>
       <c r="H365" t="s">
-        <v>931</v>
+        <v>586</v>
       </c>
       <c r="I365" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="J365" t="s">
-        <v>288</v>
+        <v>774</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>864</v>
-      </c>
-      <c r="B366" s="2">
-        <v>666</v>
-      </c>
-      <c r="C366" s="2">
-        <v>888</v>
+        <v>834</v>
+      </c>
+      <c r="B366" t="s">
+        <v>296</v>
+      </c>
+      <c r="C366" t="s">
+        <v>323</v>
       </c>
       <c r="D366" t="s">
         <v>10</v>
@@ -15142,62 +14950,62 @@
         <v>298</v>
       </c>
       <c r="F366" t="s">
-        <v>362</v>
+        <v>321</v>
       </c>
       <c r="G366" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H366" t="s">
-        <v>926</v>
+        <v>587</v>
       </c>
       <c r="I366" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="J366" t="s">
-        <v>866</v>
+        <v>10</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>864</v>
-      </c>
-      <c r="B367" s="2">
-        <v>704</v>
-      </c>
-      <c r="C367" s="2">
-        <v>3499</v>
+        <v>834</v>
+      </c>
+      <c r="B367" t="s">
+        <v>296</v>
+      </c>
+      <c r="C367" t="s">
+        <v>324</v>
       </c>
       <c r="D367" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E367" t="s">
         <v>298</v>
       </c>
       <c r="F367" t="s">
-        <v>362</v>
+        <v>321</v>
       </c>
       <c r="G367" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H367" t="s">
-        <v>932</v>
+        <v>588</v>
       </c>
       <c r="I367" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="J367" t="s">
-        <v>933</v>
+        <v>10</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>864</v>
-      </c>
-      <c r="B368" s="2">
-        <v>727</v>
-      </c>
-      <c r="C368" s="2">
-        <v>3522</v>
+        <v>834</v>
+      </c>
+      <c r="B368" t="s">
+        <v>296</v>
+      </c>
+      <c r="C368" t="s">
+        <v>332</v>
       </c>
       <c r="D368" t="s">
         <v>22</v>
@@ -15206,30 +15014,30 @@
         <v>298</v>
       </c>
       <c r="F368" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="G368" t="s">
         <v>563</v>
       </c>
       <c r="H368" t="s">
-        <v>934</v>
+        <v>595</v>
       </c>
       <c r="I368" t="s">
         <v>758</v>
       </c>
       <c r="J368" t="s">
-        <v>935</v>
+        <v>777</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>864</v>
-      </c>
-      <c r="B369" s="2">
-        <v>754</v>
-      </c>
-      <c r="C369" s="2">
-        <v>799</v>
+        <v>834</v>
+      </c>
+      <c r="B369" t="s">
+        <v>296</v>
+      </c>
+      <c r="C369" t="s">
+        <v>334</v>
       </c>
       <c r="D369" t="s">
         <v>10</v>
@@ -15238,30 +15046,30 @@
         <v>298</v>
       </c>
       <c r="F369" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="G369" t="s">
         <v>563</v>
       </c>
       <c r="H369" t="s">
-        <v>869</v>
+        <v>596</v>
       </c>
       <c r="I369" t="s">
         <v>758</v>
       </c>
       <c r="J369" t="s">
-        <v>866</v>
+        <v>10</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>864</v>
-      </c>
-      <c r="B370" s="2">
-        <v>755</v>
-      </c>
-      <c r="C370" s="2">
-        <v>800</v>
+        <v>834</v>
+      </c>
+      <c r="B370" t="s">
+        <v>296</v>
+      </c>
+      <c r="C370" t="s">
+        <v>335</v>
       </c>
       <c r="D370" t="s">
         <v>10</v>
@@ -15270,926 +15078,926 @@
         <v>298</v>
       </c>
       <c r="F370" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="G370" t="s">
         <v>563</v>
       </c>
       <c r="H370" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="I370" t="s">
         <v>758</v>
       </c>
       <c r="J370" t="s">
-        <v>866</v>
+        <v>10</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>864</v>
-      </c>
-      <c r="B371" s="2">
-        <v>758</v>
-      </c>
-      <c r="C371" s="2">
-        <v>803</v>
+        <v>834</v>
+      </c>
+      <c r="B371" t="s">
+        <v>296</v>
+      </c>
+      <c r="C371" t="s">
+        <v>336</v>
       </c>
       <c r="D371" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E371" t="s">
         <v>298</v>
       </c>
       <c r="F371" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="G371" t="s">
         <v>563</v>
       </c>
       <c r="H371" t="s">
-        <v>895</v>
+        <v>598</v>
       </c>
       <c r="I371" t="s">
         <v>758</v>
       </c>
       <c r="J371" t="s">
-        <v>866</v>
+        <v>778</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>864</v>
-      </c>
-      <c r="B372" s="2">
-        <v>760</v>
-      </c>
-      <c r="C372" s="2">
-        <v>805</v>
+        <v>834</v>
+      </c>
+      <c r="B372" t="s">
+        <v>296</v>
+      </c>
+      <c r="C372" t="s">
+        <v>337</v>
       </c>
       <c r="D372" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E372" t="s">
         <v>298</v>
       </c>
       <c r="F372" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="G372" t="s">
         <v>563</v>
       </c>
       <c r="H372" t="s">
-        <v>625</v>
+        <v>599</v>
       </c>
       <c r="I372" t="s">
         <v>758</v>
       </c>
       <c r="J372" t="s">
-        <v>866</v>
+        <v>779</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>864</v>
-      </c>
-      <c r="B373" s="2">
-        <v>796</v>
-      </c>
-      <c r="C373" s="2">
-        <v>3452</v>
+        <v>834</v>
+      </c>
+      <c r="B373" t="s">
+        <v>296</v>
+      </c>
+      <c r="C373" t="s">
+        <v>338</v>
       </c>
       <c r="D373" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E373" t="s">
         <v>298</v>
       </c>
       <c r="F373" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="G373" t="s">
         <v>563</v>
       </c>
       <c r="H373" t="s">
-        <v>936</v>
+        <v>600</v>
       </c>
       <c r="I373" t="s">
         <v>758</v>
       </c>
       <c r="J373" t="s">
-        <v>937</v>
+        <v>10</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>864</v>
-      </c>
-      <c r="B374" s="2">
-        <v>940</v>
-      </c>
-      <c r="C374" s="2">
-        <v>1561</v>
+        <v>834</v>
+      </c>
+      <c r="B374" t="s">
+        <v>296</v>
+      </c>
+      <c r="C374" t="s">
+        <v>347</v>
       </c>
       <c r="D374" t="s">
         <v>10</v>
       </c>
       <c r="E374" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F374" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="G374" t="s">
-        <v>160</v>
+        <v>564</v>
       </c>
       <c r="H374" t="s">
-        <v>699</v>
+        <v>607</v>
       </c>
       <c r="I374" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="J374" t="s">
-        <v>866</v>
+        <v>10</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>864</v>
-      </c>
-      <c r="B375" s="2">
-        <v>963</v>
-      </c>
-      <c r="C375" s="2">
-        <v>1584</v>
+        <v>834</v>
+      </c>
+      <c r="B375" t="s">
+        <v>296</v>
+      </c>
+      <c r="C375" t="s">
+        <v>349</v>
       </c>
       <c r="D375" t="s">
         <v>10</v>
       </c>
       <c r="E375" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F375" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="G375" t="s">
-        <v>160</v>
+        <v>564</v>
       </c>
       <c r="H375" t="s">
-        <v>938</v>
+        <v>608</v>
       </c>
       <c r="I375" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="J375" t="s">
-        <v>866</v>
+        <v>10</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>864</v>
-      </c>
-      <c r="B376" s="2">
-        <v>964</v>
-      </c>
-      <c r="C376" s="2">
-        <v>1585</v>
+        <v>834</v>
+      </c>
+      <c r="B376" t="s">
+        <v>296</v>
+      </c>
+      <c r="C376" t="s">
+        <v>350</v>
       </c>
       <c r="D376" t="s">
         <v>10</v>
       </c>
       <c r="E376" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F376" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="G376" t="s">
-        <v>160</v>
+        <v>564</v>
       </c>
       <c r="H376" t="s">
-        <v>939</v>
+        <v>609</v>
       </c>
       <c r="I376" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="J376" t="s">
-        <v>866</v>
+        <v>10</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>864</v>
-      </c>
-      <c r="B377" s="2">
-        <v>975</v>
-      </c>
-      <c r="C377" s="2">
-        <v>1596</v>
+        <v>834</v>
+      </c>
+      <c r="B377" t="s">
+        <v>296</v>
+      </c>
+      <c r="C377" t="s">
+        <v>351</v>
       </c>
       <c r="D377" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E377" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F377" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="G377" t="s">
-        <v>160</v>
+        <v>564</v>
       </c>
       <c r="H377" t="s">
-        <v>940</v>
+        <v>610</v>
       </c>
       <c r="I377" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="J377" t="s">
-        <v>866</v>
+        <v>782</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>864</v>
-      </c>
-      <c r="B378" s="2">
-        <v>984</v>
-      </c>
-      <c r="C378" s="2">
-        <v>4248</v>
+        <v>834</v>
+      </c>
+      <c r="B378" t="s">
+        <v>296</v>
+      </c>
+      <c r="C378" t="s">
+        <v>352</v>
       </c>
       <c r="D378" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E378" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F378" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="G378" t="s">
-        <v>160</v>
+        <v>564</v>
       </c>
       <c r="H378" t="s">
-        <v>941</v>
+        <v>611</v>
       </c>
       <c r="I378" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="J378" t="s">
-        <v>772</v>
+        <v>10</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>864</v>
-      </c>
-      <c r="B379" s="2">
-        <v>988</v>
-      </c>
-      <c r="C379" s="2">
-        <v>4252</v>
+        <v>834</v>
+      </c>
+      <c r="B379" t="s">
+        <v>296</v>
+      </c>
+      <c r="C379" t="s">
+        <v>353</v>
       </c>
       <c r="D379" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E379" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F379" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="G379" t="s">
-        <v>160</v>
+        <v>564</v>
       </c>
       <c r="H379" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="I379" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="J379" t="s">
-        <v>772</v>
+        <v>10</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>864</v>
-      </c>
-      <c r="B380" s="2">
-        <v>1011</v>
-      </c>
-      <c r="C380" s="2">
-        <v>1331</v>
+        <v>834</v>
+      </c>
+      <c r="B380" t="s">
+        <v>296</v>
+      </c>
+      <c r="C380" t="s">
+        <v>361</v>
       </c>
       <c r="D380" t="s">
         <v>10</v>
       </c>
       <c r="E380" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F380" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="G380" t="s">
-        <v>160</v>
+        <v>563</v>
       </c>
       <c r="H380" t="s">
-        <v>709</v>
+        <v>619</v>
       </c>
       <c r="I380" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="J380" t="s">
-        <v>866</v>
+        <v>10</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>864</v>
-      </c>
-      <c r="B381" s="2">
-        <v>1040</v>
-      </c>
-      <c r="C381" s="2">
-        <v>4073</v>
+        <v>834</v>
+      </c>
+      <c r="B381" t="s">
+        <v>296</v>
+      </c>
+      <c r="C381" t="s">
+        <v>363</v>
       </c>
       <c r="D381" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E381" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F381" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="G381" t="s">
-        <v>160</v>
+        <v>563</v>
       </c>
       <c r="H381" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="I381" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="J381" t="s">
-        <v>788</v>
+        <v>10</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>864</v>
-      </c>
-      <c r="B382" s="2">
-        <v>1045</v>
-      </c>
-      <c r="C382" s="2">
-        <v>4078</v>
+        <v>834</v>
+      </c>
+      <c r="B382" t="s">
+        <v>296</v>
+      </c>
+      <c r="C382" t="s">
+        <v>364</v>
       </c>
       <c r="D382" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E382" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F382" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="G382" t="s">
-        <v>160</v>
+        <v>563</v>
       </c>
       <c r="H382" t="s">
-        <v>638</v>
+        <v>621</v>
       </c>
       <c r="I382" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="J382" t="s">
-        <v>789</v>
+        <v>10</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>864</v>
-      </c>
-      <c r="B383" s="2">
-        <v>1048</v>
-      </c>
-      <c r="C383" s="2">
-        <v>4081</v>
+        <v>834</v>
+      </c>
+      <c r="B383" t="s">
+        <v>296</v>
+      </c>
+      <c r="C383" t="s">
+        <v>365</v>
       </c>
       <c r="D383" t="s">
         <v>22</v>
       </c>
       <c r="E383" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F383" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="G383" t="s">
-        <v>160</v>
+        <v>563</v>
       </c>
       <c r="H383" t="s">
-        <v>942</v>
+        <v>622</v>
       </c>
       <c r="I383" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="J383" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>864</v>
-      </c>
-      <c r="B384" s="2">
-        <v>1111</v>
-      </c>
-      <c r="C384" s="2">
-        <v>3042</v>
+        <v>834</v>
+      </c>
+      <c r="B384" t="s">
+        <v>296</v>
+      </c>
+      <c r="C384" t="s">
+        <v>366</v>
       </c>
       <c r="D384" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E384" t="s">
         <v>298</v>
       </c>
       <c r="F384" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="G384" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H384" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="I384" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J384" t="s">
-        <v>790</v>
+        <v>10</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>864</v>
-      </c>
-      <c r="B385" s="2">
-        <v>1115</v>
-      </c>
-      <c r="C385" s="2">
-        <v>3046</v>
+        <v>834</v>
+      </c>
+      <c r="B385" t="s">
+        <v>296</v>
+      </c>
+      <c r="C385" t="s">
+        <v>367</v>
       </c>
       <c r="D385" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E385" t="s">
         <v>298</v>
       </c>
       <c r="F385" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="G385" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H385" t="s">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="I385" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J385" t="s">
-        <v>791</v>
+        <v>10</v>
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>864</v>
-      </c>
-      <c r="B386" s="2">
-        <v>1124</v>
-      </c>
-      <c r="C386" s="2">
-        <v>29</v>
+        <v>834</v>
+      </c>
+      <c r="B386" t="s">
+        <v>296</v>
+      </c>
+      <c r="C386" t="s">
+        <v>368</v>
       </c>
       <c r="D386" t="s">
         <v>10</v>
       </c>
       <c r="E386" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="F386" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="G386" t="s">
-        <v>157</v>
+        <v>563</v>
       </c>
       <c r="H386" t="s">
-        <v>943</v>
+        <v>625</v>
       </c>
       <c r="I386" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="J386" t="s">
-        <v>866</v>
+        <v>10</v>
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>864</v>
-      </c>
-      <c r="B387" s="2">
-        <v>1135</v>
-      </c>
-      <c r="C387" s="2">
-        <v>40</v>
+        <v>834</v>
+      </c>
+      <c r="B387" t="s">
+        <v>296</v>
+      </c>
+      <c r="C387" t="s">
+        <v>370</v>
       </c>
       <c r="D387" t="s">
         <v>10</v>
       </c>
       <c r="E387" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="F387" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="G387" t="s">
-        <v>157</v>
+        <v>563</v>
       </c>
       <c r="H387" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
       <c r="I387" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="J387" t="s">
-        <v>866</v>
+        <v>10</v>
       </c>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>864</v>
-      </c>
-      <c r="B388" s="2">
-        <v>1148</v>
-      </c>
-      <c r="C388" s="2">
-        <v>53</v>
+        <v>834</v>
+      </c>
+      <c r="B388" t="s">
+        <v>296</v>
+      </c>
+      <c r="C388" t="s">
+        <v>371</v>
       </c>
       <c r="D388" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E388" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="F388" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="G388" t="s">
-        <v>157</v>
+        <v>563</v>
       </c>
       <c r="H388" t="s">
-        <v>944</v>
+        <v>627</v>
       </c>
       <c r="I388" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="J388" t="s">
-        <v>866</v>
+        <v>786</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>864</v>
-      </c>
-      <c r="B389" s="2">
-        <v>1252</v>
-      </c>
-      <c r="C389" s="2">
-        <v>1439</v>
+        <v>834</v>
+      </c>
+      <c r="B389" t="s">
+        <v>296</v>
+      </c>
+      <c r="C389" t="s">
+        <v>372</v>
       </c>
       <c r="D389" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E389" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F389" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="G389" t="s">
-        <v>160</v>
+        <v>563</v>
       </c>
       <c r="H389" t="s">
-        <v>945</v>
+        <v>628</v>
       </c>
       <c r="I389" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="J389" t="s">
-        <v>866</v>
+        <v>787</v>
       </c>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>864</v>
-      </c>
-      <c r="B390" s="2">
-        <v>1297</v>
-      </c>
-      <c r="C390" s="2">
-        <v>1484</v>
+        <v>834</v>
+      </c>
+      <c r="B390" t="s">
+        <v>296</v>
+      </c>
+      <c r="C390" t="s">
+        <v>373</v>
       </c>
       <c r="D390" t="s">
         <v>10</v>
       </c>
       <c r="E390" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F390" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="G390" t="s">
-        <v>160</v>
+        <v>563</v>
       </c>
       <c r="H390" t="s">
-        <v>940</v>
+        <v>629</v>
       </c>
       <c r="I390" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="J390" t="s">
-        <v>866</v>
+        <v>10</v>
       </c>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>864</v>
-      </c>
-      <c r="B391" s="2">
-        <v>1306</v>
-      </c>
-      <c r="C391" s="2">
-        <v>4192</v>
+        <v>834</v>
+      </c>
+      <c r="B391" t="s">
+        <v>296</v>
+      </c>
+      <c r="C391" t="s">
+        <v>374</v>
       </c>
       <c r="D391" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E391" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F391" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="G391" t="s">
-        <v>160</v>
+        <v>563</v>
       </c>
       <c r="H391" t="s">
-        <v>946</v>
+        <v>579</v>
       </c>
       <c r="I391" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="J391" t="s">
-        <v>795</v>
+        <v>10</v>
       </c>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>864</v>
-      </c>
-      <c r="B392" s="2">
-        <v>1312</v>
-      </c>
-      <c r="C392" s="2">
-        <v>4198</v>
+        <v>834</v>
+      </c>
+      <c r="B392" t="s">
+        <v>296</v>
+      </c>
+      <c r="C392" t="s">
+        <v>389</v>
       </c>
       <c r="D392" t="s">
         <v>22</v>
       </c>
       <c r="E392" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F392" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="G392" t="s">
-        <v>160</v>
+        <v>564</v>
       </c>
       <c r="H392" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="I392" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="J392" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>864</v>
-      </c>
-      <c r="B393" s="2">
-        <v>1316</v>
-      </c>
-      <c r="C393" s="2">
-        <v>4202</v>
+        <v>834</v>
+      </c>
+      <c r="B393" t="s">
+        <v>296</v>
+      </c>
+      <c r="C393" t="s">
+        <v>391</v>
       </c>
       <c r="D393" t="s">
         <v>22</v>
       </c>
       <c r="E393" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F393" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="G393" t="s">
-        <v>160</v>
+        <v>564</v>
       </c>
       <c r="H393" t="s">
-        <v>947</v>
+        <v>642</v>
       </c>
       <c r="I393" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="J393" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>864</v>
-      </c>
-      <c r="B394" s="2">
-        <v>1677</v>
-      </c>
-      <c r="C394" s="2">
-        <v>2710</v>
+        <v>834</v>
+      </c>
+      <c r="B394" t="s">
+        <v>296</v>
+      </c>
+      <c r="C394" t="s">
+        <v>392</v>
       </c>
       <c r="D394" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E394" t="s">
         <v>298</v>
       </c>
       <c r="F394" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="G394" t="s">
         <v>564</v>
       </c>
       <c r="H394" t="s">
-        <v>948</v>
+        <v>643</v>
       </c>
       <c r="I394" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="J394" t="s">
-        <v>949</v>
+        <v>10</v>
       </c>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>864</v>
-      </c>
-      <c r="B395" s="2">
-        <v>1723</v>
-      </c>
-      <c r="C395" s="2">
-        <v>4111</v>
+        <v>834</v>
+      </c>
+      <c r="B395" t="s">
+        <v>296</v>
+      </c>
+      <c r="C395" t="s">
+        <v>393</v>
       </c>
       <c r="D395" t="s">
         <v>22</v>
       </c>
       <c r="E395" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F395" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
       <c r="G395" t="s">
-        <v>160</v>
+        <v>564</v>
       </c>
       <c r="H395" t="s">
-        <v>662</v>
+        <v>644</v>
       </c>
       <c r="I395" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="J395" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>864</v>
-      </c>
-      <c r="B396" s="2">
-        <v>1729</v>
-      </c>
-      <c r="C396" s="2">
-        <v>4117</v>
+        <v>834</v>
+      </c>
+      <c r="B396" t="s">
+        <v>296</v>
+      </c>
+      <c r="C396" t="s">
+        <v>394</v>
       </c>
       <c r="D396" t="s">
         <v>22</v>
       </c>
       <c r="E396" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F396" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
       <c r="G396" t="s">
-        <v>160</v>
+        <v>564</v>
       </c>
       <c r="H396" t="s">
-        <v>950</v>
+        <v>645</v>
       </c>
       <c r="I396" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="J396" t="s">
-        <v>951</v>
+        <v>793</v>
       </c>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>864</v>
-      </c>
-      <c r="B397" s="2">
-        <v>1789</v>
-      </c>
-      <c r="C397" s="2">
-        <v>648</v>
+        <v>834</v>
+      </c>
+      <c r="B397" t="s">
+        <v>296</v>
+      </c>
+      <c r="C397" t="s">
+        <v>395</v>
       </c>
       <c r="D397" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E397" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="F397" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="G397" t="s">
-        <v>158</v>
+        <v>564</v>
       </c>
       <c r="H397" t="s">
-        <v>668</v>
+        <v>646</v>
       </c>
       <c r="I397" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="J397" t="s">
-        <v>866</v>
+        <v>784</v>
       </c>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>864</v>
-      </c>
-      <c r="B398" s="2">
-        <v>2182</v>
-      </c>
-      <c r="C398" s="2">
-        <v>345</v>
+        <v>834</v>
+      </c>
+      <c r="B398" t="s">
+        <v>296</v>
+      </c>
+      <c r="C398" t="s">
+        <v>410</v>
       </c>
       <c r="D398" t="s">
         <v>10</v>
       </c>
       <c r="E398" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F398" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="G398" t="s">
-        <v>157</v>
+        <v>564</v>
       </c>
       <c r="H398" t="s">
-        <v>952</v>
+        <v>658</v>
       </c>
       <c r="I398" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="J398" t="s">
-        <v>866</v>
+        <v>10</v>
       </c>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>864</v>
-      </c>
-      <c r="B399" s="2">
-        <v>2224</v>
-      </c>
-      <c r="C399" s="2">
-        <v>405</v>
+        <v>834</v>
+      </c>
+      <c r="B399" t="s">
+        <v>296</v>
+      </c>
+      <c r="C399" t="s">
+        <v>412</v>
       </c>
       <c r="D399" t="s">
         <v>10</v>
@@ -16198,30 +16006,30 @@
         <v>298</v>
       </c>
       <c r="F399" t="s">
-        <v>529</v>
+        <v>411</v>
       </c>
       <c r="G399" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H399" t="s">
-        <v>572</v>
+        <v>659</v>
       </c>
       <c r="I399" t="s">
         <v>756</v>
       </c>
       <c r="J399" t="s">
-        <v>866</v>
+        <v>10</v>
       </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>864</v>
-      </c>
-      <c r="B400" s="2">
-        <v>2227</v>
-      </c>
-      <c r="C400" s="2">
-        <v>408</v>
+        <v>834</v>
+      </c>
+      <c r="B400" t="s">
+        <v>296</v>
+      </c>
+      <c r="C400" t="s">
+        <v>413</v>
       </c>
       <c r="D400" t="s">
         <v>10</v>
@@ -16230,30 +16038,30 @@
         <v>298</v>
       </c>
       <c r="F400" t="s">
-        <v>529</v>
+        <v>411</v>
       </c>
       <c r="G400" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H400" t="s">
-        <v>710</v>
+        <v>660</v>
       </c>
       <c r="I400" t="s">
         <v>756</v>
       </c>
       <c r="J400" t="s">
-        <v>866</v>
+        <v>10</v>
       </c>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>864</v>
-      </c>
-      <c r="B401" s="2">
-        <v>2477</v>
-      </c>
-      <c r="C401" s="2">
-        <v>954</v>
+        <v>834</v>
+      </c>
+      <c r="B401" t="s">
+        <v>296</v>
+      </c>
+      <c r="C401" t="s">
+        <v>414</v>
       </c>
       <c r="D401" t="s">
         <v>10</v>
@@ -16262,30 +16070,30 @@
         <v>298</v>
       </c>
       <c r="F401" t="s">
-        <v>536</v>
+        <v>411</v>
       </c>
       <c r="G401" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H401" t="s">
-        <v>621</v>
+        <v>661</v>
       </c>
       <c r="I401" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="J401" t="s">
-        <v>866</v>
+        <v>10</v>
       </c>
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>864</v>
-      </c>
-      <c r="B402" s="2">
-        <v>2485</v>
-      </c>
-      <c r="C402" s="2">
-        <v>962</v>
+        <v>834</v>
+      </c>
+      <c r="B402" t="s">
+        <v>296</v>
+      </c>
+      <c r="C402" t="s">
+        <v>415</v>
       </c>
       <c r="D402" t="s">
         <v>10</v>
@@ -16294,30 +16102,30 @@
         <v>298</v>
       </c>
       <c r="F402" t="s">
-        <v>536</v>
+        <v>411</v>
       </c>
       <c r="G402" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H402" t="s">
-        <v>620</v>
+        <v>567</v>
       </c>
       <c r="I402" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="J402" t="s">
-        <v>866</v>
+        <v>10</v>
       </c>
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>864</v>
-      </c>
-      <c r="B403" s="2">
-        <v>2542</v>
-      </c>
-      <c r="C403" s="2">
-        <v>586</v>
+        <v>834</v>
+      </c>
+      <c r="B403" t="s">
+        <v>296</v>
+      </c>
+      <c r="C403" t="s">
+        <v>437</v>
       </c>
       <c r="D403" t="s">
         <v>10</v>
@@ -16332,27 +16140,27 @@
         <v>565</v>
       </c>
       <c r="H403" t="s">
-        <v>727</v>
+        <v>679</v>
       </c>
       <c r="I403" t="s">
         <v>756</v>
       </c>
       <c r="J403" t="s">
-        <v>866</v>
+        <v>10</v>
       </c>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>864</v>
-      </c>
-      <c r="B404" s="2">
-        <v>2544</v>
-      </c>
-      <c r="C404" s="2">
-        <v>588</v>
+        <v>834</v>
+      </c>
+      <c r="B404" t="s">
+        <v>296</v>
+      </c>
+      <c r="C404" t="s">
+        <v>439</v>
       </c>
       <c r="D404" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E404" t="s">
         <v>298</v>
@@ -16364,27 +16172,27 @@
         <v>565</v>
       </c>
       <c r="H404" t="s">
-        <v>953</v>
+        <v>680</v>
       </c>
       <c r="I404" t="s">
         <v>756</v>
       </c>
       <c r="J404" t="s">
-        <v>866</v>
+        <v>782</v>
       </c>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>864</v>
-      </c>
-      <c r="B405" s="2">
-        <v>2560</v>
-      </c>
-      <c r="C405" s="2">
-        <v>604</v>
+        <v>834</v>
+      </c>
+      <c r="B405" t="s">
+        <v>296</v>
+      </c>
+      <c r="C405" t="s">
+        <v>440</v>
       </c>
       <c r="D405" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E405" t="s">
         <v>298</v>
@@ -16396,27 +16204,27 @@
         <v>565</v>
       </c>
       <c r="H405" t="s">
-        <v>740</v>
+        <v>681</v>
       </c>
       <c r="I405" t="s">
         <v>756</v>
       </c>
       <c r="J405" t="s">
-        <v>866</v>
+        <v>768</v>
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>864</v>
-      </c>
-      <c r="B406" s="2">
-        <v>2572</v>
-      </c>
-      <c r="C406" s="2">
-        <v>3170</v>
+        <v>834</v>
+      </c>
+      <c r="B406" t="s">
+        <v>296</v>
+      </c>
+      <c r="C406" t="s">
+        <v>441</v>
       </c>
       <c r="D406" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E406" t="s">
         <v>298</v>
@@ -16428,24 +16236,24 @@
         <v>565</v>
       </c>
       <c r="H406" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="I406" t="s">
         <v>756</v>
       </c>
       <c r="J406" t="s">
-        <v>782</v>
+        <v>10</v>
       </c>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>864</v>
-      </c>
-      <c r="B407" s="2">
-        <v>2574</v>
-      </c>
-      <c r="C407" s="2">
-        <v>3172</v>
+        <v>834</v>
+      </c>
+      <c r="B407" t="s">
+        <v>296</v>
+      </c>
+      <c r="C407" t="s">
+        <v>442</v>
       </c>
       <c r="D407" t="s">
         <v>22</v>
@@ -16460,27 +16268,27 @@
         <v>565</v>
       </c>
       <c r="H407" t="s">
-        <v>931</v>
+        <v>683</v>
       </c>
       <c r="I407" t="s">
         <v>756</v>
       </c>
       <c r="J407" t="s">
-        <v>288</v>
+        <v>804</v>
       </c>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>864</v>
-      </c>
-      <c r="B408" s="2">
-        <v>2589</v>
-      </c>
-      <c r="C408" s="2">
-        <v>3187</v>
+        <v>834</v>
+      </c>
+      <c r="B408" t="s">
+        <v>296</v>
+      </c>
+      <c r="C408" t="s">
+        <v>443</v>
       </c>
       <c r="D408" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E408" t="s">
         <v>298</v>
@@ -16492,56 +16300,56 @@
         <v>565</v>
       </c>
       <c r="H408" t="s">
-        <v>681</v>
+        <v>658</v>
       </c>
       <c r="I408" t="s">
         <v>756</v>
       </c>
       <c r="J408" t="s">
-        <v>768</v>
+        <v>10</v>
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>864</v>
-      </c>
-      <c r="B409" s="2">
-        <v>2591</v>
-      </c>
-      <c r="C409" s="2">
-        <v>3189</v>
+        <v>834</v>
+      </c>
+      <c r="B409" t="s">
+        <v>296</v>
+      </c>
+      <c r="C409" t="s">
+        <v>479</v>
       </c>
       <c r="D409" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E409" t="s">
         <v>298</v>
       </c>
       <c r="F409" t="s">
-        <v>438</v>
+        <v>480</v>
       </c>
       <c r="G409" t="s">
         <v>565</v>
       </c>
       <c r="H409" t="s">
-        <v>954</v>
+        <v>710</v>
       </c>
       <c r="I409" t="s">
         <v>756</v>
       </c>
       <c r="J409" t="s">
-        <v>955</v>
+        <v>10</v>
       </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>864</v>
-      </c>
-      <c r="B410" s="2">
-        <v>2598</v>
-      </c>
-      <c r="C410" s="2">
-        <v>3196</v>
+        <v>834</v>
+      </c>
+      <c r="B410" t="s">
+        <v>296</v>
+      </c>
+      <c r="C410" t="s">
+        <v>481</v>
       </c>
       <c r="D410" t="s">
         <v>22</v>
@@ -16550,62 +16358,62 @@
         <v>298</v>
       </c>
       <c r="F410" t="s">
-        <v>438</v>
+        <v>480</v>
       </c>
       <c r="G410" t="s">
         <v>565</v>
       </c>
       <c r="H410" t="s">
-        <v>956</v>
+        <v>711</v>
       </c>
       <c r="I410" t="s">
         <v>756</v>
       </c>
       <c r="J410" t="s">
-        <v>899</v>
+        <v>815</v>
       </c>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>864</v>
-      </c>
-      <c r="B411" s="2">
-        <v>2633</v>
-      </c>
-      <c r="C411" s="2">
-        <v>319</v>
+        <v>834</v>
+      </c>
+      <c r="B411" t="s">
+        <v>296</v>
+      </c>
+      <c r="C411" t="s">
+        <v>482</v>
       </c>
       <c r="D411" t="s">
         <v>10</v>
       </c>
       <c r="E411" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F411" t="s">
-        <v>445</v>
+        <v>480</v>
       </c>
       <c r="G411" t="s">
-        <v>157</v>
+        <v>565</v>
       </c>
       <c r="H411" t="s">
-        <v>957</v>
+        <v>712</v>
       </c>
       <c r="I411" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="J411" t="s">
-        <v>866</v>
+        <v>10</v>
       </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>864</v>
-      </c>
-      <c r="B412" s="2">
-        <v>2708</v>
-      </c>
-      <c r="C412" s="2">
-        <v>1068</v>
+        <v>834</v>
+      </c>
+      <c r="B412" t="s">
+        <v>296</v>
+      </c>
+      <c r="C412" t="s">
+        <v>483</v>
       </c>
       <c r="D412" t="s">
         <v>10</v>
@@ -16614,670 +16422,670 @@
         <v>298</v>
       </c>
       <c r="F412" t="s">
-        <v>543</v>
+        <v>480</v>
       </c>
       <c r="G412" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H412" t="s">
-        <v>660</v>
+        <v>567</v>
       </c>
       <c r="I412" t="s">
         <v>756</v>
       </c>
       <c r="J412" t="s">
-        <v>866</v>
+        <v>10</v>
       </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>864</v>
-      </c>
-      <c r="B413" s="2">
-        <v>2728</v>
-      </c>
-      <c r="C413" s="2">
-        <v>1054</v>
+        <v>834</v>
+      </c>
+      <c r="B413" t="s">
+        <v>296</v>
+      </c>
+      <c r="C413" t="s">
+        <v>484</v>
       </c>
       <c r="D413" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E413" t="s">
         <v>298</v>
       </c>
       <c r="F413" t="s">
-        <v>543</v>
+        <v>480</v>
       </c>
       <c r="G413" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H413" t="s">
-        <v>958</v>
+        <v>713</v>
       </c>
       <c r="I413" t="s">
         <v>756</v>
       </c>
       <c r="J413" t="s">
-        <v>866</v>
+        <v>816</v>
       </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>864</v>
-      </c>
-      <c r="B414" s="2">
-        <v>2763</v>
-      </c>
-      <c r="C414" s="2">
-        <v>1384</v>
+        <v>834</v>
+      </c>
+      <c r="B414" t="s">
+        <v>296</v>
+      </c>
+      <c r="C414" t="s">
+        <v>485</v>
       </c>
       <c r="D414" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E414" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F414" t="s">
-        <v>452</v>
+        <v>480</v>
       </c>
       <c r="G414" t="s">
-        <v>160</v>
+        <v>565</v>
       </c>
       <c r="H414" t="s">
-        <v>959</v>
+        <v>627</v>
       </c>
       <c r="I414" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J414" t="s">
-        <v>866</v>
+        <v>786</v>
       </c>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>864</v>
-      </c>
-      <c r="B415" s="2">
-        <v>2770</v>
-      </c>
-      <c r="C415" s="2">
-        <v>1391</v>
+        <v>834</v>
+      </c>
+      <c r="B415" t="s">
+        <v>296</v>
+      </c>
+      <c r="C415" t="s">
+        <v>500</v>
       </c>
       <c r="D415" t="s">
         <v>10</v>
       </c>
       <c r="E415" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F415" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="G415" t="s">
-        <v>160</v>
+        <v>565</v>
       </c>
       <c r="H415" t="s">
-        <v>960</v>
+        <v>723</v>
       </c>
       <c r="I415" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J415" t="s">
-        <v>866</v>
+        <v>10</v>
       </c>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>864</v>
-      </c>
-      <c r="B416" s="2">
-        <v>2794</v>
-      </c>
-      <c r="C416" s="2">
-        <v>4138</v>
+        <v>834</v>
+      </c>
+      <c r="B416" t="s">
+        <v>296</v>
+      </c>
+      <c r="C416" t="s">
+        <v>502</v>
       </c>
       <c r="D416" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E416" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F416" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="G416" t="s">
-        <v>160</v>
+        <v>565</v>
       </c>
       <c r="H416" t="s">
-        <v>961</v>
+        <v>679</v>
       </c>
       <c r="I416" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J416" t="s">
-        <v>893</v>
+        <v>10</v>
       </c>
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>864</v>
-      </c>
-      <c r="B417" s="2">
-        <v>2820</v>
-      </c>
-      <c r="C417" s="2">
-        <v>1495</v>
+        <v>834</v>
+      </c>
+      <c r="B417" t="s">
+        <v>296</v>
+      </c>
+      <c r="C417" t="s">
+        <v>503</v>
       </c>
       <c r="D417" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E417" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F417" t="s">
-        <v>459</v>
+        <v>501</v>
       </c>
       <c r="G417" t="s">
-        <v>160</v>
+        <v>565</v>
       </c>
       <c r="H417" t="s">
-        <v>945</v>
+        <v>724</v>
       </c>
       <c r="I417" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="J417" t="s">
-        <v>866</v>
+        <v>821</v>
       </c>
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>864</v>
-      </c>
-      <c r="B418" s="2">
-        <v>2834</v>
-      </c>
-      <c r="C418" s="2">
-        <v>1509</v>
+        <v>834</v>
+      </c>
+      <c r="B418" t="s">
+        <v>296</v>
+      </c>
+      <c r="C418" t="s">
+        <v>504</v>
       </c>
       <c r="D418" t="s">
         <v>10</v>
       </c>
       <c r="E418" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F418" t="s">
-        <v>459</v>
+        <v>501</v>
       </c>
       <c r="G418" t="s">
-        <v>160</v>
+        <v>565</v>
       </c>
       <c r="H418" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="I418" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="J418" t="s">
-        <v>866</v>
+        <v>10</v>
       </c>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>864</v>
-      </c>
-      <c r="B419" s="2">
-        <v>2841</v>
-      </c>
-      <c r="C419" s="2">
-        <v>1516</v>
+        <v>834</v>
+      </c>
+      <c r="B419" t="s">
+        <v>296</v>
+      </c>
+      <c r="C419" t="s">
+        <v>505</v>
       </c>
       <c r="D419" t="s">
         <v>10</v>
       </c>
       <c r="E419" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F419" t="s">
-        <v>459</v>
+        <v>501</v>
       </c>
       <c r="G419" t="s">
-        <v>160</v>
+        <v>565</v>
       </c>
       <c r="H419" t="s">
-        <v>962</v>
+        <v>712</v>
       </c>
       <c r="I419" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="J419" t="s">
-        <v>866</v>
+        <v>10</v>
       </c>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>864</v>
-      </c>
-      <c r="B420" s="2">
-        <v>2879</v>
-      </c>
-      <c r="C420" s="2">
-        <v>4227</v>
+        <v>834</v>
+      </c>
+      <c r="B420" t="s">
+        <v>296</v>
+      </c>
+      <c r="C420" t="s">
+        <v>506</v>
       </c>
       <c r="D420" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E420" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F420" t="s">
-        <v>459</v>
+        <v>501</v>
       </c>
       <c r="G420" t="s">
-        <v>160</v>
+        <v>565</v>
       </c>
       <c r="H420" t="s">
-        <v>963</v>
+        <v>661</v>
       </c>
       <c r="I420" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="J420" t="s">
-        <v>964</v>
+        <v>10</v>
       </c>
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>864</v>
-      </c>
-      <c r="B421" s="2">
-        <v>2889</v>
-      </c>
-      <c r="C421" s="2">
-        <v>4324</v>
+        <v>834</v>
+      </c>
+      <c r="B421" t="s">
+        <v>296</v>
+      </c>
+      <c r="C421" t="s">
+        <v>507</v>
       </c>
       <c r="D421" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E421" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F421" t="s">
-        <v>459</v>
+        <v>508</v>
       </c>
       <c r="G421" t="s">
-        <v>160</v>
+        <v>563</v>
       </c>
       <c r="H421" t="s">
-        <v>965</v>
+        <v>723</v>
       </c>
       <c r="I421" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="J421" t="s">
-        <v>966</v>
+        <v>10</v>
       </c>
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>864</v>
-      </c>
-      <c r="B422" s="2">
-        <v>2900</v>
-      </c>
-      <c r="C422" s="2">
-        <v>4245</v>
+        <v>834</v>
+      </c>
+      <c r="B422" t="s">
+        <v>296</v>
+      </c>
+      <c r="C422" t="s">
+        <v>509</v>
       </c>
       <c r="D422" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E422" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F422" t="s">
-        <v>459</v>
+        <v>508</v>
       </c>
       <c r="G422" t="s">
-        <v>160</v>
+        <v>563</v>
       </c>
       <c r="H422" t="s">
-        <v>967</v>
+        <v>725</v>
       </c>
       <c r="I422" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="J422" t="s">
-        <v>968</v>
+        <v>10</v>
       </c>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>864</v>
-      </c>
-      <c r="B423" s="2">
-        <v>3253</v>
-      </c>
-      <c r="C423" s="2">
-        <v>1176</v>
+        <v>834</v>
+      </c>
+      <c r="B423" t="s">
+        <v>296</v>
+      </c>
+      <c r="C423" t="s">
+        <v>510</v>
       </c>
       <c r="D423" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E423" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F423" t="s">
-        <v>466</v>
+        <v>508</v>
       </c>
       <c r="G423" t="s">
-        <v>159</v>
+        <v>563</v>
       </c>
       <c r="H423" t="s">
-        <v>699</v>
+        <v>726</v>
       </c>
       <c r="I423" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="J423" t="s">
-        <v>866</v>
+        <v>822</v>
       </c>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>864</v>
-      </c>
-      <c r="B424" s="2">
-        <v>3832</v>
-      </c>
-      <c r="C424" s="2">
-        <v>1082</v>
+        <v>834</v>
+      </c>
+      <c r="B424" t="s">
+        <v>296</v>
+      </c>
+      <c r="C424" t="s">
+        <v>511</v>
       </c>
       <c r="D424" t="s">
         <v>10</v>
       </c>
       <c r="E424" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F424" t="s">
-        <v>473</v>
+        <v>508</v>
       </c>
       <c r="G424" t="s">
-        <v>159</v>
+        <v>563</v>
       </c>
       <c r="H424" t="s">
-        <v>692</v>
+        <v>727</v>
       </c>
       <c r="I424" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J424" t="s">
-        <v>866</v>
+        <v>10</v>
       </c>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>864</v>
-      </c>
-      <c r="B425" s="2">
-        <v>3843</v>
-      </c>
-      <c r="C425" s="2">
-        <v>1093</v>
+        <v>834</v>
+      </c>
+      <c r="B425" t="s">
+        <v>296</v>
+      </c>
+      <c r="C425" t="s">
+        <v>512</v>
       </c>
       <c r="D425" t="s">
         <v>10</v>
       </c>
       <c r="E425" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F425" t="s">
-        <v>473</v>
+        <v>508</v>
       </c>
       <c r="G425" t="s">
-        <v>159</v>
+        <v>563</v>
       </c>
       <c r="H425" t="s">
-        <v>637</v>
+        <v>659</v>
       </c>
       <c r="I425" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J425" t="s">
-        <v>866</v>
+        <v>10</v>
       </c>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>864</v>
-      </c>
-      <c r="B426" s="2">
-        <v>3848</v>
-      </c>
-      <c r="C426" s="2">
-        <v>1098</v>
+        <v>834</v>
+      </c>
+      <c r="B426" t="s">
+        <v>296</v>
+      </c>
+      <c r="C426" t="s">
+        <v>513</v>
       </c>
       <c r="D426" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E426" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F426" t="s">
-        <v>473</v>
+        <v>508</v>
       </c>
       <c r="G426" t="s">
-        <v>159</v>
+        <v>563</v>
       </c>
       <c r="H426" t="s">
-        <v>969</v>
+        <v>728</v>
       </c>
       <c r="I426" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J426" t="s">
-        <v>866</v>
+        <v>823</v>
       </c>
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>864</v>
-      </c>
-      <c r="B427" s="2">
-        <v>3864</v>
-      </c>
-      <c r="C427" s="2">
-        <v>3659</v>
+        <v>834</v>
+      </c>
+      <c r="B427" t="s">
+        <v>296</v>
+      </c>
+      <c r="C427" t="s">
+        <v>514</v>
       </c>
       <c r="D427" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E427" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F427" t="s">
-        <v>473</v>
+        <v>515</v>
       </c>
       <c r="G427" t="s">
-        <v>159</v>
+        <v>565</v>
       </c>
       <c r="H427" t="s">
-        <v>970</v>
+        <v>661</v>
       </c>
       <c r="I427" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J427" t="s">
-        <v>971</v>
+        <v>10</v>
       </c>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>864</v>
-      </c>
-      <c r="B428" s="2">
-        <v>3872</v>
-      </c>
-      <c r="C428" s="2">
-        <v>3667</v>
+        <v>834</v>
+      </c>
+      <c r="B428" t="s">
+        <v>296</v>
+      </c>
+      <c r="C428" t="s">
+        <v>516</v>
       </c>
       <c r="D428" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E428" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F428" t="s">
-        <v>473</v>
+        <v>515</v>
       </c>
       <c r="G428" t="s">
-        <v>159</v>
+        <v>565</v>
       </c>
       <c r="H428" t="s">
-        <v>705</v>
+        <v>729</v>
       </c>
       <c r="I428" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J428" t="s">
-        <v>812</v>
+        <v>10</v>
       </c>
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>864</v>
-      </c>
-      <c r="B429" s="2">
-        <v>3874</v>
-      </c>
-      <c r="C429" s="2">
-        <v>3669</v>
+        <v>834</v>
+      </c>
+      <c r="B429" t="s">
+        <v>296</v>
+      </c>
+      <c r="C429" t="s">
+        <v>517</v>
       </c>
       <c r="D429" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E429" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F429" t="s">
-        <v>473</v>
+        <v>515</v>
       </c>
       <c r="G429" t="s">
-        <v>159</v>
+        <v>565</v>
       </c>
       <c r="H429" t="s">
-        <v>972</v>
+        <v>730</v>
       </c>
       <c r="I429" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J429" t="s">
-        <v>973</v>
+        <v>10</v>
       </c>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>864</v>
-      </c>
-      <c r="B430" s="2">
-        <v>3879</v>
-      </c>
-      <c r="C430" s="2">
-        <v>3674</v>
+        <v>834</v>
+      </c>
+      <c r="B430" t="s">
+        <v>296</v>
+      </c>
+      <c r="C430" t="s">
+        <v>518</v>
       </c>
       <c r="D430" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E430" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F430" t="s">
-        <v>473</v>
+        <v>515</v>
       </c>
       <c r="G430" t="s">
-        <v>159</v>
+        <v>565</v>
       </c>
       <c r="H430" t="s">
-        <v>706</v>
+        <v>731</v>
       </c>
       <c r="I430" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J430" t="s">
-        <v>813</v>
+        <v>10</v>
       </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>864</v>
-      </c>
-      <c r="B431" s="2">
-        <v>4059</v>
-      </c>
-      <c r="C431" s="2">
-        <v>3316</v>
+        <v>834</v>
+      </c>
+      <c r="B431" t="s">
+        <v>296</v>
+      </c>
+      <c r="C431" t="s">
+        <v>519</v>
       </c>
       <c r="D431" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E431" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="F431" t="s">
-        <v>487</v>
+        <v>515</v>
       </c>
       <c r="G431" t="s">
-        <v>158</v>
+        <v>565</v>
       </c>
       <c r="H431" t="s">
-        <v>974</v>
+        <v>567</v>
       </c>
       <c r="I431" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="J431" t="s">
-        <v>975</v>
+        <v>10</v>
       </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>864</v>
-      </c>
-      <c r="B432" s="2">
-        <v>4092</v>
-      </c>
-      <c r="C432" s="2">
-        <v>3711</v>
+        <v>834</v>
+      </c>
+      <c r="B432" t="s">
+        <v>296</v>
+      </c>
+      <c r="C432" t="s">
+        <v>520</v>
       </c>
       <c r="D432" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E432" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="F432" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="G432" t="s">
-        <v>159</v>
+        <v>565</v>
       </c>
       <c r="H432" t="s">
-        <v>976</v>
+        <v>723</v>
       </c>
       <c r="I432" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="J432" t="s">
-        <v>977</v>
+        <v>10</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>864</v>
-      </c>
-      <c r="B433" s="2">
-        <v>4172</v>
-      </c>
-      <c r="C433" s="2">
-        <v>3148</v>
+        <v>834</v>
+      </c>
+      <c r="B433" t="s">
+        <v>296</v>
+      </c>
+      <c r="C433" t="s">
+        <v>521</v>
       </c>
       <c r="D433" t="s">
         <v>22</v>
@@ -17286,30 +17094,30 @@
         <v>298</v>
       </c>
       <c r="F433" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="G433" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H433" t="s">
-        <v>978</v>
+        <v>732</v>
       </c>
       <c r="I433" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="J433" t="s">
-        <v>979</v>
+        <v>270</v>
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>864</v>
-      </c>
-      <c r="B434" s="2">
-        <v>4231</v>
-      </c>
-      <c r="C434" s="2">
-        <v>999</v>
+        <v>834</v>
+      </c>
+      <c r="B434" t="s">
+        <v>296</v>
+      </c>
+      <c r="C434" t="s">
+        <v>523</v>
       </c>
       <c r="D434" t="s">
         <v>10</v>
@@ -17318,222 +17126,222 @@
         <v>298</v>
       </c>
       <c r="F434" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="G434" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="H434" t="s">
-        <v>980</v>
+        <v>733</v>
       </c>
       <c r="I434" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="J434" t="s">
-        <v>866</v>
+        <v>10</v>
       </c>
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>864</v>
-      </c>
-      <c r="B435" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="C435">
-        <v>950</v>
+        <v>834</v>
+      </c>
+      <c r="B435" t="s">
+        <v>296</v>
+      </c>
+      <c r="C435" t="s">
+        <v>524</v>
       </c>
       <c r="D435" t="s">
-        <v>981</v>
+        <v>10</v>
       </c>
       <c r="E435" t="s">
         <v>298</v>
       </c>
       <c r="F435" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="G435" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="H435" t="s">
-        <v>895</v>
+        <v>734</v>
       </c>
       <c r="I435" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="J435" t="s">
-        <v>866</v>
+        <v>10</v>
       </c>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>864</v>
-      </c>
-      <c r="B436" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="C436">
-        <v>489</v>
+        <v>834</v>
+      </c>
+      <c r="B436" t="s">
+        <v>296</v>
+      </c>
+      <c r="C436" t="s">
+        <v>525</v>
       </c>
       <c r="D436" t="s">
-        <v>981</v>
+        <v>22</v>
       </c>
       <c r="E436" t="s">
         <v>298</v>
       </c>
       <c r="F436" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="G436" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H436" t="s">
-        <v>731</v>
+        <v>571</v>
       </c>
       <c r="I436" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="J436" t="s">
-        <v>866</v>
+        <v>769</v>
       </c>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>864</v>
-      </c>
-      <c r="B437" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="C437">
-        <v>2637</v>
+        <v>834</v>
+      </c>
+      <c r="B437" t="s">
+        <v>296</v>
+      </c>
+      <c r="C437" t="s">
+        <v>526</v>
       </c>
       <c r="D437" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E437" t="s">
         <v>298</v>
       </c>
       <c r="F437" t="s">
-        <v>348</v>
+        <v>522</v>
       </c>
       <c r="G437" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="H437" t="s">
-        <v>982</v>
+        <v>588</v>
       </c>
       <c r="I437" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="J437" t="s">
-        <v>782</v>
+        <v>10</v>
       </c>
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>864</v>
-      </c>
-      <c r="B438" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="C438">
-        <v>3107</v>
+        <v>834</v>
+      </c>
+      <c r="B438" t="s">
+        <v>296</v>
+      </c>
+      <c r="C438" t="s">
+        <v>527</v>
       </c>
       <c r="D438" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E438" t="s">
         <v>298</v>
       </c>
       <c r="F438" t="s">
-        <v>480</v>
+        <v>522</v>
       </c>
       <c r="G438" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H438" t="s">
-        <v>983</v>
+        <v>735</v>
       </c>
       <c r="I438" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="J438" t="s">
-        <v>778</v>
+        <v>10</v>
       </c>
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>864</v>
-      </c>
-      <c r="B439" s="2">
-        <v>338</v>
-      </c>
-      <c r="C439" s="2" t="s">
-        <v>866</v>
+        <v>834</v>
+      </c>
+      <c r="B439" t="s">
+        <v>296</v>
+      </c>
+      <c r="C439" t="s">
+        <v>528</v>
       </c>
       <c r="D439" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E439" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F439" t="s">
-        <v>326</v>
+        <v>529</v>
       </c>
       <c r="G439" t="s">
-        <v>159</v>
+        <v>565</v>
       </c>
       <c r="H439" t="s">
-        <v>984</v>
+        <v>736</v>
       </c>
       <c r="I439" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="J439" t="s">
-        <v>295</v>
+        <v>10</v>
       </c>
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>864</v>
-      </c>
-      <c r="B440" s="2">
-        <v>509</v>
-      </c>
-      <c r="C440" s="2" t="s">
-        <v>866</v>
+        <v>834</v>
+      </c>
+      <c r="B440" t="s">
+        <v>296</v>
+      </c>
+      <c r="C440" t="s">
+        <v>530</v>
       </c>
       <c r="D440" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E440" t="s">
         <v>298</v>
       </c>
       <c r="F440" t="s">
-        <v>348</v>
+        <v>529</v>
       </c>
       <c r="G440" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H440" t="s">
-        <v>579</v>
+        <v>737</v>
       </c>
       <c r="I440" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="J440" t="s">
-        <v>866</v>
+        <v>824</v>
       </c>
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>864</v>
-      </c>
-      <c r="B441" s="2">
-        <v>1114</v>
-      </c>
-      <c r="C441" s="2" t="s">
-        <v>866</v>
+        <v>834</v>
+      </c>
+      <c r="B441" t="s">
+        <v>296</v>
+      </c>
+      <c r="C441" t="s">
+        <v>531</v>
       </c>
       <c r="D441" t="s">
         <v>22</v>
@@ -17542,126 +17350,126 @@
         <v>298</v>
       </c>
       <c r="F441" t="s">
-        <v>390</v>
+        <v>529</v>
       </c>
       <c r="G441" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H441" t="s">
-        <v>985</v>
+        <v>738</v>
       </c>
       <c r="I441" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="J441" t="s">
-        <v>986</v>
+        <v>825</v>
       </c>
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>864</v>
-      </c>
-      <c r="B442" s="2">
-        <v>1687</v>
-      </c>
-      <c r="C442" s="2" t="s">
-        <v>866</v>
+        <v>834</v>
+      </c>
+      <c r="B442" t="s">
+        <v>296</v>
+      </c>
+      <c r="C442" t="s">
+        <v>532</v>
       </c>
       <c r="D442" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E442" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F442" t="s">
-        <v>417</v>
+        <v>529</v>
       </c>
       <c r="G442" t="s">
-        <v>160</v>
+        <v>565</v>
       </c>
       <c r="H442" t="s">
-        <v>692</v>
+        <v>739</v>
       </c>
       <c r="I442" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J442" t="s">
-        <v>866</v>
+        <v>770</v>
       </c>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>864</v>
-      </c>
-      <c r="B443" s="2">
-        <v>1737</v>
-      </c>
-      <c r="C443" s="2" t="s">
-        <v>866</v>
+        <v>834</v>
+      </c>
+      <c r="B443" t="s">
+        <v>296</v>
+      </c>
+      <c r="C443" t="s">
+        <v>533</v>
       </c>
       <c r="D443" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E443" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F443" t="s">
-        <v>417</v>
+        <v>529</v>
       </c>
       <c r="G443" t="s">
-        <v>160</v>
+        <v>565</v>
       </c>
       <c r="H443" t="s">
-        <v>987</v>
+        <v>740</v>
       </c>
       <c r="I443" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J443" t="s">
-        <v>988</v>
+        <v>10</v>
       </c>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>864</v>
-      </c>
-      <c r="B444" s="2">
-        <v>2457</v>
-      </c>
-      <c r="C444" s="2" t="s">
-        <v>866</v>
+        <v>834</v>
+      </c>
+      <c r="B444" t="s">
+        <v>296</v>
+      </c>
+      <c r="C444" t="s">
+        <v>534</v>
       </c>
       <c r="D444" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E444" t="s">
         <v>298</v>
       </c>
       <c r="F444" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G444" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H444" t="s">
-        <v>894</v>
+        <v>741</v>
       </c>
       <c r="I444" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="J444" t="s">
-        <v>866</v>
+        <v>826</v>
       </c>
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>864</v>
-      </c>
-      <c r="B445" s="2">
-        <v>2490</v>
-      </c>
-      <c r="C445" s="2" t="s">
-        <v>866</v>
+        <v>834</v>
+      </c>
+      <c r="B445" t="s">
+        <v>296</v>
+      </c>
+      <c r="C445" t="s">
+        <v>535</v>
       </c>
       <c r="D445" t="s">
         <v>10</v>
@@ -17676,27 +17484,27 @@
         <v>563</v>
       </c>
       <c r="H445" t="s">
-        <v>896</v>
+        <v>621</v>
       </c>
       <c r="I445" t="s">
         <v>758</v>
       </c>
       <c r="J445" t="s">
-        <v>866</v>
+        <v>10</v>
       </c>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>864</v>
-      </c>
-      <c r="B446" s="2">
-        <v>2501</v>
-      </c>
-      <c r="C446" s="2" t="s">
-        <v>866</v>
+        <v>834</v>
+      </c>
+      <c r="B446" t="s">
+        <v>296</v>
+      </c>
+      <c r="C446" t="s">
+        <v>537</v>
       </c>
       <c r="D446" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E446" t="s">
         <v>298</v>
@@ -17708,56 +17516,56 @@
         <v>563</v>
       </c>
       <c r="H446" t="s">
-        <v>989</v>
+        <v>742</v>
       </c>
       <c r="I446" t="s">
         <v>758</v>
       </c>
       <c r="J446" t="s">
-        <v>990</v>
+        <v>10</v>
       </c>
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>864</v>
-      </c>
-      <c r="B447" s="2">
-        <v>2599</v>
-      </c>
-      <c r="C447" s="2" t="s">
-        <v>866</v>
+        <v>834</v>
+      </c>
+      <c r="B447" t="s">
+        <v>296</v>
+      </c>
+      <c r="C447" t="s">
+        <v>538</v>
       </c>
       <c r="D447" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E447" t="s">
         <v>298</v>
       </c>
       <c r="F447" t="s">
-        <v>438</v>
+        <v>536</v>
       </c>
       <c r="G447" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H447" t="s">
-        <v>610</v>
+        <v>583</v>
       </c>
       <c r="I447" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="J447" t="s">
-        <v>782</v>
+        <v>10</v>
       </c>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>864</v>
-      </c>
-      <c r="B448" s="2">
-        <v>3949</v>
-      </c>
-      <c r="C448" s="2" t="s">
-        <v>866</v>
+        <v>834</v>
+      </c>
+      <c r="B448" t="s">
+        <v>296</v>
+      </c>
+      <c r="C448" t="s">
+        <v>539</v>
       </c>
       <c r="D448" t="s">
         <v>10</v>
@@ -17766,151 +17574,285 @@
         <v>298</v>
       </c>
       <c r="F448" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
       <c r="G448" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H448" t="s">
-        <v>912</v>
+        <v>743</v>
       </c>
       <c r="I448" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="J448" t="s">
-        <v>866</v>
+        <v>10</v>
       </c>
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>864</v>
-      </c>
-      <c r="B449" s="2">
-        <v>8888</v>
-      </c>
-      <c r="C449" s="2" t="s">
-        <v>866</v>
+        <v>834</v>
+      </c>
+      <c r="B449" t="s">
+        <v>296</v>
+      </c>
+      <c r="C449" t="s">
+        <v>540</v>
       </c>
       <c r="D449" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E449" t="s">
-        <v>991</v>
+        <v>298</v>
       </c>
       <c r="F449" t="s">
-        <v>438</v>
+        <v>536</v>
       </c>
       <c r="G449" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H449" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="I449" t="s">
-        <v>756</v>
+        <v>758</v>
+      </c>
+      <c r="J449" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>834</v>
       </c>
-      <c r="B450" s="2">
-        <v>8888</v>
-      </c>
-      <c r="C450" s="2" t="s">
-        <v>866</v>
+      <c r="B450" t="s">
+        <v>296</v>
+      </c>
+      <c r="C450" t="s">
+        <v>541</v>
       </c>
       <c r="D450" t="s">
         <v>10</v>
       </c>
       <c r="E450" t="s">
-        <v>991</v>
+        <v>298</v>
       </c>
       <c r="F450" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
       <c r="G450" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H450" t="s">
-        <v>912</v>
+        <v>744</v>
       </c>
       <c r="I450" t="s">
-        <v>756</v>
+        <v>758</v>
+      </c>
+      <c r="J450" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>864</v>
-      </c>
-      <c r="B451" s="2">
-        <v>8888</v>
-      </c>
-      <c r="C451" s="2" t="s">
-        <v>866</v>
+        <v>834</v>
+      </c>
+      <c r="B451" t="s">
+        <v>296</v>
+      </c>
+      <c r="C451" t="s">
+        <v>542</v>
       </c>
       <c r="D451" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E451" t="s">
-        <v>991</v>
+        <v>298</v>
       </c>
       <c r="F451" t="s">
-        <v>417</v>
+        <v>543</v>
       </c>
       <c r="G451" t="s">
-        <v>160</v>
+        <v>563</v>
       </c>
       <c r="H451" t="s">
-        <v>987</v>
+        <v>725</v>
       </c>
       <c r="I451" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J451" t="s">
-        <v>988</v>
+        <v>10</v>
       </c>
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>834</v>
       </c>
-      <c r="B452" s="2">
-        <v>8888</v>
-      </c>
-      <c r="C452" s="2" t="s">
-        <v>866</v>
+      <c r="B452" t="s">
+        <v>296</v>
+      </c>
+      <c r="C452" t="s">
+        <v>544</v>
       </c>
       <c r="D452" t="s">
         <v>10</v>
       </c>
       <c r="E452" t="s">
-        <v>991</v>
+        <v>298</v>
       </c>
       <c r="F452" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="G452" t="s">
         <v>563</v>
       </c>
       <c r="H452" t="s">
-        <v>894</v>
+        <v>660</v>
       </c>
       <c r="I452" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="J452" t="s">
-        <v>866</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>834</v>
+      </c>
+      <c r="B453" t="s">
+        <v>296</v>
+      </c>
+      <c r="C453" t="s">
+        <v>545</v>
+      </c>
+      <c r="D453" t="s">
+        <v>10</v>
+      </c>
+      <c r="E453" t="s">
+        <v>298</v>
+      </c>
+      <c r="F453" t="s">
+        <v>543</v>
+      </c>
+      <c r="G453" t="s">
+        <v>563</v>
+      </c>
+      <c r="H453" t="s">
+        <v>745</v>
+      </c>
+      <c r="I453" t="s">
+        <v>756</v>
+      </c>
+      <c r="J453" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>834</v>
+      </c>
+      <c r="B454" t="s">
+        <v>296</v>
+      </c>
+      <c r="C454" t="s">
+        <v>546</v>
+      </c>
+      <c r="D454" t="s">
+        <v>10</v>
+      </c>
+      <c r="E454" t="s">
+        <v>298</v>
+      </c>
+      <c r="F454" t="s">
+        <v>543</v>
+      </c>
+      <c r="G454" t="s">
+        <v>563</v>
+      </c>
+      <c r="H454" t="s">
+        <v>746</v>
+      </c>
+      <c r="I454" t="s">
+        <v>756</v>
+      </c>
+      <c r="J454" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>834</v>
+      </c>
+      <c r="B455" t="s">
+        <v>296</v>
+      </c>
+      <c r="C455" t="s">
+        <v>547</v>
+      </c>
+      <c r="D455" t="s">
+        <v>10</v>
+      </c>
+      <c r="E455" t="s">
+        <v>298</v>
+      </c>
+      <c r="F455" t="s">
+        <v>543</v>
+      </c>
+      <c r="G455" t="s">
+        <v>563</v>
+      </c>
+      <c r="H455" t="s">
+        <v>658</v>
+      </c>
+      <c r="I455" t="s">
+        <v>756</v>
+      </c>
+      <c r="J455" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>834</v>
+      </c>
+      <c r="B456" t="s">
+        <v>296</v>
+      </c>
+      <c r="C456" t="s">
+        <v>548</v>
+      </c>
+      <c r="D456" t="s">
+        <v>22</v>
+      </c>
+      <c r="E456" t="s">
+        <v>298</v>
+      </c>
+      <c r="F456" t="s">
+        <v>543</v>
+      </c>
+      <c r="G456" t="s">
+        <v>563</v>
+      </c>
+      <c r="H456" t="s">
+        <v>747</v>
+      </c>
+      <c r="I456" t="s">
+        <v>756</v>
+      </c>
+      <c r="J456" t="s">
+        <v>827</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K450" xr:uid="{B7A85F72-B3EC-EB4D-A3E1-C70AFE08A3AE}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J448">
-      <sortCondition ref="A1:A448"/>
+  <autoFilter ref="A1:K351" xr:uid="{B7A85F72-B3EC-EB4D-A3E1-C70AFE08A3AE}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J347">
+      <sortCondition ref="A1:A347"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="B246:B452">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  <conditionalFormatting sqref="B246:B351">
+    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17920,8 +17862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB298C69-31B2-5C4D-BF5B-7A9647DF6C97}">
   <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/high_confidence_for_annotation.xlsx
+++ b/high_confidence_for_annotation.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rosydai/Desktop/Master_thesis/Frontend/annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6AC51C-6FD0-C14C-BD60-7C86DDAA496D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA732ABA-B700-4F49-BBDF-2F98166511DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17340" xr2:uid="{DC94E088-820A-3B47-AB40-7E8AE428A805}"/>
+    <workbookView xWindow="2500" yWindow="760" windowWidth="29400" windowHeight="17300" xr2:uid="{DC94E088-820A-3B47-AB40-7E8AE428A805}"/>
   </bookViews>
   <sheets>
     <sheet name="toBeDone" sheetId="1" r:id="rId1"/>
     <sheet name="Raziyeh_high_conf" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">toBeDone!$A$1:$K$351</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">toBeDone!$A$1:$J$456</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5307" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5309" uniqueCount="930">
   <si>
     <t>ID_int</t>
   </si>
@@ -3247,16 +3247,18 @@
   <dimension ref="A1:J456"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B406" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C464" sqref="C464"/>
+      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.83203125" style="2"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -3266,7 +3268,7 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -3278,7 +3280,7 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -3296,10 +3298,10 @@
         <v>834</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>296</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -3328,10 +3330,10 @@
         <v>834</v>
       </c>
       <c r="B3" t="s">
-        <v>296</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>296</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -3360,10 +3362,10 @@
         <v>834</v>
       </c>
       <c r="B4" t="s">
-        <v>296</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>296</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -3392,10 +3394,10 @@
         <v>834</v>
       </c>
       <c r="B5" t="s">
-        <v>296</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -3424,10 +3426,10 @@
         <v>834</v>
       </c>
       <c r="B6" t="s">
-        <v>296</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>296</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -3456,10 +3458,10 @@
         <v>834</v>
       </c>
       <c r="B7" t="s">
-        <v>296</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>296</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -3488,10 +3490,10 @@
         <v>834</v>
       </c>
       <c r="B8" t="s">
-        <v>296</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>296</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -3520,10 +3522,10 @@
         <v>834</v>
       </c>
       <c r="B9" t="s">
-        <v>296</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>296</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -3552,10 +3554,10 @@
         <v>834</v>
       </c>
       <c r="B10" t="s">
-        <v>296</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>296</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -3584,10 +3586,10 @@
         <v>834</v>
       </c>
       <c r="B11" t="s">
-        <v>296</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>296</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -3616,10 +3618,10 @@
         <v>834</v>
       </c>
       <c r="B12" t="s">
-        <v>296</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>296</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -3648,10 +3650,10 @@
         <v>834</v>
       </c>
       <c r="B13" t="s">
-        <v>296</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>296</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -3680,10 +3682,10 @@
         <v>834</v>
       </c>
       <c r="B14" t="s">
-        <v>296</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>296</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -3712,10 +3714,10 @@
         <v>834</v>
       </c>
       <c r="B15" t="s">
-        <v>296</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>296</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -3744,10 +3746,10 @@
         <v>834</v>
       </c>
       <c r="B16" t="s">
-        <v>296</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -3776,10 +3778,10 @@
         <v>834</v>
       </c>
       <c r="B17" t="s">
-        <v>296</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -3808,10 +3810,10 @@
         <v>834</v>
       </c>
       <c r="B18" t="s">
-        <v>296</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>296</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
@@ -3840,10 +3842,10 @@
         <v>834</v>
       </c>
       <c r="B19" t="s">
-        <v>296</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>296</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -3872,10 +3874,10 @@
         <v>834</v>
       </c>
       <c r="B20" t="s">
-        <v>296</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>296</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -3904,10 +3906,10 @@
         <v>834</v>
       </c>
       <c r="B21" t="s">
-        <v>296</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>296</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
@@ -3936,10 +3938,10 @@
         <v>834</v>
       </c>
       <c r="B22" t="s">
-        <v>296</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>296</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -3968,10 +3970,10 @@
         <v>834</v>
       </c>
       <c r="B23" t="s">
-        <v>296</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>296</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
@@ -4000,10 +4002,10 @@
         <v>834</v>
       </c>
       <c r="B24" t="s">
-        <v>296</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>296</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
@@ -4032,10 +4034,10 @@
         <v>834</v>
       </c>
       <c r="B25" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>296</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -4064,10 +4066,10 @@
         <v>834</v>
       </c>
       <c r="B26" t="s">
-        <v>296</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>296</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
@@ -4096,10 +4098,10 @@
         <v>834</v>
       </c>
       <c r="B27" t="s">
-        <v>296</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>296</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
@@ -4128,10 +4130,10 @@
         <v>834</v>
       </c>
       <c r="B28" t="s">
-        <v>296</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>296</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
@@ -4160,10 +4162,10 @@
         <v>834</v>
       </c>
       <c r="B29" t="s">
-        <v>296</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>296</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
@@ -4192,10 +4194,10 @@
         <v>834</v>
       </c>
       <c r="B30" t="s">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
@@ -4224,10 +4226,10 @@
         <v>834</v>
       </c>
       <c r="B31" t="s">
-        <v>296</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>296</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
@@ -4256,10 +4258,10 @@
         <v>834</v>
       </c>
       <c r="B32" t="s">
-        <v>296</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>296</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
@@ -4270,7 +4272,7 @@
       <c r="F32" t="s">
         <v>48</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="2" t="s">
         <v>157</v>
       </c>
       <c r="H32" t="s">
@@ -4288,10 +4290,10 @@
         <v>834</v>
       </c>
       <c r="B33" t="s">
-        <v>296</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>296</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
@@ -4302,7 +4304,7 @@
       <c r="F33" t="s">
         <v>48</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="2" t="s">
         <v>157</v>
       </c>
       <c r="H33" t="s">
@@ -4320,10 +4322,10 @@
         <v>834</v>
       </c>
       <c r="B34" t="s">
-        <v>296</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>296</v>
       </c>
       <c r="D34" t="s">
         <v>10</v>
@@ -4334,7 +4336,7 @@
       <c r="F34" t="s">
         <v>48</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="2" t="s">
         <v>157</v>
       </c>
       <c r="H34" t="s">
@@ -4352,10 +4354,10 @@
         <v>834</v>
       </c>
       <c r="B35" t="s">
-        <v>296</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>296</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
@@ -4366,7 +4368,7 @@
       <c r="F35" t="s">
         <v>48</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="2" t="s">
         <v>157</v>
       </c>
       <c r="H35" t="s">
@@ -4384,10 +4386,10 @@
         <v>834</v>
       </c>
       <c r="B36" t="s">
-        <v>296</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>296</v>
       </c>
       <c r="D36" t="s">
         <v>10</v>
@@ -4398,7 +4400,7 @@
       <c r="F36" t="s">
         <v>48</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="2" t="s">
         <v>157</v>
       </c>
       <c r="H36" t="s">
@@ -4416,10 +4418,10 @@
         <v>834</v>
       </c>
       <c r="B37" t="s">
-        <v>296</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>296</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
@@ -4430,7 +4432,7 @@
       <c r="F37" t="s">
         <v>48</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="2" t="s">
         <v>157</v>
       </c>
       <c r="H37" t="s">
@@ -4448,10 +4450,10 @@
         <v>834</v>
       </c>
       <c r="B38" t="s">
-        <v>296</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>296</v>
       </c>
       <c r="D38" t="s">
         <v>10</v>
@@ -4480,10 +4482,10 @@
         <v>834</v>
       </c>
       <c r="B39" t="s">
-        <v>296</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>296</v>
       </c>
       <c r="D39" t="s">
         <v>22</v>
@@ -4512,10 +4514,10 @@
         <v>834</v>
       </c>
       <c r="B40" t="s">
-        <v>296</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>296</v>
       </c>
       <c r="D40" t="s">
         <v>10</v>
@@ -4544,10 +4546,10 @@
         <v>834</v>
       </c>
       <c r="B41" t="s">
-        <v>296</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>296</v>
       </c>
       <c r="D41" t="s">
         <v>22</v>
@@ -4576,10 +4578,10 @@
         <v>834</v>
       </c>
       <c r="B42" t="s">
-        <v>296</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>296</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
@@ -4608,10 +4610,10 @@
         <v>834</v>
       </c>
       <c r="B43" t="s">
-        <v>296</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>296</v>
       </c>
       <c r="D43" t="s">
         <v>10</v>
@@ -4640,10 +4642,10 @@
         <v>834</v>
       </c>
       <c r="B44" t="s">
-        <v>296</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>296</v>
       </c>
       <c r="D44" t="s">
         <v>10</v>
@@ -4672,10 +4674,10 @@
         <v>834</v>
       </c>
       <c r="B45" t="s">
-        <v>296</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
+        <v>296</v>
       </c>
       <c r="D45" t="s">
         <v>22</v>
@@ -4704,10 +4706,10 @@
         <v>834</v>
       </c>
       <c r="B46" t="s">
-        <v>296</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>64</v>
+        <v>296</v>
       </c>
       <c r="D46" t="s">
         <v>10</v>
@@ -4736,10 +4738,10 @@
         <v>834</v>
       </c>
       <c r="B47" t="s">
-        <v>296</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>296</v>
       </c>
       <c r="D47" t="s">
         <v>10</v>
@@ -4768,10 +4770,10 @@
         <v>834</v>
       </c>
       <c r="B48" t="s">
-        <v>296</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>66</v>
+        <v>296</v>
       </c>
       <c r="D48" t="s">
         <v>10</v>
@@ -4800,10 +4802,10 @@
         <v>834</v>
       </c>
       <c r="B49" t="s">
-        <v>296</v>
+        <v>67</v>
       </c>
       <c r="C49" t="s">
-        <v>67</v>
+        <v>296</v>
       </c>
       <c r="D49" t="s">
         <v>10</v>
@@ -4832,10 +4834,10 @@
         <v>834</v>
       </c>
       <c r="B50" t="s">
-        <v>296</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>68</v>
+        <v>296</v>
       </c>
       <c r="D50" t="s">
         <v>10</v>
@@ -4864,10 +4866,10 @@
         <v>834</v>
       </c>
       <c r="B51" t="s">
-        <v>296</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>70</v>
+        <v>296</v>
       </c>
       <c r="D51" t="s">
         <v>10</v>
@@ -4896,10 +4898,10 @@
         <v>834</v>
       </c>
       <c r="B52" t="s">
-        <v>296</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>71</v>
+        <v>296</v>
       </c>
       <c r="D52" t="s">
         <v>10</v>
@@ -4928,10 +4930,10 @@
         <v>834</v>
       </c>
       <c r="B53" t="s">
-        <v>296</v>
+        <v>72</v>
       </c>
       <c r="C53" t="s">
-        <v>72</v>
+        <v>296</v>
       </c>
       <c r="D53" t="s">
         <v>10</v>
@@ -4960,10 +4962,10 @@
         <v>834</v>
       </c>
       <c r="B54" t="s">
-        <v>296</v>
+        <v>73</v>
       </c>
       <c r="C54" t="s">
-        <v>73</v>
+        <v>296</v>
       </c>
       <c r="D54" t="s">
         <v>10</v>
@@ -4992,10 +4994,10 @@
         <v>834</v>
       </c>
       <c r="B55" t="s">
-        <v>296</v>
+        <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>74</v>
+        <v>296</v>
       </c>
       <c r="D55" t="s">
         <v>10</v>
@@ -5024,10 +5026,10 @@
         <v>834</v>
       </c>
       <c r="B56" t="s">
-        <v>296</v>
+        <v>75</v>
       </c>
       <c r="C56" t="s">
-        <v>75</v>
+        <v>296</v>
       </c>
       <c r="D56" t="s">
         <v>10</v>
@@ -5056,10 +5058,10 @@
         <v>834</v>
       </c>
       <c r="B57" t="s">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="C57" t="s">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="D57" t="s">
         <v>10</v>
@@ -5088,10 +5090,10 @@
         <v>834</v>
       </c>
       <c r="B58" t="s">
-        <v>296</v>
+        <v>78</v>
       </c>
       <c r="C58" t="s">
-        <v>78</v>
+        <v>296</v>
       </c>
       <c r="D58" t="s">
         <v>10</v>
@@ -5120,10 +5122,10 @@
         <v>834</v>
       </c>
       <c r="B59" t="s">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="D59" t="s">
         <v>10</v>
@@ -5152,10 +5154,10 @@
         <v>834</v>
       </c>
       <c r="B60" t="s">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="C60" t="s">
-        <v>80</v>
+        <v>296</v>
       </c>
       <c r="D60" t="s">
         <v>10</v>
@@ -5184,10 +5186,10 @@
         <v>834</v>
       </c>
       <c r="B61" t="s">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="C61" t="s">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="D61" t="s">
         <v>10</v>
@@ -5216,10 +5218,10 @@
         <v>834</v>
       </c>
       <c r="B62" t="s">
-        <v>296</v>
+        <v>82</v>
       </c>
       <c r="C62" t="s">
-        <v>82</v>
+        <v>296</v>
       </c>
       <c r="D62" t="s">
         <v>22</v>
@@ -5248,10 +5250,10 @@
         <v>834</v>
       </c>
       <c r="B63" t="s">
-        <v>296</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>84</v>
+        <v>296</v>
       </c>
       <c r="D63" t="s">
         <v>22</v>
@@ -5280,10 +5282,10 @@
         <v>834</v>
       </c>
       <c r="B64" t="s">
-        <v>296</v>
+        <v>85</v>
       </c>
       <c r="C64" t="s">
-        <v>85</v>
+        <v>296</v>
       </c>
       <c r="D64" t="s">
         <v>22</v>
@@ -5312,10 +5314,10 @@
         <v>834</v>
       </c>
       <c r="B65" t="s">
-        <v>296</v>
+        <v>86</v>
       </c>
       <c r="C65" t="s">
-        <v>86</v>
+        <v>296</v>
       </c>
       <c r="D65" t="s">
         <v>22</v>
@@ -5344,10 +5346,10 @@
         <v>834</v>
       </c>
       <c r="B66" t="s">
-        <v>296</v>
+        <v>87</v>
       </c>
       <c r="C66" t="s">
-        <v>87</v>
+        <v>296</v>
       </c>
       <c r="D66" t="s">
         <v>22</v>
@@ -5376,10 +5378,10 @@
         <v>834</v>
       </c>
       <c r="B67" t="s">
-        <v>296</v>
+        <v>88</v>
       </c>
       <c r="C67" t="s">
-        <v>88</v>
+        <v>296</v>
       </c>
       <c r="D67" t="s">
         <v>22</v>
@@ -5408,10 +5410,10 @@
         <v>834</v>
       </c>
       <c r="B68" t="s">
-        <v>296</v>
+        <v>89</v>
       </c>
       <c r="C68" t="s">
-        <v>89</v>
+        <v>296</v>
       </c>
       <c r="D68" t="s">
         <v>22</v>
@@ -5440,10 +5442,10 @@
         <v>834</v>
       </c>
       <c r="B69" t="s">
-        <v>296</v>
+        <v>91</v>
       </c>
       <c r="C69" t="s">
-        <v>91</v>
+        <v>296</v>
       </c>
       <c r="D69" t="s">
         <v>22</v>
@@ -5472,10 +5474,10 @@
         <v>834</v>
       </c>
       <c r="B70" t="s">
-        <v>296</v>
+        <v>92</v>
       </c>
       <c r="C70" t="s">
-        <v>92</v>
+        <v>296</v>
       </c>
       <c r="D70" t="s">
         <v>10</v>
@@ -5504,10 +5506,10 @@
         <v>834</v>
       </c>
       <c r="B71" t="s">
-        <v>296</v>
+        <v>93</v>
       </c>
       <c r="C71" t="s">
-        <v>93</v>
+        <v>296</v>
       </c>
       <c r="D71" t="s">
         <v>22</v>
@@ -5536,10 +5538,10 @@
         <v>834</v>
       </c>
       <c r="B72" t="s">
-        <v>296</v>
+        <v>94</v>
       </c>
       <c r="C72" t="s">
-        <v>94</v>
+        <v>296</v>
       </c>
       <c r="D72" t="s">
         <v>22</v>
@@ -5568,10 +5570,10 @@
         <v>834</v>
       </c>
       <c r="B73" t="s">
-        <v>296</v>
+        <v>95</v>
       </c>
       <c r="C73" t="s">
-        <v>95</v>
+        <v>296</v>
       </c>
       <c r="D73" t="s">
         <v>22</v>
@@ -5600,10 +5602,10 @@
         <v>834</v>
       </c>
       <c r="B74" t="s">
-        <v>296</v>
+        <v>96</v>
       </c>
       <c r="C74" t="s">
-        <v>96</v>
+        <v>296</v>
       </c>
       <c r="D74" t="s">
         <v>10</v>
@@ -5632,10 +5634,10 @@
         <v>834</v>
       </c>
       <c r="B75" t="s">
-        <v>296</v>
+        <v>98</v>
       </c>
       <c r="C75" t="s">
-        <v>98</v>
+        <v>296</v>
       </c>
       <c r="D75" t="s">
         <v>10</v>
@@ -5664,10 +5666,10 @@
         <v>834</v>
       </c>
       <c r="B76" t="s">
-        <v>296</v>
+        <v>99</v>
       </c>
       <c r="C76" t="s">
-        <v>99</v>
+        <v>296</v>
       </c>
       <c r="D76" t="s">
         <v>22</v>
@@ -5696,10 +5698,10 @@
         <v>834</v>
       </c>
       <c r="B77" t="s">
-        <v>296</v>
+        <v>100</v>
       </c>
       <c r="C77" t="s">
-        <v>100</v>
+        <v>296</v>
       </c>
       <c r="D77" t="s">
         <v>10</v>
@@ -5728,10 +5730,10 @@
         <v>834</v>
       </c>
       <c r="B78" t="s">
-        <v>296</v>
+        <v>101</v>
       </c>
       <c r="C78" t="s">
-        <v>101</v>
+        <v>296</v>
       </c>
       <c r="D78" t="s">
         <v>22</v>
@@ -5760,10 +5762,10 @@
         <v>834</v>
       </c>
       <c r="B79" t="s">
-        <v>296</v>
+        <v>102</v>
       </c>
       <c r="C79" t="s">
-        <v>102</v>
+        <v>296</v>
       </c>
       <c r="D79" t="s">
         <v>22</v>
@@ -5792,10 +5794,10 @@
         <v>834</v>
       </c>
       <c r="B80" t="s">
-        <v>296</v>
+        <v>103</v>
       </c>
       <c r="C80" t="s">
-        <v>103</v>
+        <v>296</v>
       </c>
       <c r="D80" t="s">
         <v>22</v>
@@ -5824,10 +5826,10 @@
         <v>834</v>
       </c>
       <c r="B81" t="s">
-        <v>296</v>
+        <v>105</v>
       </c>
       <c r="C81" t="s">
-        <v>105</v>
+        <v>296</v>
       </c>
       <c r="D81" t="s">
         <v>22</v>
@@ -5856,10 +5858,10 @@
         <v>834</v>
       </c>
       <c r="B82" t="s">
-        <v>296</v>
+        <v>106</v>
       </c>
       <c r="C82" t="s">
-        <v>106</v>
+        <v>296</v>
       </c>
       <c r="D82" t="s">
         <v>22</v>
@@ -5888,10 +5890,10 @@
         <v>834</v>
       </c>
       <c r="B83" t="s">
-        <v>296</v>
+        <v>107</v>
       </c>
       <c r="C83" t="s">
-        <v>107</v>
+        <v>296</v>
       </c>
       <c r="D83" t="s">
         <v>10</v>
@@ -5920,10 +5922,10 @@
         <v>834</v>
       </c>
       <c r="B84" t="s">
-        <v>296</v>
+        <v>108</v>
       </c>
       <c r="C84" t="s">
-        <v>108</v>
+        <v>296</v>
       </c>
       <c r="D84" t="s">
         <v>10</v>
@@ -5952,10 +5954,10 @@
         <v>834</v>
       </c>
       <c r="B85" t="s">
-        <v>296</v>
+        <v>109</v>
       </c>
       <c r="C85" t="s">
-        <v>109</v>
+        <v>296</v>
       </c>
       <c r="D85" t="s">
         <v>10</v>
@@ -5984,10 +5986,10 @@
         <v>834</v>
       </c>
       <c r="B86" t="s">
-        <v>296</v>
+        <v>110</v>
       </c>
       <c r="C86" t="s">
-        <v>110</v>
+        <v>296</v>
       </c>
       <c r="D86" t="s">
         <v>10</v>
@@ -6016,10 +6018,10 @@
         <v>834</v>
       </c>
       <c r="B87" t="s">
-        <v>296</v>
+        <v>112</v>
       </c>
       <c r="C87" t="s">
-        <v>112</v>
+        <v>296</v>
       </c>
       <c r="D87" t="s">
         <v>10</v>
@@ -6048,10 +6050,10 @@
         <v>834</v>
       </c>
       <c r="B88" t="s">
-        <v>296</v>
+        <v>113</v>
       </c>
       <c r="C88" t="s">
-        <v>113</v>
+        <v>296</v>
       </c>
       <c r="D88" t="s">
         <v>10</v>
@@ -6080,10 +6082,10 @@
         <v>834</v>
       </c>
       <c r="B89" t="s">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="C89" t="s">
-        <v>114</v>
+        <v>296</v>
       </c>
       <c r="D89" t="s">
         <v>10</v>
@@ -6112,10 +6114,10 @@
         <v>834</v>
       </c>
       <c r="B90" t="s">
-        <v>296</v>
+        <v>115</v>
       </c>
       <c r="C90" t="s">
-        <v>115</v>
+        <v>296</v>
       </c>
       <c r="D90" t="s">
         <v>10</v>
@@ -6144,10 +6146,10 @@
         <v>834</v>
       </c>
       <c r="B91" t="s">
-        <v>296</v>
+        <v>116</v>
       </c>
       <c r="C91" t="s">
-        <v>116</v>
+        <v>296</v>
       </c>
       <c r="D91" t="s">
         <v>10</v>
@@ -6176,10 +6178,10 @@
         <v>834</v>
       </c>
       <c r="B92" t="s">
-        <v>296</v>
+        <v>117</v>
       </c>
       <c r="C92" t="s">
-        <v>117</v>
+        <v>296</v>
       </c>
       <c r="D92" t="s">
         <v>10</v>
@@ -6208,10 +6210,10 @@
         <v>834</v>
       </c>
       <c r="B93" t="s">
-        <v>296</v>
+        <v>119</v>
       </c>
       <c r="C93" t="s">
-        <v>119</v>
+        <v>296</v>
       </c>
       <c r="D93" t="s">
         <v>10</v>
@@ -6240,10 +6242,10 @@
         <v>834</v>
       </c>
       <c r="B94" t="s">
-        <v>296</v>
+        <v>120</v>
       </c>
       <c r="C94" t="s">
-        <v>120</v>
+        <v>296</v>
       </c>
       <c r="D94" t="s">
         <v>10</v>
@@ -6272,10 +6274,10 @@
         <v>834</v>
       </c>
       <c r="B95" t="s">
-        <v>296</v>
+        <v>121</v>
       </c>
       <c r="C95" t="s">
-        <v>121</v>
+        <v>296</v>
       </c>
       <c r="D95" t="s">
         <v>10</v>
@@ -6304,10 +6306,10 @@
         <v>834</v>
       </c>
       <c r="B96" t="s">
-        <v>296</v>
+        <v>122</v>
       </c>
       <c r="C96" t="s">
-        <v>122</v>
+        <v>296</v>
       </c>
       <c r="D96" t="s">
         <v>22</v>
@@ -6336,10 +6338,10 @@
         <v>834</v>
       </c>
       <c r="B97" t="s">
-        <v>296</v>
+        <v>123</v>
       </c>
       <c r="C97" t="s">
-        <v>123</v>
+        <v>296</v>
       </c>
       <c r="D97" t="s">
         <v>22</v>
@@ -6368,10 +6370,10 @@
         <v>834</v>
       </c>
       <c r="B98" t="s">
-        <v>296</v>
+        <v>124</v>
       </c>
       <c r="C98" t="s">
-        <v>124</v>
+        <v>296</v>
       </c>
       <c r="D98" t="s">
         <v>10</v>
@@ -6400,10 +6402,10 @@
         <v>834</v>
       </c>
       <c r="B99" t="s">
-        <v>296</v>
+        <v>126</v>
       </c>
       <c r="C99" t="s">
-        <v>126</v>
+        <v>296</v>
       </c>
       <c r="D99" t="s">
         <v>10</v>
@@ -6432,10 +6434,10 @@
         <v>834</v>
       </c>
       <c r="B100" t="s">
-        <v>296</v>
+        <v>127</v>
       </c>
       <c r="C100" t="s">
-        <v>127</v>
+        <v>296</v>
       </c>
       <c r="D100" t="s">
         <v>10</v>
@@ -6464,10 +6466,10 @@
         <v>834</v>
       </c>
       <c r="B101" t="s">
-        <v>296</v>
+        <v>128</v>
       </c>
       <c r="C101" t="s">
-        <v>128</v>
+        <v>296</v>
       </c>
       <c r="D101" t="s">
         <v>10</v>
@@ -6496,10 +6498,10 @@
         <v>834</v>
       </c>
       <c r="B102" t="s">
-        <v>296</v>
+        <v>129</v>
       </c>
       <c r="C102" t="s">
-        <v>129</v>
+        <v>296</v>
       </c>
       <c r="D102" t="s">
         <v>10</v>
@@ -6528,10 +6530,10 @@
         <v>834</v>
       </c>
       <c r="B103" t="s">
-        <v>296</v>
+        <v>131</v>
       </c>
       <c r="C103" t="s">
-        <v>131</v>
+        <v>296</v>
       </c>
       <c r="D103" t="s">
         <v>22</v>
@@ -6560,10 +6562,10 @@
         <v>834</v>
       </c>
       <c r="B104" t="s">
-        <v>296</v>
+        <v>132</v>
       </c>
       <c r="C104" t="s">
-        <v>132</v>
+        <v>296</v>
       </c>
       <c r="D104" t="s">
         <v>10</v>
@@ -6592,10 +6594,10 @@
         <v>834</v>
       </c>
       <c r="B105" t="s">
-        <v>296</v>
+        <v>133</v>
       </c>
       <c r="C105" t="s">
-        <v>133</v>
+        <v>296</v>
       </c>
       <c r="D105" t="s">
         <v>22</v>
@@ -6624,10 +6626,10 @@
         <v>834</v>
       </c>
       <c r="B106" t="s">
-        <v>296</v>
+        <v>134</v>
       </c>
       <c r="C106" t="s">
-        <v>134</v>
+        <v>296</v>
       </c>
       <c r="D106" t="s">
         <v>10</v>
@@ -6656,10 +6658,10 @@
         <v>834</v>
       </c>
       <c r="B107" t="s">
-        <v>296</v>
+        <v>135</v>
       </c>
       <c r="C107" t="s">
-        <v>135</v>
+        <v>296</v>
       </c>
       <c r="D107" t="s">
         <v>22</v>
@@ -6688,10 +6690,10 @@
         <v>834</v>
       </c>
       <c r="B108" t="s">
-        <v>296</v>
+        <v>136</v>
       </c>
       <c r="C108" t="s">
-        <v>136</v>
+        <v>296</v>
       </c>
       <c r="D108" t="s">
         <v>10</v>
@@ -6720,10 +6722,10 @@
         <v>834</v>
       </c>
       <c r="B109" t="s">
-        <v>296</v>
+        <v>138</v>
       </c>
       <c r="C109" t="s">
-        <v>138</v>
+        <v>296</v>
       </c>
       <c r="D109" t="s">
         <v>10</v>
@@ -6752,10 +6754,10 @@
         <v>834</v>
       </c>
       <c r="B110" t="s">
-        <v>296</v>
+        <v>139</v>
       </c>
       <c r="C110" t="s">
-        <v>139</v>
+        <v>296</v>
       </c>
       <c r="D110" t="s">
         <v>22</v>
@@ -6784,10 +6786,10 @@
         <v>834</v>
       </c>
       <c r="B111" t="s">
-        <v>296</v>
+        <v>140</v>
       </c>
       <c r="C111" t="s">
-        <v>140</v>
+        <v>296</v>
       </c>
       <c r="D111" t="s">
         <v>10</v>
@@ -6816,10 +6818,10 @@
         <v>834</v>
       </c>
       <c r="B112" t="s">
-        <v>296</v>
+        <v>141</v>
       </c>
       <c r="C112" t="s">
-        <v>141</v>
+        <v>296</v>
       </c>
       <c r="D112" t="s">
         <v>22</v>
@@ -6848,10 +6850,10 @@
         <v>834</v>
       </c>
       <c r="B113" t="s">
-        <v>296</v>
+        <v>142</v>
       </c>
       <c r="C113" t="s">
-        <v>142</v>
+        <v>296</v>
       </c>
       <c r="D113" t="s">
         <v>22</v>
@@ -6880,10 +6882,10 @@
         <v>834</v>
       </c>
       <c r="B114" t="s">
-        <v>296</v>
+        <v>143</v>
       </c>
       <c r="C114" t="s">
-        <v>143</v>
+        <v>296</v>
       </c>
       <c r="D114" t="s">
         <v>10</v>
@@ -6912,10 +6914,10 @@
         <v>834</v>
       </c>
       <c r="B115" t="s">
-        <v>296</v>
+        <v>145</v>
       </c>
       <c r="C115" t="s">
-        <v>145</v>
+        <v>296</v>
       </c>
       <c r="D115" t="s">
         <v>10</v>
@@ -6944,10 +6946,10 @@
         <v>834</v>
       </c>
       <c r="B116" t="s">
-        <v>296</v>
+        <v>146</v>
       </c>
       <c r="C116" t="s">
-        <v>146</v>
+        <v>296</v>
       </c>
       <c r="D116" t="s">
         <v>10</v>
@@ -6976,10 +6978,10 @@
         <v>834</v>
       </c>
       <c r="B117" t="s">
-        <v>296</v>
+        <v>147</v>
       </c>
       <c r="C117" t="s">
-        <v>147</v>
+        <v>296</v>
       </c>
       <c r="D117" t="s">
         <v>10</v>
@@ -7008,10 +7010,10 @@
         <v>834</v>
       </c>
       <c r="B118" t="s">
-        <v>296</v>
+        <v>148</v>
       </c>
       <c r="C118" t="s">
-        <v>148</v>
+        <v>296</v>
       </c>
       <c r="D118" t="s">
         <v>10</v>
@@ -7040,10 +7042,10 @@
         <v>834</v>
       </c>
       <c r="B119" t="s">
-        <v>296</v>
+        <v>149</v>
       </c>
       <c r="C119" t="s">
-        <v>149</v>
+        <v>296</v>
       </c>
       <c r="D119" t="s">
         <v>10</v>
@@ -7072,10 +7074,10 @@
         <v>834</v>
       </c>
       <c r="B120" t="s">
-        <v>296</v>
+        <v>150</v>
       </c>
       <c r="C120" t="s">
-        <v>150</v>
+        <v>296</v>
       </c>
       <c r="D120" t="s">
         <v>22</v>
@@ -7104,10 +7106,10 @@
         <v>834</v>
       </c>
       <c r="B121" t="s">
-        <v>296</v>
+        <v>152</v>
       </c>
       <c r="C121" t="s">
-        <v>152</v>
+        <v>296</v>
       </c>
       <c r="D121" t="s">
         <v>22</v>
@@ -7136,10 +7138,10 @@
         <v>834</v>
       </c>
       <c r="B122" t="s">
-        <v>296</v>
+        <v>153</v>
       </c>
       <c r="C122" t="s">
-        <v>153</v>
+        <v>296</v>
       </c>
       <c r="D122" t="s">
         <v>22</v>
@@ -7168,10 +7170,10 @@
         <v>834</v>
       </c>
       <c r="B123" t="s">
-        <v>296</v>
+        <v>154</v>
       </c>
       <c r="C123" t="s">
-        <v>154</v>
+        <v>296</v>
       </c>
       <c r="D123" t="s">
         <v>10</v>
@@ -7200,10 +7202,10 @@
         <v>834</v>
       </c>
       <c r="B124" t="s">
-        <v>296</v>
+        <v>155</v>
       </c>
       <c r="C124" t="s">
-        <v>155</v>
+        <v>296</v>
       </c>
       <c r="D124" t="s">
         <v>10</v>
@@ -7232,10 +7234,10 @@
         <v>834</v>
       </c>
       <c r="B125" t="s">
-        <v>296</v>
+        <v>156</v>
       </c>
       <c r="C125" t="s">
-        <v>156</v>
+        <v>296</v>
       </c>
       <c r="D125" t="s">
         <v>22</v>
@@ -7264,10 +7266,10 @@
         <v>834</v>
       </c>
       <c r="B126" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C126" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D126" t="s">
         <v>22</v>
@@ -7296,10 +7298,10 @@
         <v>834</v>
       </c>
       <c r="B127" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="C127" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D127" t="s">
         <v>22</v>
@@ -7328,10 +7330,10 @@
         <v>834</v>
       </c>
       <c r="B128" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="C128" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="D128" t="s">
         <v>10</v>
@@ -7360,10 +7362,10 @@
         <v>834</v>
       </c>
       <c r="B129" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="C129" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="D129" t="s">
         <v>22</v>
@@ -7392,10 +7394,10 @@
         <v>834</v>
       </c>
       <c r="B130" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="C130" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="D130" t="s">
         <v>10</v>
@@ -7424,10 +7426,10 @@
         <v>834</v>
       </c>
       <c r="B131" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="C131" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="D131" t="s">
         <v>10</v>
@@ -7456,10 +7458,10 @@
         <v>834</v>
       </c>
       <c r="B132" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="C132" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="D132" t="s">
         <v>22</v>
@@ -7488,10 +7490,10 @@
         <v>834</v>
       </c>
       <c r="B133" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="C133" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="D133" t="s">
         <v>10</v>
@@ -7520,10 +7522,10 @@
         <v>834</v>
       </c>
       <c r="B134" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="C134" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="D134" t="s">
         <v>22</v>
@@ -7552,10 +7554,10 @@
         <v>834</v>
       </c>
       <c r="B135" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="C135" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="D135" t="s">
         <v>22</v>
@@ -7584,10 +7586,10 @@
         <v>834</v>
       </c>
       <c r="B136" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="C136" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="D136" t="s">
         <v>10</v>
@@ -7616,10 +7618,10 @@
         <v>834</v>
       </c>
       <c r="B137" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="C137" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="D137" t="s">
         <v>10</v>
@@ -7648,10 +7650,10 @@
         <v>834</v>
       </c>
       <c r="B138" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="C138" t="s">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="D138" t="s">
         <v>10</v>
@@ -7680,10 +7682,10 @@
         <v>834</v>
       </c>
       <c r="B139" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="C139" t="s">
-        <v>342</v>
+        <v>296</v>
       </c>
       <c r="D139" t="s">
         <v>10</v>
@@ -7712,10 +7714,10 @@
         <v>834</v>
       </c>
       <c r="B140" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="C140" t="s">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="D140" t="s">
         <v>10</v>
@@ -7744,10 +7746,10 @@
         <v>834</v>
       </c>
       <c r="B141" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="C141" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="D141" t="s">
         <v>22</v>
@@ -7776,10 +7778,10 @@
         <v>834</v>
       </c>
       <c r="B142" t="s">
-        <v>296</v>
+        <v>345</v>
       </c>
       <c r="C142" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="D142" t="s">
         <v>10</v>
@@ -7808,10 +7810,10 @@
         <v>834</v>
       </c>
       <c r="B143" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="C143" t="s">
-        <v>346</v>
+        <v>296</v>
       </c>
       <c r="D143" t="s">
         <v>22</v>
@@ -7840,10 +7842,10 @@
         <v>834</v>
       </c>
       <c r="B144" t="s">
-        <v>296</v>
+        <v>354</v>
       </c>
       <c r="C144" t="s">
-        <v>354</v>
+        <v>296</v>
       </c>
       <c r="D144" t="s">
         <v>10</v>
@@ -7872,10 +7874,10 @@
         <v>834</v>
       </c>
       <c r="B145" t="s">
-        <v>296</v>
+        <v>356</v>
       </c>
       <c r="C145" t="s">
-        <v>356</v>
+        <v>296</v>
       </c>
       <c r="D145" t="s">
         <v>22</v>
@@ -7904,10 +7906,10 @@
         <v>834</v>
       </c>
       <c r="B146" t="s">
-        <v>296</v>
+        <v>357</v>
       </c>
       <c r="C146" t="s">
-        <v>357</v>
+        <v>296</v>
       </c>
       <c r="D146" t="s">
         <v>22</v>
@@ -7936,10 +7938,10 @@
         <v>834</v>
       </c>
       <c r="B147" t="s">
-        <v>296</v>
+        <v>358</v>
       </c>
       <c r="C147" t="s">
-        <v>358</v>
+        <v>296</v>
       </c>
       <c r="D147" t="s">
         <v>22</v>
@@ -7968,10 +7970,10 @@
         <v>834</v>
       </c>
       <c r="B148" t="s">
-        <v>296</v>
+        <v>359</v>
       </c>
       <c r="C148" t="s">
-        <v>359</v>
+        <v>296</v>
       </c>
       <c r="D148" t="s">
         <v>10</v>
@@ -8000,10 +8002,10 @@
         <v>834</v>
       </c>
       <c r="B149" t="s">
-        <v>296</v>
+        <v>360</v>
       </c>
       <c r="C149" t="s">
-        <v>360</v>
+        <v>296</v>
       </c>
       <c r="D149" t="s">
         <v>22</v>
@@ -8032,10 +8034,10 @@
         <v>834</v>
       </c>
       <c r="B150" t="s">
-        <v>296</v>
+        <v>375</v>
       </c>
       <c r="C150" t="s">
-        <v>375</v>
+        <v>296</v>
       </c>
       <c r="D150" t="s">
         <v>10</v>
@@ -8064,10 +8066,10 @@
         <v>834</v>
       </c>
       <c r="B151" t="s">
-        <v>296</v>
+        <v>377</v>
       </c>
       <c r="C151" t="s">
-        <v>377</v>
+        <v>296</v>
       </c>
       <c r="D151" t="s">
         <v>10</v>
@@ -8096,10 +8098,10 @@
         <v>834</v>
       </c>
       <c r="B152" t="s">
-        <v>296</v>
+        <v>378</v>
       </c>
       <c r="C152" t="s">
-        <v>378</v>
+        <v>296</v>
       </c>
       <c r="D152" t="s">
         <v>22</v>
@@ -8128,10 +8130,10 @@
         <v>834</v>
       </c>
       <c r="B153" t="s">
-        <v>296</v>
+        <v>379</v>
       </c>
       <c r="C153" t="s">
-        <v>379</v>
+        <v>296</v>
       </c>
       <c r="D153" t="s">
         <v>10</v>
@@ -8160,10 +8162,10 @@
         <v>834</v>
       </c>
       <c r="B154" t="s">
-        <v>296</v>
+        <v>380</v>
       </c>
       <c r="C154" t="s">
-        <v>380</v>
+        <v>296</v>
       </c>
       <c r="D154" t="s">
         <v>10</v>
@@ -8192,10 +8194,10 @@
         <v>834</v>
       </c>
       <c r="B155" t="s">
-        <v>296</v>
+        <v>381</v>
       </c>
       <c r="C155" t="s">
-        <v>381</v>
+        <v>296</v>
       </c>
       <c r="D155" t="s">
         <v>10</v>
@@ -8224,10 +8226,10 @@
         <v>834</v>
       </c>
       <c r="B156" t="s">
-        <v>296</v>
+        <v>382</v>
       </c>
       <c r="C156" t="s">
-        <v>382</v>
+        <v>296</v>
       </c>
       <c r="D156" t="s">
         <v>22</v>
@@ -8256,10 +8258,10 @@
         <v>834</v>
       </c>
       <c r="B157" t="s">
-        <v>296</v>
+        <v>384</v>
       </c>
       <c r="C157" t="s">
-        <v>384</v>
+        <v>296</v>
       </c>
       <c r="D157" t="s">
         <v>10</v>
@@ -8288,10 +8290,10 @@
         <v>834</v>
       </c>
       <c r="B158" t="s">
-        <v>296</v>
+        <v>385</v>
       </c>
       <c r="C158" t="s">
-        <v>385</v>
+        <v>296</v>
       </c>
       <c r="D158" t="s">
         <v>22</v>
@@ -8320,10 +8322,10 @@
         <v>834</v>
       </c>
       <c r="B159" t="s">
-        <v>296</v>
+        <v>386</v>
       </c>
       <c r="C159" t="s">
-        <v>386</v>
+        <v>296</v>
       </c>
       <c r="D159" t="s">
         <v>10</v>
@@ -8352,10 +8354,10 @@
         <v>834</v>
       </c>
       <c r="B160" t="s">
-        <v>296</v>
+        <v>387</v>
       </c>
       <c r="C160" t="s">
-        <v>387</v>
+        <v>296</v>
       </c>
       <c r="D160" t="s">
         <v>10</v>
@@ -8384,10 +8386,10 @@
         <v>834</v>
       </c>
       <c r="B161" t="s">
-        <v>296</v>
+        <v>388</v>
       </c>
       <c r="C161" t="s">
-        <v>388</v>
+        <v>296</v>
       </c>
       <c r="D161" t="s">
         <v>22</v>
@@ -8416,10 +8418,10 @@
         <v>834</v>
       </c>
       <c r="B162" t="s">
-        <v>296</v>
+        <v>396</v>
       </c>
       <c r="C162" t="s">
-        <v>396</v>
+        <v>296</v>
       </c>
       <c r="D162" t="s">
         <v>10</v>
@@ -8448,10 +8450,10 @@
         <v>834</v>
       </c>
       <c r="B163" t="s">
-        <v>296</v>
+        <v>398</v>
       </c>
       <c r="C163" t="s">
-        <v>398</v>
+        <v>296</v>
       </c>
       <c r="D163" t="s">
         <v>10</v>
@@ -8480,10 +8482,10 @@
         <v>834</v>
       </c>
       <c r="B164" t="s">
-        <v>296</v>
+        <v>399</v>
       </c>
       <c r="C164" t="s">
-        <v>399</v>
+        <v>296</v>
       </c>
       <c r="D164" t="s">
         <v>22</v>
@@ -8512,10 +8514,10 @@
         <v>834</v>
       </c>
       <c r="B165" t="s">
-        <v>296</v>
+        <v>400</v>
       </c>
       <c r="C165" t="s">
-        <v>400</v>
+        <v>296</v>
       </c>
       <c r="D165" t="s">
         <v>10</v>
@@ -8544,10 +8546,10 @@
         <v>834</v>
       </c>
       <c r="B166" t="s">
-        <v>296</v>
+        <v>401</v>
       </c>
       <c r="C166" t="s">
-        <v>401</v>
+        <v>296</v>
       </c>
       <c r="D166" t="s">
         <v>10</v>
@@ -8576,10 +8578,10 @@
         <v>834</v>
       </c>
       <c r="B167" t="s">
-        <v>296</v>
+        <v>402</v>
       </c>
       <c r="C167" t="s">
-        <v>402</v>
+        <v>296</v>
       </c>
       <c r="D167" t="s">
         <v>10</v>
@@ -8608,10 +8610,10 @@
         <v>834</v>
       </c>
       <c r="B168" t="s">
-        <v>296</v>
+        <v>403</v>
       </c>
       <c r="C168" t="s">
-        <v>403</v>
+        <v>296</v>
       </c>
       <c r="D168" t="s">
         <v>22</v>
@@ -8640,10 +8642,10 @@
         <v>834</v>
       </c>
       <c r="B169" t="s">
-        <v>296</v>
+        <v>405</v>
       </c>
       <c r="C169" t="s">
-        <v>405</v>
+        <v>296</v>
       </c>
       <c r="D169" t="s">
         <v>10</v>
@@ -8672,10 +8674,10 @@
         <v>834</v>
       </c>
       <c r="B170" t="s">
-        <v>296</v>
+        <v>406</v>
       </c>
       <c r="C170" t="s">
-        <v>406</v>
+        <v>296</v>
       </c>
       <c r="D170" t="s">
         <v>10</v>
@@ -8704,10 +8706,10 @@
         <v>834</v>
       </c>
       <c r="B171" t="s">
-        <v>296</v>
+        <v>407</v>
       </c>
       <c r="C171" t="s">
-        <v>407</v>
+        <v>296</v>
       </c>
       <c r="D171" t="s">
         <v>10</v>
@@ -8736,10 +8738,10 @@
         <v>834</v>
       </c>
       <c r="B172" t="s">
-        <v>296</v>
+        <v>408</v>
       </c>
       <c r="C172" t="s">
-        <v>408</v>
+        <v>296</v>
       </c>
       <c r="D172" t="s">
         <v>10</v>
@@ -8768,10 +8770,10 @@
         <v>834</v>
       </c>
       <c r="B173" t="s">
-        <v>296</v>
+        <v>409</v>
       </c>
       <c r="C173" t="s">
-        <v>409</v>
+        <v>296</v>
       </c>
       <c r="D173" t="s">
         <v>10</v>
@@ -8800,10 +8802,10 @@
         <v>834</v>
       </c>
       <c r="B174" t="s">
-        <v>296</v>
+        <v>416</v>
       </c>
       <c r="C174" t="s">
-        <v>416</v>
+        <v>296</v>
       </c>
       <c r="D174" t="s">
         <v>22</v>
@@ -8832,10 +8834,10 @@
         <v>834</v>
       </c>
       <c r="B175" t="s">
-        <v>296</v>
+        <v>418</v>
       </c>
       <c r="C175" t="s">
-        <v>418</v>
+        <v>296</v>
       </c>
       <c r="D175" t="s">
         <v>22</v>
@@ -8864,10 +8866,10 @@
         <v>834</v>
       </c>
       <c r="B176" t="s">
-        <v>296</v>
+        <v>419</v>
       </c>
       <c r="C176" t="s">
-        <v>419</v>
+        <v>296</v>
       </c>
       <c r="D176" t="s">
         <v>10</v>
@@ -8896,10 +8898,10 @@
         <v>834</v>
       </c>
       <c r="B177" t="s">
-        <v>296</v>
+        <v>420</v>
       </c>
       <c r="C177" t="s">
-        <v>420</v>
+        <v>296</v>
       </c>
       <c r="D177" t="s">
         <v>22</v>
@@ -8928,10 +8930,10 @@
         <v>834</v>
       </c>
       <c r="B178" t="s">
-        <v>296</v>
+        <v>421</v>
       </c>
       <c r="C178" t="s">
-        <v>421</v>
+        <v>296</v>
       </c>
       <c r="D178" t="s">
         <v>22</v>
@@ -8960,10 +8962,10 @@
         <v>834</v>
       </c>
       <c r="B179" t="s">
-        <v>296</v>
+        <v>422</v>
       </c>
       <c r="C179" t="s">
-        <v>422</v>
+        <v>296</v>
       </c>
       <c r="D179" t="s">
         <v>10</v>
@@ -8992,10 +8994,10 @@
         <v>834</v>
       </c>
       <c r="B180" t="s">
-        <v>296</v>
+        <v>423</v>
       </c>
       <c r="C180" t="s">
-        <v>423</v>
+        <v>296</v>
       </c>
       <c r="D180" t="s">
         <v>10</v>
@@ -9024,10 +9026,10 @@
         <v>834</v>
       </c>
       <c r="B181" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="C181" t="s">
-        <v>425</v>
+        <v>296</v>
       </c>
       <c r="D181" t="s">
         <v>10</v>
@@ -9056,10 +9058,10 @@
         <v>834</v>
       </c>
       <c r="B182" t="s">
-        <v>296</v>
+        <v>426</v>
       </c>
       <c r="C182" t="s">
-        <v>426</v>
+        <v>296</v>
       </c>
       <c r="D182" t="s">
         <v>10</v>
@@ -9088,10 +9090,10 @@
         <v>834</v>
       </c>
       <c r="B183" t="s">
-        <v>296</v>
+        <v>427</v>
       </c>
       <c r="C183" t="s">
-        <v>427</v>
+        <v>296</v>
       </c>
       <c r="D183" t="s">
         <v>10</v>
@@ -9120,10 +9122,10 @@
         <v>834</v>
       </c>
       <c r="B184" t="s">
-        <v>296</v>
+        <v>428</v>
       </c>
       <c r="C184" t="s">
-        <v>428</v>
+        <v>296</v>
       </c>
       <c r="D184" t="s">
         <v>10</v>
@@ -9152,10 +9154,10 @@
         <v>834</v>
       </c>
       <c r="B185" t="s">
-        <v>296</v>
+        <v>429</v>
       </c>
       <c r="C185" t="s">
-        <v>429</v>
+        <v>296</v>
       </c>
       <c r="D185" t="s">
         <v>10</v>
@@ -9184,10 +9186,10 @@
         <v>834</v>
       </c>
       <c r="B186" t="s">
-        <v>296</v>
+        <v>430</v>
       </c>
       <c r="C186" t="s">
-        <v>430</v>
+        <v>296</v>
       </c>
       <c r="D186" t="s">
         <v>22</v>
@@ -9216,10 +9218,10 @@
         <v>834</v>
       </c>
       <c r="B187" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="C187" t="s">
-        <v>432</v>
+        <v>296</v>
       </c>
       <c r="D187" t="s">
         <v>22</v>
@@ -9248,10 +9250,10 @@
         <v>834</v>
       </c>
       <c r="B188" t="s">
-        <v>296</v>
+        <v>433</v>
       </c>
       <c r="C188" t="s">
-        <v>433</v>
+        <v>296</v>
       </c>
       <c r="D188" t="s">
         <v>22</v>
@@ -9280,10 +9282,10 @@
         <v>834</v>
       </c>
       <c r="B189" t="s">
-        <v>296</v>
+        <v>434</v>
       </c>
       <c r="C189" t="s">
-        <v>434</v>
+        <v>296</v>
       </c>
       <c r="D189" t="s">
         <v>22</v>
@@ -9312,10 +9314,10 @@
         <v>834</v>
       </c>
       <c r="B190" t="s">
-        <v>296</v>
+        <v>435</v>
       </c>
       <c r="C190" t="s">
-        <v>435</v>
+        <v>296</v>
       </c>
       <c r="D190" t="s">
         <v>10</v>
@@ -9344,10 +9346,10 @@
         <v>834</v>
       </c>
       <c r="B191" t="s">
-        <v>296</v>
+        <v>436</v>
       </c>
       <c r="C191" t="s">
-        <v>436</v>
+        <v>296</v>
       </c>
       <c r="D191" t="s">
         <v>22</v>
@@ -9376,10 +9378,10 @@
         <v>834</v>
       </c>
       <c r="B192" t="s">
-        <v>296</v>
+        <v>444</v>
       </c>
       <c r="C192" t="s">
-        <v>444</v>
+        <v>296</v>
       </c>
       <c r="D192" t="s">
         <v>22</v>
@@ -9408,10 +9410,10 @@
         <v>834</v>
       </c>
       <c r="B193" t="s">
-        <v>296</v>
+        <v>446</v>
       </c>
       <c r="C193" t="s">
-        <v>446</v>
+        <v>296</v>
       </c>
       <c r="D193" t="s">
         <v>10</v>
@@ -9440,10 +9442,10 @@
         <v>834</v>
       </c>
       <c r="B194" t="s">
-        <v>296</v>
+        <v>447</v>
       </c>
       <c r="C194" t="s">
-        <v>447</v>
+        <v>296</v>
       </c>
       <c r="D194" t="s">
         <v>10</v>
@@ -9472,10 +9474,10 @@
         <v>834</v>
       </c>
       <c r="B195" t="s">
-        <v>296</v>
+        <v>448</v>
       </c>
       <c r="C195" t="s">
-        <v>448</v>
+        <v>296</v>
       </c>
       <c r="D195" t="s">
         <v>10</v>
@@ -9504,10 +9506,10 @@
         <v>834</v>
       </c>
       <c r="B196" t="s">
-        <v>296</v>
+        <v>449</v>
       </c>
       <c r="C196" t="s">
-        <v>449</v>
+        <v>296</v>
       </c>
       <c r="D196" t="s">
         <v>10</v>
@@ -9536,10 +9538,10 @@
         <v>834</v>
       </c>
       <c r="B197" t="s">
-        <v>296</v>
+        <v>450</v>
       </c>
       <c r="C197" t="s">
-        <v>450</v>
+        <v>296</v>
       </c>
       <c r="D197" t="s">
         <v>22</v>
@@ -9568,10 +9570,10 @@
         <v>834</v>
       </c>
       <c r="B198" t="s">
-        <v>296</v>
+        <v>451</v>
       </c>
       <c r="C198" t="s">
-        <v>451</v>
+        <v>296</v>
       </c>
       <c r="D198" t="s">
         <v>22</v>
@@ -9600,10 +9602,10 @@
         <v>834</v>
       </c>
       <c r="B199" t="s">
-        <v>296</v>
+        <v>453</v>
       </c>
       <c r="C199" t="s">
-        <v>453</v>
+        <v>296</v>
       </c>
       <c r="D199" t="s">
         <v>22</v>
@@ -9632,10 +9634,10 @@
         <v>834</v>
       </c>
       <c r="B200" t="s">
-        <v>296</v>
+        <v>454</v>
       </c>
       <c r="C200" t="s">
-        <v>454</v>
+        <v>296</v>
       </c>
       <c r="D200" t="s">
         <v>10</v>
@@ -9664,10 +9666,10 @@
         <v>834</v>
       </c>
       <c r="B201" t="s">
-        <v>296</v>
+        <v>455</v>
       </c>
       <c r="C201" t="s">
-        <v>455</v>
+        <v>296</v>
       </c>
       <c r="D201" t="s">
         <v>10</v>
@@ -9696,10 +9698,10 @@
         <v>834</v>
       </c>
       <c r="B202" t="s">
-        <v>296</v>
+        <v>456</v>
       </c>
       <c r="C202" t="s">
-        <v>456</v>
+        <v>296</v>
       </c>
       <c r="D202" t="s">
         <v>22</v>
@@ -9728,10 +9730,10 @@
         <v>834</v>
       </c>
       <c r="B203" t="s">
-        <v>296</v>
+        <v>457</v>
       </c>
       <c r="C203" t="s">
-        <v>457</v>
+        <v>296</v>
       </c>
       <c r="D203" t="s">
         <v>10</v>
@@ -9760,10 +9762,10 @@
         <v>834</v>
       </c>
       <c r="B204" t="s">
-        <v>296</v>
+        <v>458</v>
       </c>
       <c r="C204" t="s">
-        <v>458</v>
+        <v>296</v>
       </c>
       <c r="D204" t="s">
         <v>10</v>
@@ -9792,10 +9794,10 @@
         <v>834</v>
       </c>
       <c r="B205" t="s">
-        <v>296</v>
+        <v>460</v>
       </c>
       <c r="C205" t="s">
-        <v>460</v>
+        <v>296</v>
       </c>
       <c r="D205" t="s">
         <v>22</v>
@@ -9824,10 +9826,10 @@
         <v>834</v>
       </c>
       <c r="B206" t="s">
-        <v>296</v>
+        <v>461</v>
       </c>
       <c r="C206" t="s">
-        <v>461</v>
+        <v>296</v>
       </c>
       <c r="D206" t="s">
         <v>10</v>
@@ -9856,10 +9858,10 @@
         <v>834</v>
       </c>
       <c r="B207" t="s">
-        <v>296</v>
+        <v>462</v>
       </c>
       <c r="C207" t="s">
-        <v>462</v>
+        <v>296</v>
       </c>
       <c r="D207" t="s">
         <v>22</v>
@@ -9888,10 +9890,10 @@
         <v>834</v>
       </c>
       <c r="B208" t="s">
-        <v>296</v>
+        <v>463</v>
       </c>
       <c r="C208" t="s">
-        <v>463</v>
+        <v>296</v>
       </c>
       <c r="D208" t="s">
         <v>22</v>
@@ -9920,10 +9922,10 @@
         <v>834</v>
       </c>
       <c r="B209" t="s">
-        <v>296</v>
+        <v>464</v>
       </c>
       <c r="C209" t="s">
-        <v>464</v>
+        <v>296</v>
       </c>
       <c r="D209" t="s">
         <v>10</v>
@@ -9952,10 +9954,10 @@
         <v>834</v>
       </c>
       <c r="B210" t="s">
-        <v>296</v>
+        <v>465</v>
       </c>
       <c r="C210" t="s">
-        <v>465</v>
+        <v>296</v>
       </c>
       <c r="D210" t="s">
         <v>10</v>
@@ -9984,10 +9986,10 @@
         <v>834</v>
       </c>
       <c r="B211" t="s">
-        <v>296</v>
+        <v>467</v>
       </c>
       <c r="C211" t="s">
-        <v>467</v>
+        <v>296</v>
       </c>
       <c r="D211" t="s">
         <v>22</v>
@@ -10016,10 +10018,10 @@
         <v>834</v>
       </c>
       <c r="B212" t="s">
-        <v>296</v>
+        <v>468</v>
       </c>
       <c r="C212" t="s">
-        <v>468</v>
+        <v>296</v>
       </c>
       <c r="D212" t="s">
         <v>10</v>
@@ -10048,10 +10050,10 @@
         <v>834</v>
       </c>
       <c r="B213" t="s">
-        <v>296</v>
+        <v>469</v>
       </c>
       <c r="C213" t="s">
-        <v>469</v>
+        <v>296</v>
       </c>
       <c r="D213" t="s">
         <v>10</v>
@@ -10080,10 +10082,10 @@
         <v>834</v>
       </c>
       <c r="B214" t="s">
-        <v>296</v>
+        <v>470</v>
       </c>
       <c r="C214" t="s">
-        <v>470</v>
+        <v>296</v>
       </c>
       <c r="D214" t="s">
         <v>22</v>
@@ -10112,10 +10114,10 @@
         <v>834</v>
       </c>
       <c r="B215" t="s">
-        <v>296</v>
+        <v>471</v>
       </c>
       <c r="C215" t="s">
-        <v>471</v>
+        <v>296</v>
       </c>
       <c r="D215" t="s">
         <v>22</v>
@@ -10144,10 +10146,10 @@
         <v>834</v>
       </c>
       <c r="B216" t="s">
-        <v>296</v>
+        <v>472</v>
       </c>
       <c r="C216" t="s">
-        <v>472</v>
+        <v>296</v>
       </c>
       <c r="D216" t="s">
         <v>22</v>
@@ -10176,10 +10178,10 @@
         <v>834</v>
       </c>
       <c r="B217" t="s">
-        <v>296</v>
+        <v>474</v>
       </c>
       <c r="C217" t="s">
-        <v>474</v>
+        <v>296</v>
       </c>
       <c r="D217" t="s">
         <v>22</v>
@@ -10208,10 +10210,10 @@
         <v>834</v>
       </c>
       <c r="B218" t="s">
-        <v>296</v>
+        <v>475</v>
       </c>
       <c r="C218" t="s">
-        <v>475</v>
+        <v>296</v>
       </c>
       <c r="D218" t="s">
         <v>10</v>
@@ -10240,10 +10242,10 @@
         <v>834</v>
       </c>
       <c r="B219" t="s">
-        <v>296</v>
+        <v>476</v>
       </c>
       <c r="C219" t="s">
-        <v>476</v>
+        <v>296</v>
       </c>
       <c r="D219" t="s">
         <v>22</v>
@@ -10272,10 +10274,10 @@
         <v>834</v>
       </c>
       <c r="B220" t="s">
-        <v>296</v>
+        <v>477</v>
       </c>
       <c r="C220" t="s">
-        <v>477</v>
+        <v>296</v>
       </c>
       <c r="D220" t="s">
         <v>22</v>
@@ -10304,10 +10306,10 @@
         <v>834</v>
       </c>
       <c r="B221" t="s">
-        <v>296</v>
+        <v>478</v>
       </c>
       <c r="C221" t="s">
-        <v>478</v>
+        <v>296</v>
       </c>
       <c r="D221" t="s">
         <v>10</v>
@@ -10336,10 +10338,10 @@
         <v>834</v>
       </c>
       <c r="B222" t="s">
-        <v>296</v>
+        <v>486</v>
       </c>
       <c r="C222" t="s">
-        <v>486</v>
+        <v>296</v>
       </c>
       <c r="D222" t="s">
         <v>22</v>
@@ -10368,10 +10370,10 @@
         <v>834</v>
       </c>
       <c r="B223" t="s">
-        <v>296</v>
+        <v>488</v>
       </c>
       <c r="C223" t="s">
-        <v>488</v>
+        <v>296</v>
       </c>
       <c r="D223" t="s">
         <v>10</v>
@@ -10400,10 +10402,10 @@
         <v>834</v>
       </c>
       <c r="B224" t="s">
-        <v>296</v>
+        <v>489</v>
       </c>
       <c r="C224" t="s">
-        <v>489</v>
+        <v>296</v>
       </c>
       <c r="D224" t="s">
         <v>22</v>
@@ -10432,10 +10434,10 @@
         <v>834</v>
       </c>
       <c r="B225" t="s">
-        <v>296</v>
+        <v>490</v>
       </c>
       <c r="C225" t="s">
-        <v>490</v>
+        <v>296</v>
       </c>
       <c r="D225" t="s">
         <v>10</v>
@@ -10464,10 +10466,10 @@
         <v>834</v>
       </c>
       <c r="B226" t="s">
-        <v>296</v>
+        <v>491</v>
       </c>
       <c r="C226" t="s">
-        <v>491</v>
+        <v>296</v>
       </c>
       <c r="D226" t="s">
         <v>10</v>
@@ -10496,10 +10498,10 @@
         <v>834</v>
       </c>
       <c r="B227" t="s">
-        <v>296</v>
+        <v>492</v>
       </c>
       <c r="C227" t="s">
-        <v>492</v>
+        <v>296</v>
       </c>
       <c r="D227" t="s">
         <v>10</v>
@@ -10528,10 +10530,10 @@
         <v>834</v>
       </c>
       <c r="B228" t="s">
-        <v>296</v>
+        <v>493</v>
       </c>
       <c r="C228" t="s">
-        <v>493</v>
+        <v>296</v>
       </c>
       <c r="D228" t="s">
         <v>22</v>
@@ -10560,10 +10562,10 @@
         <v>834</v>
       </c>
       <c r="B229" t="s">
-        <v>296</v>
+        <v>495</v>
       </c>
       <c r="C229" t="s">
-        <v>495</v>
+        <v>296</v>
       </c>
       <c r="D229" t="s">
         <v>10</v>
@@ -10592,10 +10594,10 @@
         <v>834</v>
       </c>
       <c r="B230" t="s">
-        <v>296</v>
+        <v>496</v>
       </c>
       <c r="C230" t="s">
-        <v>496</v>
+        <v>296</v>
       </c>
       <c r="D230" t="s">
         <v>10</v>
@@ -10624,10 +10626,10 @@
         <v>834</v>
       </c>
       <c r="B231" t="s">
-        <v>296</v>
+        <v>497</v>
       </c>
       <c r="C231" t="s">
-        <v>497</v>
+        <v>296</v>
       </c>
       <c r="D231" t="s">
         <v>22</v>
@@ -10656,10 +10658,10 @@
         <v>834</v>
       </c>
       <c r="B232" t="s">
-        <v>296</v>
+        <v>498</v>
       </c>
       <c r="C232" t="s">
-        <v>498</v>
+        <v>296</v>
       </c>
       <c r="D232" t="s">
         <v>10</v>
@@ -10688,10 +10690,10 @@
         <v>834</v>
       </c>
       <c r="B233" t="s">
-        <v>296</v>
+        <v>499</v>
       </c>
       <c r="C233" t="s">
-        <v>499</v>
+        <v>296</v>
       </c>
       <c r="D233" t="s">
         <v>22</v>
@@ -10720,10 +10722,10 @@
         <v>834</v>
       </c>
       <c r="B234" t="s">
-        <v>296</v>
+        <v>549</v>
       </c>
       <c r="C234" t="s">
-        <v>549</v>
+        <v>296</v>
       </c>
       <c r="D234" t="s">
         <v>22</v>
@@ -10752,10 +10754,10 @@
         <v>834</v>
       </c>
       <c r="B235" t="s">
-        <v>296</v>
+        <v>551</v>
       </c>
       <c r="C235" t="s">
-        <v>551</v>
+        <v>296</v>
       </c>
       <c r="D235" t="s">
         <v>10</v>
@@ -10784,10 +10786,10 @@
         <v>834</v>
       </c>
       <c r="B236" t="s">
-        <v>296</v>
+        <v>552</v>
       </c>
       <c r="C236" t="s">
-        <v>552</v>
+        <v>296</v>
       </c>
       <c r="D236" t="s">
         <v>10</v>
@@ -10816,10 +10818,10 @@
         <v>834</v>
       </c>
       <c r="B237" t="s">
-        <v>296</v>
+        <v>553</v>
       </c>
       <c r="C237" t="s">
-        <v>553</v>
+        <v>296</v>
       </c>
       <c r="D237" t="s">
         <v>22</v>
@@ -10848,10 +10850,10 @@
         <v>834</v>
       </c>
       <c r="B238" t="s">
-        <v>296</v>
+        <v>554</v>
       </c>
       <c r="C238" t="s">
-        <v>554</v>
+        <v>296</v>
       </c>
       <c r="D238" t="s">
         <v>10</v>
@@ -10880,10 +10882,10 @@
         <v>834</v>
       </c>
       <c r="B239" t="s">
-        <v>296</v>
+        <v>555</v>
       </c>
       <c r="C239" t="s">
-        <v>555</v>
+        <v>296</v>
       </c>
       <c r="D239" t="s">
         <v>22</v>
@@ -10912,10 +10914,10 @@
         <v>834</v>
       </c>
       <c r="B240" t="s">
-        <v>296</v>
+        <v>556</v>
       </c>
       <c r="C240" t="s">
-        <v>556</v>
+        <v>296</v>
       </c>
       <c r="D240" t="s">
         <v>22</v>
@@ -10944,10 +10946,10 @@
         <v>834</v>
       </c>
       <c r="B241" t="s">
-        <v>296</v>
+        <v>558</v>
       </c>
       <c r="C241" t="s">
-        <v>558</v>
+        <v>296</v>
       </c>
       <c r="D241" t="s">
         <v>10</v>
@@ -10976,10 +10978,10 @@
         <v>834</v>
       </c>
       <c r="B242" t="s">
-        <v>296</v>
+        <v>559</v>
       </c>
       <c r="C242" t="s">
-        <v>559</v>
+        <v>296</v>
       </c>
       <c r="D242" t="s">
         <v>10</v>
@@ -11008,10 +11010,10 @@
         <v>834</v>
       </c>
       <c r="B243" t="s">
-        <v>296</v>
+        <v>560</v>
       </c>
       <c r="C243" t="s">
-        <v>560</v>
+        <v>296</v>
       </c>
       <c r="D243" t="s">
         <v>22</v>
@@ -11040,10 +11042,10 @@
         <v>834</v>
       </c>
       <c r="B244" t="s">
-        <v>296</v>
+        <v>561</v>
       </c>
       <c r="C244" t="s">
-        <v>561</v>
+        <v>296</v>
       </c>
       <c r="D244" t="s">
         <v>22</v>
@@ -11072,10 +11074,10 @@
         <v>834</v>
       </c>
       <c r="B245" t="s">
-        <v>296</v>
+        <v>562</v>
       </c>
       <c r="C245" t="s">
-        <v>562</v>
+        <v>296</v>
       </c>
       <c r="D245" t="s">
         <v>22</v>
@@ -11374,7 +11376,7 @@
       <c r="F254" t="s">
         <v>48</v>
       </c>
-      <c r="G254" t="s">
+      <c r="G254" s="2" t="s">
         <v>157</v>
       </c>
       <c r="H254" t="s">
@@ -11726,7 +11728,7 @@
       <c r="F265" t="s">
         <v>48</v>
       </c>
-      <c r="G265" t="s">
+      <c r="G265" s="2" t="s">
         <v>157</v>
       </c>
       <c r="H265" t="s">
@@ -14396,11 +14398,11 @@
       <c r="A349" t="s">
         <v>834</v>
       </c>
-      <c r="B349" s="2">
-        <v>8888</v>
-      </c>
-      <c r="C349" s="2" t="s">
+      <c r="B349" t="s">
         <v>865</v>
+      </c>
+      <c r="C349" t="s">
+        <v>296</v>
       </c>
       <c r="D349" t="s">
         <v>10</v>
@@ -14457,11 +14459,11 @@
       <c r="A351" t="s">
         <v>834</v>
       </c>
-      <c r="B351" s="2">
-        <v>8888</v>
-      </c>
-      <c r="C351" s="2" t="s">
+      <c r="B351" t="s">
         <v>865</v>
+      </c>
+      <c r="C351" t="s">
+        <v>296</v>
       </c>
       <c r="D351" t="s">
         <v>10</v>
@@ -14490,10 +14492,10 @@
         <v>834</v>
       </c>
       <c r="B352" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C352" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D352" t="s">
         <v>10</v>
@@ -14522,10 +14524,10 @@
         <v>834</v>
       </c>
       <c r="B353" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C353" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D353" t="s">
         <v>22</v>
@@ -14554,10 +14556,10 @@
         <v>834</v>
       </c>
       <c r="B354" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C354" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D354" t="s">
         <v>22</v>
@@ -14586,10 +14588,10 @@
         <v>834</v>
       </c>
       <c r="B355" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C355" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D355" t="s">
         <v>22</v>
@@ -14618,10 +14620,10 @@
         <v>834</v>
       </c>
       <c r="B356" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C356" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D356" t="s">
         <v>22</v>
@@ -14650,10 +14652,10 @@
         <v>834</v>
       </c>
       <c r="B357" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C357" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D357" t="s">
         <v>10</v>
@@ -14682,10 +14684,10 @@
         <v>834</v>
       </c>
       <c r="B358" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="C358" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="D358" t="s">
         <v>10</v>
@@ -14714,10 +14716,10 @@
         <v>834</v>
       </c>
       <c r="B359" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="C359" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="D359" t="s">
         <v>10</v>
@@ -14746,10 +14748,10 @@
         <v>834</v>
       </c>
       <c r="B360" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="C360" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="D360" t="s">
         <v>10</v>
@@ -14778,10 +14780,10 @@
         <v>834</v>
       </c>
       <c r="B361" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="C361" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="D361" t="s">
         <v>22</v>
@@ -14810,10 +14812,10 @@
         <v>834</v>
       </c>
       <c r="B362" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="C362" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="D362" t="s">
         <v>10</v>
@@ -14842,10 +14844,10 @@
         <v>834</v>
       </c>
       <c r="B363" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="C363" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="D363" t="s">
         <v>10</v>
@@ -14874,10 +14876,10 @@
         <v>834</v>
       </c>
       <c r="B364" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="C364" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="D364" t="s">
         <v>10</v>
@@ -14906,10 +14908,10 @@
         <v>834</v>
       </c>
       <c r="B365" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="C365" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="D365" t="s">
         <v>22</v>
@@ -14938,10 +14940,10 @@
         <v>834</v>
       </c>
       <c r="B366" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="C366" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="D366" t="s">
         <v>10</v>
@@ -14970,10 +14972,10 @@
         <v>834</v>
       </c>
       <c r="B367" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="C367" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="D367" t="s">
         <v>10</v>
@@ -15002,10 +15004,10 @@
         <v>834</v>
       </c>
       <c r="B368" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="C368" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="D368" t="s">
         <v>22</v>
@@ -15034,10 +15036,10 @@
         <v>834</v>
       </c>
       <c r="B369" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="C369" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="D369" t="s">
         <v>10</v>
@@ -15066,10 +15068,10 @@
         <v>834</v>
       </c>
       <c r="B370" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="C370" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="D370" t="s">
         <v>10</v>
@@ -15098,10 +15100,10 @@
         <v>834</v>
       </c>
       <c r="B371" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="C371" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="D371" t="s">
         <v>22</v>
@@ -15130,10 +15132,10 @@
         <v>834</v>
       </c>
       <c r="B372" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="C372" t="s">
-        <v>337</v>
+        <v>296</v>
       </c>
       <c r="D372" t="s">
         <v>22</v>
@@ -15162,10 +15164,10 @@
         <v>834</v>
       </c>
       <c r="B373" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="C373" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="D373" t="s">
         <v>10</v>
@@ -15194,10 +15196,10 @@
         <v>834</v>
       </c>
       <c r="B374" t="s">
-        <v>296</v>
+        <v>347</v>
       </c>
       <c r="C374" t="s">
-        <v>347</v>
+        <v>296</v>
       </c>
       <c r="D374" t="s">
         <v>10</v>
@@ -15226,10 +15228,10 @@
         <v>834</v>
       </c>
       <c r="B375" t="s">
-        <v>296</v>
+        <v>349</v>
       </c>
       <c r="C375" t="s">
-        <v>349</v>
+        <v>296</v>
       </c>
       <c r="D375" t="s">
         <v>10</v>
@@ -15258,10 +15260,10 @@
         <v>834</v>
       </c>
       <c r="B376" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
       <c r="C376" t="s">
-        <v>350</v>
+        <v>296</v>
       </c>
       <c r="D376" t="s">
         <v>10</v>
@@ -15290,10 +15292,10 @@
         <v>834</v>
       </c>
       <c r="B377" t="s">
-        <v>296</v>
+        <v>351</v>
       </c>
       <c r="C377" t="s">
-        <v>351</v>
+        <v>296</v>
       </c>
       <c r="D377" t="s">
         <v>22</v>
@@ -15322,10 +15324,10 @@
         <v>834</v>
       </c>
       <c r="B378" t="s">
-        <v>296</v>
+        <v>352</v>
       </c>
       <c r="C378" t="s">
-        <v>352</v>
+        <v>296</v>
       </c>
       <c r="D378" t="s">
         <v>10</v>
@@ -15354,10 +15356,10 @@
         <v>834</v>
       </c>
       <c r="B379" t="s">
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="C379" t="s">
-        <v>353</v>
+        <v>296</v>
       </c>
       <c r="D379" t="s">
         <v>10</v>
@@ -15386,10 +15388,10 @@
         <v>834</v>
       </c>
       <c r="B380" t="s">
-        <v>296</v>
+        <v>361</v>
       </c>
       <c r="C380" t="s">
-        <v>361</v>
+        <v>296</v>
       </c>
       <c r="D380" t="s">
         <v>10</v>
@@ -15418,10 +15420,10 @@
         <v>834</v>
       </c>
       <c r="B381" t="s">
-        <v>296</v>
+        <v>363</v>
       </c>
       <c r="C381" t="s">
-        <v>363</v>
+        <v>296</v>
       </c>
       <c r="D381" t="s">
         <v>10</v>
@@ -15450,10 +15452,10 @@
         <v>834</v>
       </c>
       <c r="B382" t="s">
-        <v>296</v>
+        <v>364</v>
       </c>
       <c r="C382" t="s">
-        <v>364</v>
+        <v>296</v>
       </c>
       <c r="D382" t="s">
         <v>10</v>
@@ -15482,10 +15484,10 @@
         <v>834</v>
       </c>
       <c r="B383" t="s">
-        <v>296</v>
+        <v>365</v>
       </c>
       <c r="C383" t="s">
-        <v>365</v>
+        <v>296</v>
       </c>
       <c r="D383" t="s">
         <v>22</v>
@@ -15514,10 +15516,10 @@
         <v>834</v>
       </c>
       <c r="B384" t="s">
-        <v>296</v>
+        <v>366</v>
       </c>
       <c r="C384" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="D384" t="s">
         <v>10</v>
@@ -15546,10 +15548,10 @@
         <v>834</v>
       </c>
       <c r="B385" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="C385" t="s">
-        <v>367</v>
+        <v>296</v>
       </c>
       <c r="D385" t="s">
         <v>10</v>
@@ -15578,10 +15580,10 @@
         <v>834</v>
       </c>
       <c r="B386" t="s">
-        <v>296</v>
+        <v>368</v>
       </c>
       <c r="C386" t="s">
-        <v>368</v>
+        <v>296</v>
       </c>
       <c r="D386" t="s">
         <v>10</v>
@@ -15610,10 +15612,10 @@
         <v>834</v>
       </c>
       <c r="B387" t="s">
-        <v>296</v>
+        <v>370</v>
       </c>
       <c r="C387" t="s">
-        <v>370</v>
+        <v>296</v>
       </c>
       <c r="D387" t="s">
         <v>10</v>
@@ -15642,10 +15644,10 @@
         <v>834</v>
       </c>
       <c r="B388" t="s">
-        <v>296</v>
+        <v>371</v>
       </c>
       <c r="C388" t="s">
-        <v>371</v>
+        <v>296</v>
       </c>
       <c r="D388" t="s">
         <v>22</v>
@@ -15674,10 +15676,10 @@
         <v>834</v>
       </c>
       <c r="B389" t="s">
-        <v>296</v>
+        <v>372</v>
       </c>
       <c r="C389" t="s">
-        <v>372</v>
+        <v>296</v>
       </c>
       <c r="D389" t="s">
         <v>22</v>
@@ -15706,10 +15708,10 @@
         <v>834</v>
       </c>
       <c r="B390" t="s">
-        <v>296</v>
+        <v>373</v>
       </c>
       <c r="C390" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="D390" t="s">
         <v>10</v>
@@ -15738,10 +15740,10 @@
         <v>834</v>
       </c>
       <c r="B391" t="s">
-        <v>296</v>
+        <v>374</v>
       </c>
       <c r="C391" t="s">
-        <v>374</v>
+        <v>296</v>
       </c>
       <c r="D391" t="s">
         <v>10</v>
@@ -15770,10 +15772,10 @@
         <v>834</v>
       </c>
       <c r="B392" t="s">
-        <v>296</v>
+        <v>389</v>
       </c>
       <c r="C392" t="s">
-        <v>389</v>
+        <v>296</v>
       </c>
       <c r="D392" t="s">
         <v>22</v>
@@ -15802,10 +15804,10 @@
         <v>834</v>
       </c>
       <c r="B393" t="s">
-        <v>296</v>
+        <v>391</v>
       </c>
       <c r="C393" t="s">
-        <v>391</v>
+        <v>296</v>
       </c>
       <c r="D393" t="s">
         <v>22</v>
@@ -15834,10 +15836,10 @@
         <v>834</v>
       </c>
       <c r="B394" t="s">
-        <v>296</v>
+        <v>392</v>
       </c>
       <c r="C394" t="s">
-        <v>392</v>
+        <v>296</v>
       </c>
       <c r="D394" t="s">
         <v>10</v>
@@ -15866,10 +15868,10 @@
         <v>834</v>
       </c>
       <c r="B395" t="s">
-        <v>296</v>
+        <v>393</v>
       </c>
       <c r="C395" t="s">
-        <v>393</v>
+        <v>296</v>
       </c>
       <c r="D395" t="s">
         <v>22</v>
@@ -15898,10 +15900,10 @@
         <v>834</v>
       </c>
       <c r="B396" t="s">
-        <v>296</v>
+        <v>394</v>
       </c>
       <c r="C396" t="s">
-        <v>394</v>
+        <v>296</v>
       </c>
       <c r="D396" t="s">
         <v>22</v>
@@ -15930,10 +15932,10 @@
         <v>834</v>
       </c>
       <c r="B397" t="s">
-        <v>296</v>
+        <v>395</v>
       </c>
       <c r="C397" t="s">
-        <v>395</v>
+        <v>296</v>
       </c>
       <c r="D397" t="s">
         <v>22</v>
@@ -15962,10 +15964,10 @@
         <v>834</v>
       </c>
       <c r="B398" t="s">
-        <v>296</v>
+        <v>410</v>
       </c>
       <c r="C398" t="s">
-        <v>410</v>
+        <v>296</v>
       </c>
       <c r="D398" t="s">
         <v>10</v>
@@ -15994,10 +15996,10 @@
         <v>834</v>
       </c>
       <c r="B399" t="s">
-        <v>296</v>
+        <v>412</v>
       </c>
       <c r="C399" t="s">
-        <v>412</v>
+        <v>296</v>
       </c>
       <c r="D399" t="s">
         <v>10</v>
@@ -16026,10 +16028,10 @@
         <v>834</v>
       </c>
       <c r="B400" t="s">
-        <v>296</v>
+        <v>413</v>
       </c>
       <c r="C400" t="s">
-        <v>413</v>
+        <v>296</v>
       </c>
       <c r="D400" t="s">
         <v>10</v>
@@ -16058,10 +16060,10 @@
         <v>834</v>
       </c>
       <c r="B401" t="s">
-        <v>296</v>
+        <v>414</v>
       </c>
       <c r="C401" t="s">
-        <v>414</v>
+        <v>296</v>
       </c>
       <c r="D401" t="s">
         <v>10</v>
@@ -16090,10 +16092,10 @@
         <v>834</v>
       </c>
       <c r="B402" t="s">
-        <v>296</v>
+        <v>415</v>
       </c>
       <c r="C402" t="s">
-        <v>415</v>
+        <v>296</v>
       </c>
       <c r="D402" t="s">
         <v>10</v>
@@ -16122,10 +16124,10 @@
         <v>834</v>
       </c>
       <c r="B403" t="s">
-        <v>296</v>
+        <v>437</v>
       </c>
       <c r="C403" t="s">
-        <v>437</v>
+        <v>296</v>
       </c>
       <c r="D403" t="s">
         <v>10</v>
@@ -16154,10 +16156,10 @@
         <v>834</v>
       </c>
       <c r="B404" t="s">
-        <v>296</v>
+        <v>439</v>
       </c>
       <c r="C404" t="s">
-        <v>439</v>
+        <v>296</v>
       </c>
       <c r="D404" t="s">
         <v>22</v>
@@ -16186,10 +16188,10 @@
         <v>834</v>
       </c>
       <c r="B405" t="s">
-        <v>296</v>
+        <v>440</v>
       </c>
       <c r="C405" t="s">
-        <v>440</v>
+        <v>296</v>
       </c>
       <c r="D405" t="s">
         <v>22</v>
@@ -16218,10 +16220,10 @@
         <v>834</v>
       </c>
       <c r="B406" t="s">
-        <v>296</v>
+        <v>441</v>
       </c>
       <c r="C406" t="s">
-        <v>441</v>
+        <v>296</v>
       </c>
       <c r="D406" t="s">
         <v>10</v>
@@ -16250,10 +16252,10 @@
         <v>834</v>
       </c>
       <c r="B407" t="s">
-        <v>296</v>
+        <v>442</v>
       </c>
       <c r="C407" t="s">
-        <v>442</v>
+        <v>296</v>
       </c>
       <c r="D407" t="s">
         <v>22</v>
@@ -16282,10 +16284,10 @@
         <v>834</v>
       </c>
       <c r="B408" t="s">
-        <v>296</v>
+        <v>443</v>
       </c>
       <c r="C408" t="s">
-        <v>443</v>
+        <v>296</v>
       </c>
       <c r="D408" t="s">
         <v>10</v>
@@ -16314,10 +16316,10 @@
         <v>834</v>
       </c>
       <c r="B409" t="s">
-        <v>296</v>
+        <v>479</v>
       </c>
       <c r="C409" t="s">
-        <v>479</v>
+        <v>296</v>
       </c>
       <c r="D409" t="s">
         <v>10</v>
@@ -16346,10 +16348,10 @@
         <v>834</v>
       </c>
       <c r="B410" t="s">
-        <v>296</v>
+        <v>481</v>
       </c>
       <c r="C410" t="s">
-        <v>481</v>
+        <v>296</v>
       </c>
       <c r="D410" t="s">
         <v>22</v>
@@ -16378,10 +16380,10 @@
         <v>834</v>
       </c>
       <c r="B411" t="s">
-        <v>296</v>
+        <v>482</v>
       </c>
       <c r="C411" t="s">
-        <v>482</v>
+        <v>296</v>
       </c>
       <c r="D411" t="s">
         <v>10</v>
@@ -16410,10 +16412,10 @@
         <v>834</v>
       </c>
       <c r="B412" t="s">
-        <v>296</v>
+        <v>483</v>
       </c>
       <c r="C412" t="s">
-        <v>483</v>
+        <v>296</v>
       </c>
       <c r="D412" t="s">
         <v>10</v>
@@ -16442,10 +16444,10 @@
         <v>834</v>
       </c>
       <c r="B413" t="s">
-        <v>296</v>
+        <v>484</v>
       </c>
       <c r="C413" t="s">
-        <v>484</v>
+        <v>296</v>
       </c>
       <c r="D413" t="s">
         <v>22</v>
@@ -16474,10 +16476,10 @@
         <v>834</v>
       </c>
       <c r="B414" t="s">
-        <v>296</v>
+        <v>485</v>
       </c>
       <c r="C414" t="s">
-        <v>485</v>
+        <v>296</v>
       </c>
       <c r="D414" t="s">
         <v>22</v>
@@ -16506,10 +16508,10 @@
         <v>834</v>
       </c>
       <c r="B415" t="s">
-        <v>296</v>
+        <v>500</v>
       </c>
       <c r="C415" t="s">
-        <v>500</v>
+        <v>296</v>
       </c>
       <c r="D415" t="s">
         <v>10</v>
@@ -16538,10 +16540,10 @@
         <v>834</v>
       </c>
       <c r="B416" t="s">
-        <v>296</v>
+        <v>502</v>
       </c>
       <c r="C416" t="s">
-        <v>502</v>
+        <v>296</v>
       </c>
       <c r="D416" t="s">
         <v>10</v>
@@ -16570,10 +16572,10 @@
         <v>834</v>
       </c>
       <c r="B417" t="s">
-        <v>296</v>
+        <v>503</v>
       </c>
       <c r="C417" t="s">
-        <v>503</v>
+        <v>296</v>
       </c>
       <c r="D417" t="s">
         <v>22</v>
@@ -16602,10 +16604,10 @@
         <v>834</v>
       </c>
       <c r="B418" t="s">
-        <v>296</v>
+        <v>504</v>
       </c>
       <c r="C418" t="s">
-        <v>504</v>
+        <v>296</v>
       </c>
       <c r="D418" t="s">
         <v>10</v>
@@ -16634,10 +16636,10 @@
         <v>834</v>
       </c>
       <c r="B419" t="s">
-        <v>296</v>
+        <v>505</v>
       </c>
       <c r="C419" t="s">
-        <v>505</v>
+        <v>296</v>
       </c>
       <c r="D419" t="s">
         <v>10</v>
@@ -16666,10 +16668,10 @@
         <v>834</v>
       </c>
       <c r="B420" t="s">
-        <v>296</v>
+        <v>506</v>
       </c>
       <c r="C420" t="s">
-        <v>506</v>
+        <v>296</v>
       </c>
       <c r="D420" t="s">
         <v>10</v>
@@ -16698,10 +16700,10 @@
         <v>834</v>
       </c>
       <c r="B421" t="s">
-        <v>296</v>
+        <v>507</v>
       </c>
       <c r="C421" t="s">
-        <v>507</v>
+        <v>296</v>
       </c>
       <c r="D421" t="s">
         <v>10</v>
@@ -16730,10 +16732,10 @@
         <v>834</v>
       </c>
       <c r="B422" t="s">
-        <v>296</v>
+        <v>509</v>
       </c>
       <c r="C422" t="s">
-        <v>509</v>
+        <v>296</v>
       </c>
       <c r="D422" t="s">
         <v>10</v>
@@ -16762,10 +16764,10 @@
         <v>834</v>
       </c>
       <c r="B423" t="s">
-        <v>296</v>
+        <v>510</v>
       </c>
       <c r="C423" t="s">
-        <v>510</v>
+        <v>296</v>
       </c>
       <c r="D423" t="s">
         <v>22</v>
@@ -16794,10 +16796,10 @@
         <v>834</v>
       </c>
       <c r="B424" t="s">
-        <v>296</v>
+        <v>511</v>
       </c>
       <c r="C424" t="s">
-        <v>511</v>
+        <v>296</v>
       </c>
       <c r="D424" t="s">
         <v>10</v>
@@ -16826,10 +16828,10 @@
         <v>834</v>
       </c>
       <c r="B425" t="s">
-        <v>296</v>
+        <v>512</v>
       </c>
       <c r="C425" t="s">
-        <v>512</v>
+        <v>296</v>
       </c>
       <c r="D425" t="s">
         <v>10</v>
@@ -16858,10 +16860,10 @@
         <v>834</v>
       </c>
       <c r="B426" t="s">
-        <v>296</v>
+        <v>513</v>
       </c>
       <c r="C426" t="s">
-        <v>513</v>
+        <v>296</v>
       </c>
       <c r="D426" t="s">
         <v>22</v>
@@ -16890,10 +16892,10 @@
         <v>834</v>
       </c>
       <c r="B427" t="s">
-        <v>296</v>
+        <v>514</v>
       </c>
       <c r="C427" t="s">
-        <v>514</v>
+        <v>296</v>
       </c>
       <c r="D427" t="s">
         <v>10</v>
@@ -16922,10 +16924,10 @@
         <v>834</v>
       </c>
       <c r="B428" t="s">
-        <v>296</v>
+        <v>516</v>
       </c>
       <c r="C428" t="s">
-        <v>516</v>
+        <v>296</v>
       </c>
       <c r="D428" t="s">
         <v>10</v>
@@ -16954,10 +16956,10 @@
         <v>834</v>
       </c>
       <c r="B429" t="s">
-        <v>296</v>
+        <v>517</v>
       </c>
       <c r="C429" t="s">
-        <v>517</v>
+        <v>296</v>
       </c>
       <c r="D429" t="s">
         <v>10</v>
@@ -16986,10 +16988,10 @@
         <v>834</v>
       </c>
       <c r="B430" t="s">
-        <v>296</v>
+        <v>518</v>
       </c>
       <c r="C430" t="s">
-        <v>518</v>
+        <v>296</v>
       </c>
       <c r="D430" t="s">
         <v>10</v>
@@ -17018,10 +17020,10 @@
         <v>834</v>
       </c>
       <c r="B431" t="s">
-        <v>296</v>
+        <v>519</v>
       </c>
       <c r="C431" t="s">
-        <v>519</v>
+        <v>296</v>
       </c>
       <c r="D431" t="s">
         <v>10</v>
@@ -17050,10 +17052,10 @@
         <v>834</v>
       </c>
       <c r="B432" t="s">
-        <v>296</v>
+        <v>520</v>
       </c>
       <c r="C432" t="s">
-        <v>520</v>
+        <v>296</v>
       </c>
       <c r="D432" t="s">
         <v>10</v>
@@ -17082,10 +17084,10 @@
         <v>834</v>
       </c>
       <c r="B433" t="s">
-        <v>296</v>
+        <v>521</v>
       </c>
       <c r="C433" t="s">
-        <v>521</v>
+        <v>296</v>
       </c>
       <c r="D433" t="s">
         <v>22</v>
@@ -17114,10 +17116,10 @@
         <v>834</v>
       </c>
       <c r="B434" t="s">
-        <v>296</v>
+        <v>523</v>
       </c>
       <c r="C434" t="s">
-        <v>523</v>
+        <v>296</v>
       </c>
       <c r="D434" t="s">
         <v>10</v>
@@ -17146,10 +17148,10 @@
         <v>834</v>
       </c>
       <c r="B435" t="s">
-        <v>296</v>
+        <v>524</v>
       </c>
       <c r="C435" t="s">
-        <v>524</v>
+        <v>296</v>
       </c>
       <c r="D435" t="s">
         <v>10</v>
@@ -17178,10 +17180,10 @@
         <v>834</v>
       </c>
       <c r="B436" t="s">
-        <v>296</v>
+        <v>525</v>
       </c>
       <c r="C436" t="s">
-        <v>525</v>
+        <v>296</v>
       </c>
       <c r="D436" t="s">
         <v>22</v>
@@ -17210,10 +17212,10 @@
         <v>834</v>
       </c>
       <c r="B437" t="s">
-        <v>296</v>
+        <v>526</v>
       </c>
       <c r="C437" t="s">
-        <v>526</v>
+        <v>296</v>
       </c>
       <c r="D437" t="s">
         <v>10</v>
@@ -17242,10 +17244,10 @@
         <v>834</v>
       </c>
       <c r="B438" t="s">
-        <v>296</v>
+        <v>527</v>
       </c>
       <c r="C438" t="s">
-        <v>527</v>
+        <v>296</v>
       </c>
       <c r="D438" t="s">
         <v>10</v>
@@ -17274,10 +17276,10 @@
         <v>834</v>
       </c>
       <c r="B439" t="s">
-        <v>296</v>
+        <v>528</v>
       </c>
       <c r="C439" t="s">
-        <v>528</v>
+        <v>296</v>
       </c>
       <c r="D439" t="s">
         <v>10</v>
@@ -17306,10 +17308,10 @@
         <v>834</v>
       </c>
       <c r="B440" t="s">
-        <v>296</v>
+        <v>530</v>
       </c>
       <c r="C440" t="s">
-        <v>530</v>
+        <v>296</v>
       </c>
       <c r="D440" t="s">
         <v>22</v>
@@ -17338,10 +17340,10 @@
         <v>834</v>
       </c>
       <c r="B441" t="s">
-        <v>296</v>
+        <v>531</v>
       </c>
       <c r="C441" t="s">
-        <v>531</v>
+        <v>296</v>
       </c>
       <c r="D441" t="s">
         <v>22</v>
@@ -17370,10 +17372,10 @@
         <v>834</v>
       </c>
       <c r="B442" t="s">
-        <v>296</v>
+        <v>532</v>
       </c>
       <c r="C442" t="s">
-        <v>532</v>
+        <v>296</v>
       </c>
       <c r="D442" t="s">
         <v>22</v>
@@ -17402,10 +17404,10 @@
         <v>834</v>
       </c>
       <c r="B443" t="s">
-        <v>296</v>
+        <v>533</v>
       </c>
       <c r="C443" t="s">
-        <v>533</v>
+        <v>296</v>
       </c>
       <c r="D443" t="s">
         <v>10</v>
@@ -17434,10 +17436,10 @@
         <v>834</v>
       </c>
       <c r="B444" t="s">
-        <v>296</v>
+        <v>534</v>
       </c>
       <c r="C444" t="s">
-        <v>534</v>
+        <v>296</v>
       </c>
       <c r="D444" t="s">
         <v>22</v>
@@ -17466,10 +17468,10 @@
         <v>834</v>
       </c>
       <c r="B445" t="s">
-        <v>296</v>
+        <v>535</v>
       </c>
       <c r="C445" t="s">
-        <v>535</v>
+        <v>296</v>
       </c>
       <c r="D445" t="s">
         <v>10</v>
@@ -17498,10 +17500,10 @@
         <v>834</v>
       </c>
       <c r="B446" t="s">
-        <v>296</v>
+        <v>537</v>
       </c>
       <c r="C446" t="s">
-        <v>537</v>
+        <v>296</v>
       </c>
       <c r="D446" t="s">
         <v>10</v>
@@ -17530,10 +17532,10 @@
         <v>834</v>
       </c>
       <c r="B447" t="s">
-        <v>296</v>
+        <v>538</v>
       </c>
       <c r="C447" t="s">
-        <v>538</v>
+        <v>296</v>
       </c>
       <c r="D447" t="s">
         <v>10</v>
@@ -17562,10 +17564,10 @@
         <v>834</v>
       </c>
       <c r="B448" t="s">
-        <v>296</v>
+        <v>539</v>
       </c>
       <c r="C448" t="s">
-        <v>539</v>
+        <v>296</v>
       </c>
       <c r="D448" t="s">
         <v>10</v>
@@ -17594,10 +17596,10 @@
         <v>834</v>
       </c>
       <c r="B449" t="s">
-        <v>296</v>
+        <v>540</v>
       </c>
       <c r="C449" t="s">
-        <v>540</v>
+        <v>296</v>
       </c>
       <c r="D449" t="s">
         <v>10</v>
@@ -17626,10 +17628,10 @@
         <v>834</v>
       </c>
       <c r="B450" t="s">
-        <v>296</v>
+        <v>541</v>
       </c>
       <c r="C450" t="s">
-        <v>541</v>
+        <v>296</v>
       </c>
       <c r="D450" t="s">
         <v>10</v>
@@ -17658,10 +17660,10 @@
         <v>834</v>
       </c>
       <c r="B451" t="s">
-        <v>296</v>
+        <v>542</v>
       </c>
       <c r="C451" t="s">
-        <v>542</v>
+        <v>296</v>
       </c>
       <c r="D451" t="s">
         <v>10</v>
@@ -17690,10 +17692,10 @@
         <v>834</v>
       </c>
       <c r="B452" t="s">
-        <v>296</v>
+        <v>544</v>
       </c>
       <c r="C452" t="s">
-        <v>544</v>
+        <v>296</v>
       </c>
       <c r="D452" t="s">
         <v>10</v>
@@ -17722,10 +17724,10 @@
         <v>834</v>
       </c>
       <c r="B453" t="s">
-        <v>296</v>
+        <v>545</v>
       </c>
       <c r="C453" t="s">
-        <v>545</v>
+        <v>296</v>
       </c>
       <c r="D453" t="s">
         <v>10</v>
@@ -17754,10 +17756,10 @@
         <v>834</v>
       </c>
       <c r="B454" t="s">
-        <v>296</v>
+        <v>546</v>
       </c>
       <c r="C454" t="s">
-        <v>546</v>
+        <v>296</v>
       </c>
       <c r="D454" t="s">
         <v>10</v>
@@ -17786,10 +17788,10 @@
         <v>834</v>
       </c>
       <c r="B455" t="s">
-        <v>296</v>
+        <v>547</v>
       </c>
       <c r="C455" t="s">
-        <v>547</v>
+        <v>296</v>
       </c>
       <c r="D455" t="s">
         <v>10</v>
@@ -17818,10 +17820,10 @@
         <v>834</v>
       </c>
       <c r="B456" t="s">
-        <v>296</v>
+        <v>548</v>
       </c>
       <c r="C456" t="s">
-        <v>548</v>
+        <v>296</v>
       </c>
       <c r="D456" t="s">
         <v>22</v>
@@ -17846,12 +17848,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K351" xr:uid="{B7A85F72-B3EC-EB4D-A3E1-C70AFE08A3AE}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J347">
-      <sortCondition ref="A1:A347"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="B246:B351">
+  <autoFilter ref="A1:J456" xr:uid="{B7A85F72-B3EC-EB4D-A3E1-C70AFE08A3AE}"/>
+  <conditionalFormatting sqref="B246:B348 B350">
     <cfRule type="duplicateValues" dxfId="0" priority="28"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17862,8 +17860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB298C69-31B2-5C4D-BF5B-7A9647DF6C97}">
   <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I106"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
